--- a/Filmes.xlsx
+++ b/Filmes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Documents\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97C1784-81C5-4B35-B965-37124CEF99BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D301E20-0E9A-4F41-8E59-6C642ED6CE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AC88744C-D9DF-4ECD-8B9A-C97C8CD0E4BD}"/>
   </bookViews>
@@ -835,10 +835,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0000"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
-    <numFmt numFmtId="166" formatCode="[h]:mm:ss;@"/>
     <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -1331,12 +1330,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1344,9 +1337,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1354,30 +1344,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1435,7 +1407,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1453,6 +1424,34 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2029,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A731FE-9613-428C-993D-C03F78E1A52D}">
   <dimension ref="A1:AF201"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V3" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T61" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="Y47" sqref="Y47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2041,32 +2040,32 @@
     <col min="4" max="4" width="12.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="72" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" style="57" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" style="55" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="53" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" style="48" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" style="46" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" style="44" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="23"/>
     <col min="13" max="13" width="14.85546875" style="26" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="6"/>
-    <col min="15" max="15" width="9.140625" style="62"/>
+    <col min="15" max="15" width="9.140625" style="53"/>
     <col min="16" max="16" width="21.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="45.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.85546875" style="6" customWidth="1"/>
     <col min="19" max="19" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="33.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.85546875" style="11" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" style="57" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.140625" style="11"/>
-    <col min="24" max="24" width="8.5703125" style="68" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" style="59" customWidth="1"/>
     <col min="25" max="25" width="47.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14.85546875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="11.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5703125" style="72" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9.140625" style="11"/>
     <col min="29" max="29" width="9.140625" style="9"/>
     <col min="30" max="30" width="40.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.42578125" style="66" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.42578125" style="70" bestFit="1" customWidth="1"/>
     <col min="33" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
@@ -2089,19 +2088,19 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="78" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="45" t="s">
         <v>228</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -2113,7 +2112,7 @@
       <c r="N1" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="O1" s="61"/>
+      <c r="O1" s="52"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
@@ -2135,19 +2134,19 @@
       <c r="F2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="72">
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="57">
+      <c r="I2" s="48">
         <v>175000000</v>
       </c>
-      <c r="J2" s="55">
+      <c r="J2" s="46">
         <v>735000000</v>
       </c>
-      <c r="K2" s="53">
+      <c r="K2" s="44">
         <f>J2-I2</f>
         <v>560000000</v>
       </c>
@@ -2184,19 +2183,19 @@
       <c r="F3" s="9">
         <v>8</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="72">
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="57">
+      <c r="I3" s="48">
         <v>30000000</v>
       </c>
-      <c r="J3" s="55">
+      <c r="J3" s="46">
         <v>406594102</v>
       </c>
-      <c r="K3" s="53">
+      <c r="K3" s="44">
         <f t="shared" ref="K3:K66" si="3">J3-I3</f>
         <v>376594102</v>
       </c>
@@ -2233,19 +2232,19 @@
       <c r="F4" s="9">
         <v>7</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="72">
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="57">
+      <c r="I4" s="48">
         <v>858000</v>
       </c>
-      <c r="J4" s="55">
+      <c r="J4" s="46">
         <v>267400000</v>
       </c>
-      <c r="K4" s="53">
+      <c r="K4" s="44">
         <f t="shared" si="3"/>
         <v>266542000</v>
       </c>
@@ -2264,10 +2263,10 @@
       <c r="P4" s="27"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="13"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="39"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="76"/>
     </row>
     <row r="5" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
@@ -2289,19 +2288,19 @@
       <c r="F5" s="9">
         <v>8</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="72">
         <v>5.486111111111111E-2</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="57">
+      <c r="I5" s="48">
         <v>75000000</v>
       </c>
-      <c r="J5" s="55">
+      <c r="J5" s="46">
         <v>320000000</v>
       </c>
-      <c r="K5" s="53">
+      <c r="K5" s="44">
         <f t="shared" si="3"/>
         <v>245000000</v>
       </c>
@@ -2317,48 +2316,48 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O5" s="63"/>
+      <c r="O5" s="54"/>
       <c r="P5" s="32"/>
       <c r="Q5" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="R5" s="36"/>
-      <c r="S5" s="41" t="s">
+      <c r="R5" s="34"/>
+      <c r="S5" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="T5" s="42" t="s">
+      <c r="T5" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="U5" s="42" t="s">
+      <c r="U5" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="V5" s="43" t="s">
+      <c r="V5" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="49"/>
-      <c r="X5" s="70" t="s">
+      <c r="W5" s="41"/>
+      <c r="X5" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="Y5" s="42" t="s">
+      <c r="Y5" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="Z5" s="42" t="s">
+      <c r="Z5" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="AA5" s="48" t="s">
+      <c r="AA5" s="58" t="s">
         <v>4</v>
       </c>
       <c r="AB5" s="14"/>
-      <c r="AC5" s="70" t="s">
+      <c r="AC5" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="AD5" s="42" t="s">
+      <c r="AD5" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="AE5" s="69" t="s">
+      <c r="AE5" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="AF5" s="67" t="s">
+      <c r="AF5" s="69" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2382,19 +2381,19 @@
       <c r="F6" s="9">
         <v>9</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="72">
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="48">
         <v>175000000</v>
       </c>
-      <c r="J6" s="55">
+      <c r="J6" s="46">
         <v>505000000</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="44">
         <f t="shared" si="3"/>
         <v>330000000</v>
       </c>
@@ -2410,14 +2409,14 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="O6" s="64"/>
+      <c r="O6" s="55"/>
       <c r="P6" s="28" t="s">
         <v>172</v>
       </c>
       <c r="Q6" s="31">
         <v>105</v>
       </c>
-      <c r="R6" s="37"/>
+      <c r="R6" s="35"/>
       <c r="S6" s="6" cm="1">
         <f t="array" ref="S6:V30">_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER($A:$M,($H:$H="Pixar")),1,2,13,7)</f>
         <v>1</v>
@@ -2428,10 +2427,10 @@
       <c r="U6" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V6" s="45">
+      <c r="V6" s="73">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="W6" s="49"/>
+      <c r="W6" s="41"/>
       <c r="X6" s="9" cm="1">
         <f t="array" ref="X6:AA75">_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER($A:$M,($H:$H="Disney")),1,2,13,7)</f>
         <v>3</v>
@@ -2442,7 +2441,7 @@
       <c r="Z6" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA6" s="45">
+      <c r="AA6" s="73">
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="AB6" s="14"/>
@@ -2456,7 +2455,7 @@
       <c r="AE6" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF6" s="66">
+      <c r="AF6" s="70">
         <v>6.805555555555555E-2</v>
       </c>
     </row>
@@ -2480,19 +2479,19 @@
       <c r="F7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="72">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="57">
+      <c r="I7" s="48">
         <v>165000000</v>
       </c>
-      <c r="J7" s="55">
+      <c r="J7" s="46">
         <v>471200000</v>
       </c>
-      <c r="K7" s="53">
+      <c r="K7" s="44">
         <f t="shared" si="3"/>
         <v>306200000</v>
       </c>
@@ -2508,7 +2507,7 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="O7" s="64"/>
+      <c r="O7" s="55"/>
       <c r="P7" s="28" t="s">
         <v>173</v>
       </c>
@@ -2516,8 +2515,8 @@
         <f>VLOOKUP($Q$6,$A$2:$B$141,2,1)</f>
         <v>Cinderela</v>
       </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="44">
+      <c r="R7" s="35"/>
+      <c r="S7" s="40">
         <v>2</v>
       </c>
       <c r="T7" s="11" t="str">
@@ -2526,11 +2525,11 @@
       <c r="U7" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V7" s="45">
+      <c r="V7" s="73">
         <v>5.6250000000000001E-2</v>
       </c>
-      <c r="W7" s="49"/>
-      <c r="X7" s="71">
+      <c r="W7" s="41"/>
+      <c r="X7" s="62">
         <v>4</v>
       </c>
       <c r="Y7" s="11" t="str">
@@ -2539,11 +2538,11 @@
       <c r="Z7" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA7" s="45">
+      <c r="AA7" s="73">
         <v>5.486111111111111E-2</v>
       </c>
       <c r="AB7" s="14"/>
-      <c r="AC7" s="71">
+      <c r="AC7" s="62">
         <v>23</v>
       </c>
       <c r="AD7" s="11" t="str">
@@ -2552,7 +2551,7 @@
       <c r="AE7" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF7" s="66">
+      <c r="AF7" s="70">
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
@@ -2576,19 +2575,19 @@
       <c r="F8" s="9">
         <v>9</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="57">
+      <c r="I8" s="48">
         <v>60000000</v>
       </c>
-      <c r="J8" s="55">
+      <c r="J8" s="46">
         <v>124000000</v>
       </c>
-      <c r="K8" s="53">
+      <c r="K8" s="44">
         <f t="shared" si="3"/>
         <v>64000000</v>
       </c>
@@ -2604,7 +2603,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="O8" s="64"/>
+      <c r="O8" s="55"/>
       <c r="P8" s="28" t="s">
         <v>70</v>
       </c>
@@ -2612,8 +2611,8 @@
         <f>VLOOKUP($Q$6,$A$2:$C$141,3,1)</f>
         <v>1950</v>
       </c>
-      <c r="R8" s="37"/>
-      <c r="S8" s="44">
+      <c r="R8" s="35"/>
+      <c r="S8" s="40">
         <v>18</v>
       </c>
       <c r="T8" s="11" t="str">
@@ -2622,11 +2621,11 @@
       <c r="U8" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V8" s="45">
+      <c r="V8" s="73">
         <v>8.7500000000000008E-2</v>
       </c>
-      <c r="W8" s="49"/>
-      <c r="X8" s="71">
+      <c r="W8" s="41"/>
+      <c r="X8" s="62">
         <v>5</v>
       </c>
       <c r="Y8" s="11" t="str">
@@ -2635,11 +2634,11 @@
       <c r="Z8" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA8" s="45">
+      <c r="AA8" s="73">
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="AB8" s="14"/>
-      <c r="AC8" s="71">
+      <c r="AC8" s="62">
         <v>24</v>
       </c>
       <c r="AD8" s="11" t="str">
@@ -2648,7 +2647,7 @@
       <c r="AE8" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF8" s="66">
+      <c r="AF8" s="70">
         <v>7.2222222222222229E-2</v>
       </c>
     </row>
@@ -2672,19 +2671,19 @@
       <c r="F9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="72">
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="57">
+      <c r="I9" s="48">
         <v>80000000</v>
       </c>
-      <c r="J9" s="55">
+      <c r="J9" s="46">
         <v>273000000</v>
       </c>
-      <c r="K9" s="53">
+      <c r="K9" s="44">
         <f t="shared" si="3"/>
         <v>193000000</v>
       </c>
@@ -2700,7 +2699,7 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="O9" s="64"/>
+      <c r="O9" s="55"/>
       <c r="P9" s="28" t="s">
         <v>5</v>
       </c>
@@ -2708,8 +2707,8 @@
         <f>VLOOKUP($Q$6,$A$2:$H$141,8,1)</f>
         <v>Disney</v>
       </c>
-      <c r="R9" s="37"/>
-      <c r="S9" s="44">
+      <c r="R9" s="35"/>
+      <c r="S9" s="40">
         <v>19</v>
       </c>
       <c r="T9" s="11" t="str">
@@ -2718,11 +2717,11 @@
       <c r="U9" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V9" s="45">
+      <c r="V9" s="73">
         <v>6.5972222222222224E-2</v>
       </c>
-      <c r="W9" s="49"/>
-      <c r="X9" s="71">
+      <c r="W9" s="41"/>
+      <c r="X9" s="62">
         <v>6</v>
       </c>
       <c r="Y9" s="11" t="str">
@@ -2731,11 +2730,11 @@
       <c r="Z9" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA9" s="45">
+      <c r="AA9" s="73">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AB9" s="14"/>
-      <c r="AC9" s="71">
+      <c r="AC9" s="62">
         <v>25</v>
       </c>
       <c r="AD9" s="11" t="str">
@@ -2744,7 +2743,7 @@
       <c r="AE9" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF9" s="66">
+      <c r="AF9" s="70">
         <v>6.1805555555555558E-2</v>
       </c>
     </row>
@@ -2768,19 +2767,19 @@
       <c r="F10" s="9">
         <v>8</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="72">
         <v>5.7638888888888885E-2</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="57">
+      <c r="I10" s="48">
         <v>40000000</v>
       </c>
-      <c r="J10" s="55">
+      <c r="J10" s="46">
         <v>517000000</v>
       </c>
-      <c r="K10" s="53">
+      <c r="K10" s="44">
         <f t="shared" si="3"/>
         <v>477000000</v>
       </c>
@@ -2796,16 +2795,16 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="O10" s="64"/>
+      <c r="O10" s="55"/>
       <c r="P10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="60">
+      <c r="Q10" s="51">
         <f>VLOOKUP($Q$6,$A$2:$G$141,7,1)</f>
         <v>5.1388888888888894E-2</v>
       </c>
-      <c r="R10" s="37"/>
-      <c r="S10" s="44">
+      <c r="R10" s="35"/>
+      <c r="S10" s="40">
         <v>20</v>
       </c>
       <c r="T10" s="11" t="str">
@@ -2814,11 +2813,11 @@
       <c r="U10" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V10" s="45">
+      <c r="V10" s="73">
         <v>7.2916666666666671E-2</v>
       </c>
-      <c r="W10" s="49"/>
-      <c r="X10" s="71">
+      <c r="W10" s="41"/>
+      <c r="X10" s="62">
         <v>8</v>
       </c>
       <c r="Y10" s="11" t="str">
@@ -2827,11 +2826,11 @@
       <c r="Z10" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA10" s="45">
+      <c r="AA10" s="73">
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="AB10" s="14"/>
-      <c r="AC10" s="71">
+      <c r="AC10" s="62">
         <v>26</v>
       </c>
       <c r="AD10" s="11" t="str">
@@ -2840,7 +2839,7 @@
       <c r="AE10" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF10" s="66">
+      <c r="AF10" s="70">
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
@@ -2864,19 +2863,19 @@
       <c r="F11" s="9">
         <v>8</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="72">
         <v>7.2222222222222229E-2</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="57">
+      <c r="I11" s="48">
         <v>150000000</v>
       </c>
-      <c r="J11" s="55">
+      <c r="J11" s="46">
         <v>599000000</v>
       </c>
-      <c r="K11" s="53">
+      <c r="K11" s="44">
         <f t="shared" si="3"/>
         <v>449000000</v>
       </c>
@@ -2892,7 +2891,7 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="O11" s="64"/>
+      <c r="O11" s="55"/>
       <c r="P11" s="28" t="s">
         <v>3</v>
       </c>
@@ -2900,8 +2899,8 @@
         <f>VLOOKUP($Q$6,$A$2:$F$141,6,1)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="37"/>
-      <c r="S11" s="44">
+      <c r="R11" s="35"/>
+      <c r="S11" s="40">
         <v>21</v>
       </c>
       <c r="T11" s="11" t="str">
@@ -2910,11 +2909,11 @@
       <c r="U11" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V11" s="45">
+      <c r="V11" s="73">
         <v>6.3888888888888884E-2</v>
       </c>
-      <c r="W11" s="49"/>
-      <c r="X11" s="71">
+      <c r="W11" s="41"/>
+      <c r="X11" s="62">
         <v>9</v>
       </c>
       <c r="Y11" s="11" t="str">
@@ -2923,11 +2922,11 @@
       <c r="Z11" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA11" s="45">
+      <c r="AA11" s="73">
         <v>5.7638888888888885E-2</v>
       </c>
       <c r="AB11" s="14"/>
-      <c r="AC11" s="71">
+      <c r="AC11" s="62">
         <v>27</v>
       </c>
       <c r="AD11" s="11" t="str">
@@ -2936,7 +2935,7 @@
       <c r="AE11" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF11" s="66">
+      <c r="AF11" s="70">
         <v>6.458333333333334E-2</v>
       </c>
     </row>
@@ -2960,19 +2959,19 @@
       <c r="F12" s="9">
         <v>10</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="72">
         <v>7.5694444444444439E-2</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="57">
+      <c r="I12" s="48">
         <v>150000000</v>
       </c>
-      <c r="J12" s="55">
+      <c r="J12" s="46">
         <v>256800000</v>
       </c>
-      <c r="K12" s="53">
+      <c r="K12" s="44">
         <f t="shared" si="3"/>
         <v>106800000</v>
       </c>
@@ -2988,7 +2987,7 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="O12" s="64"/>
+      <c r="O12" s="55"/>
       <c r="P12" s="28" t="s">
         <v>82</v>
       </c>
@@ -2996,8 +2995,8 @@
         <f>VLOOKUP($Q$6,$A$2:$M$141,13,1)</f>
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="R12" s="37"/>
-      <c r="S12" s="44">
+      <c r="R12" s="35"/>
+      <c r="S12" s="40">
         <v>98</v>
       </c>
       <c r="T12" s="11" t="str">
@@ -3006,11 +3005,11 @@
       <c r="U12" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V12" s="45">
+      <c r="V12" s="73">
         <v>6.5972222222222224E-2</v>
       </c>
-      <c r="W12" s="49"/>
-      <c r="X12" s="71">
+      <c r="W12" s="41"/>
+      <c r="X12" s="62">
         <v>10</v>
       </c>
       <c r="Y12" s="11" t="str">
@@ -3019,11 +3018,11 @@
       <c r="Z12" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA12" s="45">
+      <c r="AA12" s="73">
         <v>7.2222222222222229E-2</v>
       </c>
       <c r="AB12" s="14"/>
-      <c r="AC12" s="71">
+      <c r="AC12" s="62">
         <v>28</v>
       </c>
       <c r="AD12" s="11" t="str">
@@ -3032,7 +3031,7 @@
       <c r="AE12" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF12" s="66">
+      <c r="AF12" s="70">
         <v>5.8333333333333327E-2</v>
       </c>
     </row>
@@ -3056,19 +3055,19 @@
       <c r="F13" s="9">
         <v>9</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="57">
+      <c r="I13" s="48">
         <v>260000000</v>
       </c>
-      <c r="J13" s="55">
+      <c r="J13" s="46">
         <v>591794936</v>
       </c>
-      <c r="K13" s="53">
+      <c r="K13" s="44">
         <f t="shared" si="3"/>
         <v>331794936</v>
       </c>
@@ -3084,11 +3083,11 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="O13" s="65"/>
+      <c r="O13" s="56"/>
       <c r="P13" s="29"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="26"/>
-      <c r="S13" s="44">
+      <c r="S13" s="40">
         <v>99</v>
       </c>
       <c r="T13" s="11" t="str">
@@ -3097,11 +3096,11 @@
       <c r="U13" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V13" s="45">
+      <c r="V13" s="73">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="W13" s="49"/>
-      <c r="X13" s="71">
+      <c r="W13" s="41"/>
+      <c r="X13" s="62">
         <v>11</v>
       </c>
       <c r="Y13" s="11" t="str">
@@ -3110,11 +3109,11 @@
       <c r="Z13" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA13" s="45">
+      <c r="AA13" s="73">
         <v>7.5694444444444439E-2</v>
       </c>
       <c r="AB13" s="14"/>
-      <c r="AC13" s="71">
+      <c r="AC13" s="62">
         <v>29</v>
       </c>
       <c r="AD13" s="11" t="str">
@@ -3123,7 +3122,7 @@
       <c r="AE13" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF13" s="66">
+      <c r="AF13" s="70">
         <v>6.1805555555555558E-2</v>
       </c>
     </row>
@@ -3147,19 +3146,19 @@
       <c r="F14" s="9">
         <v>9</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="72">
         <v>7.4305555555555555E-2</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="48">
         <v>150000000</v>
       </c>
-      <c r="J14" s="55">
+      <c r="J14" s="46">
         <v>700000000</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="44">
         <f t="shared" si="3"/>
         <v>550000000</v>
       </c>
@@ -3175,13 +3174,13 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="O14" s="64"/>
+      <c r="O14" s="55"/>
       <c r="P14" s="28"/>
       <c r="Q14" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="R14" s="37"/>
-      <c r="S14" s="44">
+      <c r="R14" s="35"/>
+      <c r="S14" s="40">
         <v>106</v>
       </c>
       <c r="T14" s="11" t="str">
@@ -3190,11 +3189,11 @@
       <c r="U14" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V14" s="45">
+      <c r="V14" s="73">
         <v>6.5972222222222224E-2</v>
       </c>
-      <c r="W14" s="49"/>
-      <c r="X14" s="71">
+      <c r="W14" s="41"/>
+      <c r="X14" s="62">
         <v>12</v>
       </c>
       <c r="Y14" s="11" t="str">
@@ -3203,11 +3202,11 @@
       <c r="Z14" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA14" s="45">
+      <c r="AA14" s="73">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="AB14" s="14"/>
-      <c r="AC14" s="71">
+      <c r="AC14" s="62">
         <v>33</v>
       </c>
       <c r="AD14" s="11" t="str">
@@ -3216,7 +3215,7 @@
       <c r="AE14" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF14" s="66">
+      <c r="AF14" s="70">
         <v>6.3888888888888884E-2</v>
       </c>
     </row>
@@ -3240,19 +3239,19 @@
       <c r="F15" s="9">
         <v>9</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="72">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="57">
+      <c r="I15" s="48">
         <v>150000000</v>
       </c>
-      <c r="J15" s="55">
+      <c r="J15" s="46">
         <v>1285000000</v>
       </c>
-      <c r="K15" s="53">
+      <c r="K15" s="44">
         <f t="shared" si="3"/>
         <v>1135000000</v>
       </c>
@@ -3268,15 +3267,15 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="O15" s="64"/>
+      <c r="O15" s="55"/>
       <c r="P15" s="28" t="s">
         <v>173</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="R15" s="37"/>
-      <c r="S15" s="44">
+        <v>153</v>
+      </c>
+      <c r="R15" s="35"/>
+      <c r="S15" s="40">
         <v>108</v>
       </c>
       <c r="T15" s="11" t="str">
@@ -3285,11 +3284,11 @@
       <c r="U15" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V15" s="45">
+      <c r="V15" s="73">
         <v>7.1527777777777787E-2</v>
       </c>
-      <c r="W15" s="49"/>
-      <c r="X15" s="71">
+      <c r="W15" s="41"/>
+      <c r="X15" s="62">
         <v>13</v>
       </c>
       <c r="Y15" s="11" t="str">
@@ -3298,11 +3297,11 @@
       <c r="Z15" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA15" s="45">
+      <c r="AA15" s="73">
         <v>7.4305555555555555E-2</v>
       </c>
       <c r="AB15" s="14"/>
-      <c r="AC15" s="71">
+      <c r="AC15" s="62">
         <v>34</v>
       </c>
       <c r="AD15" s="11" t="str">
@@ -3311,7 +3310,7 @@
       <c r="AE15" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF15" s="66">
+      <c r="AF15" s="70">
         <v>6.3888888888888884E-2</v>
       </c>
     </row>
@@ -3335,19 +3334,19 @@
       <c r="F16" s="9">
         <v>9</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="72">
         <v>7.9861111111111105E-2</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="57">
+      <c r="I16" s="48">
         <v>91000000</v>
       </c>
-      <c r="J16" s="55">
+      <c r="J16" s="46">
         <v>631442092</v>
       </c>
-      <c r="K16" s="53">
+      <c r="K16" s="44">
         <f t="shared" si="3"/>
         <v>540442092</v>
       </c>
@@ -3363,16 +3362,16 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="O16" s="64"/>
+      <c r="O16" s="55"/>
       <c r="P16" s="28" t="s">
         <v>70</v>
       </c>
       <c r="Q16" s="31">
         <f>VLOOKUP($Q$15,$B:$N,2,0)</f>
-        <v>2010</v>
-      </c>
-      <c r="R16" s="37"/>
-      <c r="S16" s="44">
+        <v>1941</v>
+      </c>
+      <c r="R16" s="35"/>
+      <c r="S16" s="40">
         <v>109</v>
       </c>
       <c r="T16" s="11" t="str">
@@ -3381,11 +3380,11 @@
       <c r="U16" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V16" s="45">
+      <c r="V16" s="73">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="W16" s="49"/>
-      <c r="X16" s="71">
+      <c r="W16" s="41"/>
+      <c r="X16" s="62">
         <v>14</v>
       </c>
       <c r="Y16" s="11" t="str">
@@ -3394,11 +3393,11 @@
       <c r="Z16" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA16" s="45">
+      <c r="AA16" s="73">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AB16" s="14"/>
-      <c r="AC16" s="71">
+      <c r="AC16" s="62">
         <v>35</v>
       </c>
       <c r="AD16" s="11" t="str">
@@ -3407,7 +3406,7 @@
       <c r="AE16" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF16" s="66">
+      <c r="AF16" s="70">
         <v>6.5972222222222224E-2</v>
       </c>
     </row>
@@ -3431,19 +3430,19 @@
       <c r="F17" s="9">
         <v>9</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="72">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="57">
+      <c r="I17" s="48">
         <v>150000000</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J17" s="46">
         <v>1025000000</v>
       </c>
-      <c r="K17" s="53">
+      <c r="K17" s="44">
         <f t="shared" si="3"/>
         <v>875000000</v>
       </c>
@@ -3459,16 +3458,16 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="O17" s="64"/>
+      <c r="O17" s="55"/>
       <c r="P17" s="28" t="s">
         <v>5</v>
       </c>
       <c r="Q17" s="31" t="str">
         <f>VLOOKUP($Q$15,$B:$N,7,0)</f>
-        <v>Dreamworks</v>
-      </c>
-      <c r="R17" s="37"/>
-      <c r="S17" s="44">
+        <v>Disney</v>
+      </c>
+      <c r="R17" s="35"/>
+      <c r="S17" s="40">
         <v>110</v>
       </c>
       <c r="T17" s="11" t="str">
@@ -3477,11 +3476,11 @@
       <c r="U17" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V17" s="45">
+      <c r="V17" s="73">
         <v>7.2222222222222229E-2</v>
       </c>
-      <c r="W17" s="49"/>
-      <c r="X17" s="71">
+      <c r="W17" s="41"/>
+      <c r="X17" s="62">
         <v>15</v>
       </c>
       <c r="Y17" s="11" t="str">
@@ -3490,11 +3489,11 @@
       <c r="Z17" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA17" s="45">
+      <c r="AA17" s="73">
         <v>7.9861111111111105E-2</v>
       </c>
       <c r="AB17" s="14"/>
-      <c r="AC17" s="71">
+      <c r="AC17" s="62">
         <v>36</v>
       </c>
       <c r="AD17" s="11" t="str">
@@ -3503,7 +3502,7 @@
       <c r="AE17" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF17" s="66">
+      <c r="AF17" s="70">
         <v>6.7361111111111108E-2</v>
       </c>
     </row>
@@ -3527,19 +3526,19 @@
       <c r="F18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="72">
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="57">
+      <c r="I18" s="48">
         <v>46000000</v>
       </c>
-      <c r="J18" s="55">
+      <c r="J18" s="46">
         <v>250400000</v>
       </c>
-      <c r="K18" s="53">
+      <c r="K18" s="44">
         <f t="shared" si="3"/>
         <v>204400000</v>
       </c>
@@ -3555,16 +3554,16 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="O18" s="64"/>
+      <c r="O18" s="55"/>
       <c r="P18" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="59">
+      <c r="Q18" s="50">
         <f>VLOOKUP($Q$15,$B:$N,6,0)</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="R18" s="37"/>
-      <c r="S18" s="44">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="R18" s="35"/>
+      <c r="S18" s="40">
         <v>111</v>
       </c>
       <c r="T18" s="11" t="str">
@@ -3573,11 +3572,11 @@
       <c r="U18" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V18" s="45">
+      <c r="V18" s="73">
         <v>6.805555555555555E-2</v>
       </c>
-      <c r="W18" s="49"/>
-      <c r="X18" s="71">
+      <c r="W18" s="41"/>
+      <c r="X18" s="62">
         <v>16</v>
       </c>
       <c r="Y18" s="11" t="str">
@@ -3586,11 +3585,11 @@
       <c r="Z18" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA18" s="45">
+      <c r="AA18" s="73">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AB18" s="14"/>
-      <c r="AC18" s="71">
+      <c r="AC18" s="62">
         <v>37</v>
       </c>
       <c r="AD18" s="11" t="str">
@@ -3599,7 +3598,7 @@
       <c r="AE18" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF18" s="66">
+      <c r="AF18" s="70">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -3623,19 +3622,19 @@
       <c r="F19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="72">
         <v>8.7500000000000008E-2</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="57">
+      <c r="I19" s="48">
         <v>200000000</v>
       </c>
-      <c r="J19" s="55">
+      <c r="J19" s="46">
         <v>1243000000</v>
       </c>
-      <c r="K19" s="53">
+      <c r="K19" s="44">
         <f t="shared" si="3"/>
         <v>1043000000</v>
       </c>
@@ -3651,16 +3650,16 @@
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="O19" s="64"/>
+      <c r="O19" s="55"/>
       <c r="P19" s="28" t="s">
         <v>3</v>
       </c>
       <c r="Q19" s="31">
         <f>VLOOKUP($Q$15,$B:$N,5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="37"/>
-      <c r="S19" s="44">
+        <v>8</v>
+      </c>
+      <c r="R19" s="35"/>
+      <c r="S19" s="40">
         <v>112</v>
       </c>
       <c r="T19" s="11" t="str">
@@ -3669,11 +3668,11 @@
       <c r="U19" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V19" s="45">
+      <c r="V19" s="73">
         <v>7.7083333333333337E-2</v>
       </c>
-      <c r="W19" s="49"/>
-      <c r="X19" s="71">
+      <c r="W19" s="41"/>
+      <c r="X19" s="62">
         <v>17</v>
       </c>
       <c r="Y19" s="11" t="str">
@@ -3682,11 +3681,11 @@
       <c r="Z19" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA19" s="45">
+      <c r="AA19" s="73">
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="AB19" s="14"/>
-      <c r="AC19" s="71">
+      <c r="AC19" s="62">
         <v>101</v>
       </c>
       <c r="AD19" s="11" t="str">
@@ -3695,7 +3694,7 @@
       <c r="AE19" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF19" s="66">
+      <c r="AF19" s="70">
         <v>5.9722222222222225E-2</v>
       </c>
     </row>
@@ -3719,19 +3718,19 @@
       <c r="F20" s="9">
         <v>10</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="72">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="57">
+      <c r="I20" s="48">
         <v>175000000</v>
       </c>
-      <c r="J20" s="55">
+      <c r="J20" s="46">
         <v>858800000</v>
       </c>
-      <c r="K20" s="53">
+      <c r="K20" s="44">
         <f t="shared" si="3"/>
         <v>683800000</v>
       </c>
@@ -3747,16 +3746,16 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="O20" s="64"/>
+      <c r="O20" s="55"/>
       <c r="P20" s="28" t="s">
         <v>82</v>
       </c>
       <c r="Q20" s="31" t="str">
         <f>VLOOKUP($Q$15,$B:$N,12,0)</f>
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="R20" s="37"/>
-      <c r="S20" s="44">
+        <v>ASSISTIDO</v>
+      </c>
+      <c r="R20" s="35"/>
+      <c r="S20" s="40">
         <v>113</v>
       </c>
       <c r="T20" s="11" t="str">
@@ -3765,11 +3764,11 @@
       <c r="U20" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V20" s="45">
+      <c r="V20" s="73">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="W20" s="49"/>
-      <c r="X20" s="71">
+      <c r="W20" s="41"/>
+      <c r="X20" s="62">
         <v>31</v>
       </c>
       <c r="Y20" s="11" t="str">
@@ -3778,11 +3777,11 @@
       <c r="Z20" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA20" s="45">
+      <c r="AA20" s="73">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="AB20" s="14"/>
-      <c r="AC20" s="71">
+      <c r="AC20" s="62">
         <v>118</v>
       </c>
       <c r="AD20" s="11" t="str">
@@ -3791,7 +3790,7 @@
       <c r="AE20" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF20" s="66">
+      <c r="AF20" s="70">
         <v>7.0833333333333331E-2</v>
       </c>
     </row>
@@ -3815,19 +3814,19 @@
       <c r="F21" s="9">
         <v>9</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="72">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="57">
+      <c r="I21" s="48">
         <v>200000000</v>
       </c>
-      <c r="J21" s="55">
+      <c r="J21" s="46">
         <v>814300000</v>
       </c>
-      <c r="K21" s="53">
+      <c r="K21" s="44">
         <f t="shared" si="3"/>
         <v>614300000</v>
       </c>
@@ -3848,10 +3847,10 @@
       </c>
       <c r="Q21" s="31">
         <f>VLOOKUP($Q$15,$B:$N,13,0)</f>
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="R21" s="26"/>
-      <c r="S21" s="44">
+      <c r="S21" s="40">
         <v>114</v>
       </c>
       <c r="T21" s="11" t="str">
@@ -3860,11 +3859,11 @@
       <c r="U21" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V21" s="45">
+      <c r="V21" s="73">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="W21" s="49"/>
-      <c r="X21" s="71">
+      <c r="W21" s="41"/>
+      <c r="X21" s="62">
         <v>32</v>
       </c>
       <c r="Y21" s="11" t="str">
@@ -3873,11 +3872,11 @@
       <c r="Z21" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA21" s="45">
+      <c r="AA21" s="73">
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="AB21" s="14"/>
-      <c r="AC21" s="71">
+      <c r="AC21" s="62">
         <v>122</v>
       </c>
       <c r="AD21" s="11" t="str">
@@ -3886,7 +3885,7 @@
       <c r="AE21" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF21" s="66">
+      <c r="AF21" s="70">
         <v>5.9722222222222225E-2</v>
       </c>
     </row>
@@ -3910,19 +3909,19 @@
       <c r="F22" s="9">
         <v>9</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="72">
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="57">
+      <c r="I22" s="48">
         <v>115000000</v>
       </c>
-      <c r="J22" s="55">
+      <c r="J22" s="46">
         <v>577400000</v>
       </c>
-      <c r="K22" s="53">
+      <c r="K22" s="44">
         <f t="shared" si="3"/>
         <v>462400000</v>
       </c>
@@ -3939,7 +3938,7 @@
         <v>21</v>
       </c>
       <c r="R22" s="26"/>
-      <c r="S22" s="44">
+      <c r="S22" s="40">
         <v>129</v>
       </c>
       <c r="T22" s="11" t="str">
@@ -3948,11 +3947,11 @@
       <c r="U22" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V22" s="45">
+      <c r="V22" s="73">
         <v>6.458333333333334E-2</v>
       </c>
-      <c r="W22" s="49"/>
-      <c r="X22" s="71">
+      <c r="W22" s="41"/>
+      <c r="X22" s="62">
         <v>38</v>
       </c>
       <c r="Y22" s="11" t="str">
@@ -3961,11 +3960,11 @@
       <c r="Z22" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA22" s="45">
+      <c r="AA22" s="73">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="AB22" s="14"/>
-      <c r="AC22" s="71">
+      <c r="AC22" s="62">
         <v>136</v>
       </c>
       <c r="AD22" s="11" t="str">
@@ -3974,7 +3973,7 @@
       <c r="AE22" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF22" s="66">
+      <c r="AF22" s="70">
         <v>6.8749999999999992E-2</v>
       </c>
     </row>
@@ -3998,19 +3997,19 @@
       <c r="F23" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="72">
         <v>6.805555555555555E-2</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="57">
+      <c r="I23" s="48">
         <v>165000000</v>
       </c>
-      <c r="J23" s="55">
+      <c r="J23" s="46">
         <v>494000000</v>
       </c>
-      <c r="K23" s="53">
+      <c r="K23" s="44">
         <f t="shared" si="3"/>
         <v>329000000</v>
       </c>
@@ -4031,7 +4030,7 @@
         <v>191</v>
       </c>
       <c r="R23" s="26"/>
-      <c r="S23" s="44">
+      <c r="S23" s="40">
         <v>130</v>
       </c>
       <c r="T23" s="11" t="str">
@@ -4040,11 +4039,11 @@
       <c r="U23" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V23" s="45">
+      <c r="V23" s="73">
         <v>8.1250000000000003E-2</v>
       </c>
-      <c r="W23" s="49"/>
-      <c r="X23" s="71">
+      <c r="W23" s="41"/>
+      <c r="X23" s="62">
         <v>39</v>
       </c>
       <c r="Y23" s="11" t="str">
@@ -4053,7 +4052,7 @@
       <c r="Z23" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA23" s="45">
+      <c r="AA23" s="73">
         <v>7.0833333333333331E-2</v>
       </c>
       <c r="AB23" s="14"/>
@@ -4066,7 +4065,7 @@
       <c r="AE23" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF23" s="66">
+      <c r="AF23" s="70">
         <v>5.7638888888888885E-2</v>
       </c>
     </row>
@@ -4090,19 +4089,19 @@
       <c r="F24" s="9">
         <v>9</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="72">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="57">
+      <c r="I24" s="48">
         <v>145000000</v>
       </c>
-      <c r="J24" s="55">
+      <c r="J24" s="46">
         <v>621500000</v>
       </c>
-      <c r="K24" s="53">
+      <c r="K24" s="44">
         <f t="shared" si="3"/>
         <v>476500000</v>
       </c>
@@ -4125,7 +4124,7 @@
         <v>84</v>
       </c>
       <c r="R24" s="26"/>
-      <c r="S24" s="44">
+      <c r="S24" s="40">
         <v>131</v>
       </c>
       <c r="T24" s="11" t="str">
@@ -4134,11 +4133,11 @@
       <c r="U24" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V24" s="45">
+      <c r="V24" s="73">
         <v>7.3611111111111113E-2</v>
       </c>
-      <c r="W24" s="49"/>
-      <c r="X24" s="71">
+      <c r="W24" s="41"/>
+      <c r="X24" s="62">
         <v>40</v>
       </c>
       <c r="Y24" s="11" t="str">
@@ -4147,7 +4146,7 @@
       <c r="Z24" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA24" s="45">
+      <c r="AA24" s="73">
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="AB24" s="14"/>
@@ -4160,7 +4159,7 @@
       <c r="AE24" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF24" s="66">
+      <c r="AF24" s="70">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -4184,19 +4183,19 @@
       <c r="F25" s="9">
         <v>8</v>
       </c>
-      <c r="G25" s="35">
+      <c r="G25" s="72">
         <v>7.2222222222222229E-2</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="57">
+      <c r="I25" s="48">
         <v>129000000</v>
       </c>
-      <c r="J25" s="55">
+      <c r="J25" s="46">
         <v>524600000</v>
       </c>
-      <c r="K25" s="53">
+      <c r="K25" s="44">
         <f t="shared" si="3"/>
         <v>395600000</v>
       </c>
@@ -4220,7 +4219,7 @@
         <v>10</v>
       </c>
       <c r="R25" s="26"/>
-      <c r="S25" s="44">
+      <c r="S25" s="40">
         <v>132</v>
       </c>
       <c r="T25" s="11" t="str">
@@ -4229,11 +4228,11 @@
       <c r="U25" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V25" s="45">
+      <c r="V25" s="73">
         <v>7.5694444444444439E-2</v>
       </c>
-      <c r="W25" s="49"/>
-      <c r="X25" s="71">
+      <c r="W25" s="41"/>
+      <c r="X25" s="62">
         <v>41</v>
       </c>
       <c r="Y25" s="11" t="str">
@@ -4242,7 +4241,7 @@
       <c r="Z25" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA25" s="45">
+      <c r="AA25" s="73">
         <v>6.0416666666666667E-2</v>
       </c>
       <c r="AB25" s="14"/>
@@ -4255,7 +4254,7 @@
       <c r="AE25" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF25" s="66">
+      <c r="AF25" s="70">
         <v>5.9027777777777783E-2</v>
       </c>
     </row>
@@ -4279,19 +4278,19 @@
       <c r="F26" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="35">
+      <c r="G26" s="72">
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I26" s="57">
+      <c r="I26" s="48">
         <v>60000000</v>
       </c>
-      <c r="J26" s="55">
+      <c r="J26" s="46">
         <v>482000000</v>
       </c>
-      <c r="K26" s="53">
+      <c r="K26" s="44">
         <f t="shared" si="3"/>
         <v>422000000</v>
       </c>
@@ -4315,7 +4314,7 @@
         <v>7</v>
       </c>
       <c r="R26" s="26"/>
-      <c r="S26" s="44">
+      <c r="S26" s="40">
         <v>133</v>
       </c>
       <c r="T26" s="11" t="str">
@@ -4324,11 +4323,11 @@
       <c r="U26" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="V26" s="45">
+      <c r="V26" s="73">
         <v>6.458333333333334E-2</v>
       </c>
-      <c r="W26" s="49"/>
-      <c r="X26" s="71">
+      <c r="W26" s="41"/>
+      <c r="X26" s="62">
         <v>42</v>
       </c>
       <c r="Y26" s="11" t="str">
@@ -4337,7 +4336,7 @@
       <c r="Z26" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA26" s="45">
+      <c r="AA26" s="73">
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="AB26" s="14"/>
@@ -4350,7 +4349,7 @@
       <c r="AE26" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF26" s="66">
+      <c r="AF26" s="70">
         <v>6.0416666666666667E-2</v>
       </c>
     </row>
@@ -4374,19 +4373,19 @@
       <c r="F27" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="72">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="57">
+      <c r="I27" s="48">
         <v>150000000</v>
       </c>
-      <c r="J27" s="55">
+      <c r="J27" s="46">
         <v>928760770</v>
       </c>
-      <c r="K27" s="53">
+      <c r="K27" s="44">
         <f t="shared" si="3"/>
         <v>778760770</v>
       </c>
@@ -4410,7 +4409,7 @@
         <v>3</v>
       </c>
       <c r="R27" s="26"/>
-      <c r="S27" s="44">
+      <c r="S27" s="40">
         <v>134</v>
       </c>
       <c r="T27" s="11" t="str">
@@ -4419,11 +4418,11 @@
       <c r="U27" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V27" s="45">
+      <c r="V27" s="73">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="W27" s="49"/>
-      <c r="X27" s="71">
+      <c r="W27" s="41"/>
+      <c r="X27" s="62">
         <v>43</v>
       </c>
       <c r="Y27" s="11" t="str">
@@ -4432,7 +4431,7 @@
       <c r="Z27" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA27" s="45">
+      <c r="AA27" s="73">
         <v>6.25E-2</v>
       </c>
       <c r="AB27" s="14"/>
@@ -4445,7 +4444,7 @@
       <c r="AE27" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF27" s="66">
+      <c r="AF27" s="70">
         <v>5.9722222222222225E-2</v>
       </c>
     </row>
@@ -4469,19 +4468,19 @@
       <c r="F28" s="9">
         <v>8</v>
       </c>
-      <c r="G28" s="35">
+      <c r="G28" s="72">
         <v>6.458333333333334E-2</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="57">
+      <c r="I28" s="48">
         <v>160000000</v>
       </c>
-      <c r="J28" s="55">
+      <c r="J28" s="46">
         <v>813400000</v>
       </c>
-      <c r="K28" s="53">
+      <c r="K28" s="44">
         <f t="shared" si="3"/>
         <v>653400000</v>
       </c>
@@ -4498,7 +4497,7 @@
         <v>27</v>
       </c>
       <c r="R28" s="26"/>
-      <c r="S28" s="44">
+      <c r="S28" s="40">
         <v>135</v>
       </c>
       <c r="T28" s="11" t="str">
@@ -4507,11 +4506,11 @@
       <c r="U28" s="11" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V28" s="46">
+      <c r="V28" s="73">
         <v>7.0833333333333331E-2</v>
       </c>
-      <c r="W28" s="49"/>
-      <c r="X28" s="71">
+      <c r="W28" s="41"/>
+      <c r="X28" s="62">
         <v>44</v>
       </c>
       <c r="Y28" s="11" t="str">
@@ -4520,7 +4519,7 @@
       <c r="Z28" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA28" s="45">
+      <c r="AA28" s="73">
         <v>6.458333333333334E-2</v>
       </c>
       <c r="AB28" s="14"/>
@@ -4533,7 +4532,7 @@
       <c r="AE28" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF28" s="66">
+      <c r="AF28" s="70">
         <v>6.3194444444444442E-2</v>
       </c>
     </row>
@@ -4557,19 +4556,19 @@
       <c r="F29" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="35">
+      <c r="G29" s="72">
         <v>5.8333333333333327E-2</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="57">
+      <c r="I29" s="48">
         <v>80000000</v>
       </c>
-      <c r="J29" s="55">
+      <c r="J29" s="46">
         <v>122600000</v>
       </c>
-      <c r="K29" s="53">
+      <c r="K29" s="44">
         <f t="shared" si="3"/>
         <v>42600000</v>
       </c>
@@ -4590,7 +4589,7 @@
         <v>192</v>
       </c>
       <c r="R29" s="26"/>
-      <c r="S29" s="44">
+      <c r="S29" s="40">
         <v>156</v>
       </c>
       <c r="T29" s="11" t="str">
@@ -4599,11 +4598,11 @@
       <c r="U29" s="11" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="V29" s="46">
+      <c r="V29" s="73">
         <v>7.2916666666666671E-2</v>
       </c>
-      <c r="W29" s="49"/>
-      <c r="X29" s="71">
+      <c r="W29" s="41"/>
+      <c r="X29" s="62">
         <v>45</v>
       </c>
       <c r="Y29" s="11" t="str">
@@ -4612,7 +4611,7 @@
       <c r="Z29" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA29" s="45">
+      <c r="AA29" s="73">
         <v>5.8333333333333327E-2</v>
       </c>
       <c r="AB29" s="14"/>
@@ -4623,9 +4622,9 @@
         <v>Madagascar 2: A Grande Escapada</v>
       </c>
       <c r="AE29" s="9" t="str">
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="AF29" s="66">
+        <v>ASSISTIDO</v>
+      </c>
+      <c r="AF29" s="70">
         <v>6.1805555555555558E-2</v>
       </c>
     </row>
@@ -4649,19 +4648,19 @@
       <c r="F30" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G30" s="35">
+      <c r="G30" s="72">
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="57">
+      <c r="I30" s="48">
         <v>95000000</v>
       </c>
-      <c r="J30" s="55">
+      <c r="J30" s="46">
         <v>76000000</v>
       </c>
-      <c r="K30" s="53">
+      <c r="K30" s="44">
         <f t="shared" si="3"/>
         <v>-19000000</v>
       </c>
@@ -4682,10 +4681,10 @@
       </c>
       <c r="Q30" s="19">
         <f>COUNTIF(M:M,"ASSISTIDO")</f>
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="R30" s="26"/>
-      <c r="S30" s="44">
+      <c r="S30" s="40">
         <v>157</v>
       </c>
       <c r="T30" s="11" t="str">
@@ -4694,11 +4693,11 @@
       <c r="U30" s="11" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="V30" s="46">
+      <c r="V30" s="73">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="W30" s="49"/>
-      <c r="X30" s="71">
+      <c r="W30" s="41"/>
+      <c r="X30" s="62">
         <v>46</v>
       </c>
       <c r="Y30" s="11" t="str">
@@ -4707,7 +4706,7 @@
       <c r="Z30" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA30" s="45">
+      <c r="AA30" s="73">
         <v>6.3194444444444442E-2</v>
       </c>
       <c r="AB30" s="14"/>
@@ -4720,7 +4719,7 @@
       <c r="AE30" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF30" s="66">
+      <c r="AF30" s="70">
         <v>7.0833333333333331E-2</v>
       </c>
     </row>
@@ -4744,19 +4743,19 @@
       <c r="F31" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="35">
+      <c r="G31" s="72">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I31" s="57">
+      <c r="I31" s="48">
         <v>45000000</v>
       </c>
-      <c r="J31" s="55">
+      <c r="J31" s="46">
         <v>227700000</v>
       </c>
-      <c r="K31" s="53">
+      <c r="K31" s="44">
         <f t="shared" si="3"/>
         <v>182700000</v>
       </c>
@@ -4777,20 +4776,20 @@
       </c>
       <c r="Q31" s="19">
         <f>COUNTIF(M:M,"NÃO ASSISTIDO")</f>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R31" s="26"/>
-      <c r="S31" s="73" t="s">
+      <c r="S31" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="T31" s="74"/>
-      <c r="U31" s="75"/>
-      <c r="V31" s="47">
+      <c r="T31" s="64"/>
+      <c r="U31" s="65"/>
+      <c r="V31" s="75">
         <f ca="1">SUMIF($U$6:$V$30,"ASSISTIDO",$V$6:$V$30)</f>
         <v>1.5416666666666667</v>
       </c>
-      <c r="W31" s="49"/>
-      <c r="X31" s="71">
+      <c r="W31" s="41"/>
+      <c r="X31" s="62">
         <v>47</v>
       </c>
       <c r="Y31" s="11" t="str">
@@ -4799,7 +4798,7 @@
       <c r="Z31" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA31" s="45">
+      <c r="AA31" s="73">
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="AB31" s="14"/>
@@ -4812,7 +4811,7 @@
       <c r="AE31" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF31" s="66">
+      <c r="AF31" s="70">
         <v>6.458333333333334E-2</v>
       </c>
     </row>
@@ -4836,19 +4835,19 @@
       <c r="F32" s="9">
         <v>9</v>
       </c>
-      <c r="G32" s="35">
+      <c r="G32" s="72">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="57">
+      <c r="I32" s="48">
         <v>180000000</v>
       </c>
-      <c r="J32" s="55">
+      <c r="J32" s="46">
         <v>101000000</v>
       </c>
-      <c r="K32" s="53">
+      <c r="K32" s="44">
         <f t="shared" si="3"/>
         <v>-79000000</v>
       </c>
@@ -4871,12 +4870,12 @@
         <f>MAX(A:A)</f>
         <v>200</v>
       </c>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="50"/>
-      <c r="X32" s="71">
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="77"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="62">
         <v>48</v>
       </c>
       <c r="Y32" s="11" t="str">
@@ -4885,7 +4884,7 @@
       <c r="Z32" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA32" s="45">
+      <c r="AA32" s="73">
         <v>5.7638888888888885E-2</v>
       </c>
       <c r="AB32" s="14"/>
@@ -4898,7 +4897,7 @@
       <c r="AE32" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF32" s="66">
+      <c r="AF32" s="70">
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
@@ -4922,19 +4921,19 @@
       <c r="F33" s="9">
         <v>8</v>
       </c>
-      <c r="G33" s="35">
+      <c r="G33" s="72">
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="57">
+      <c r="I33" s="48">
         <v>110000000</v>
       </c>
-      <c r="J33" s="55">
+      <c r="J33" s="46">
         <v>145300000</v>
       </c>
-      <c r="K33" s="53">
+      <c r="K33" s="44">
         <f t="shared" si="3"/>
         <v>35300000</v>
       </c>
@@ -4950,8 +4949,8 @@
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="W33" s="50"/>
-      <c r="X33" s="71">
+      <c r="W33" s="42"/>
+      <c r="X33" s="62">
         <v>49</v>
       </c>
       <c r="Y33" s="11" t="str">
@@ -4960,7 +4959,7 @@
       <c r="Z33" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA33" s="45">
+      <c r="AA33" s="73">
         <v>6.7361111111111108E-2</v>
       </c>
       <c r="AB33" s="14"/>
@@ -4973,7 +4972,7 @@
       <c r="AE33" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF33" s="66">
+      <c r="AF33" s="70">
         <v>6.5972222222222224E-2</v>
       </c>
     </row>
@@ -4997,19 +4996,19 @@
       <c r="F34" s="9">
         <v>9</v>
       </c>
-      <c r="G34" s="35">
+      <c r="G34" s="72">
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I34" s="57">
+      <c r="I34" s="48">
         <v>130000000</v>
       </c>
-      <c r="J34" s="55">
+      <c r="J34" s="46">
         <v>631744560</v>
       </c>
-      <c r="K34" s="53">
+      <c r="K34" s="44">
         <f t="shared" si="3"/>
         <v>501744560</v>
       </c>
@@ -5025,8 +5024,8 @@
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="W34" s="50"/>
-      <c r="X34" s="71">
+      <c r="W34" s="42"/>
+      <c r="X34" s="62">
         <v>50</v>
       </c>
       <c r="Y34" s="11" t="str">
@@ -5035,7 +5034,7 @@
       <c r="Z34" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA34" s="45">
+      <c r="AA34" s="73">
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="AB34" s="14"/>
@@ -5048,7 +5047,7 @@
       <c r="AE34" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF34" s="66">
+      <c r="AF34" s="70">
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
@@ -5072,19 +5071,19 @@
       <c r="F35" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G35" s="35">
+      <c r="G35" s="72">
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I35" s="57">
+      <c r="I35" s="48">
         <v>150000000</v>
       </c>
-      <c r="J35" s="55">
+      <c r="J35" s="46">
         <v>665692281</v>
       </c>
-      <c r="K35" s="53">
+      <c r="K35" s="44">
         <f t="shared" si="3"/>
         <v>515692281</v>
       </c>
@@ -5100,8 +5099,8 @@
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="W35" s="50"/>
-      <c r="X35" s="71">
+      <c r="W35" s="42"/>
+      <c r="X35" s="62">
         <v>51</v>
       </c>
       <c r="Y35" s="11" t="str">
@@ -5110,7 +5109,7 @@
       <c r="Z35" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA35" s="45">
+      <c r="AA35" s="73">
         <v>9.930555555555555E-2</v>
       </c>
       <c r="AB35" s="14"/>
@@ -5123,7 +5122,7 @@
       <c r="AE35" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF35" s="66">
+      <c r="AF35" s="70">
         <v>6.3888888888888884E-2</v>
       </c>
     </row>
@@ -5147,19 +5146,19 @@
       <c r="F36" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G36" s="35">
+      <c r="G36" s="72">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I36" s="57">
+      <c r="I36" s="48">
         <v>145000000</v>
       </c>
-      <c r="J36" s="55">
+      <c r="J36" s="46">
         <v>521170125</v>
       </c>
-      <c r="K36" s="53">
+      <c r="K36" s="44">
         <f t="shared" si="3"/>
         <v>376170125</v>
       </c>
@@ -5175,8 +5174,8 @@
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="W36" s="50"/>
-      <c r="X36" s="71">
+      <c r="W36" s="42"/>
+      <c r="X36" s="62">
         <v>52</v>
       </c>
       <c r="Y36" s="11" t="str">
@@ -5185,7 +5184,7 @@
       <c r="Z36" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA36" s="45">
+      <c r="AA36" s="73">
         <v>0.10486111111111111</v>
       </c>
       <c r="AB36" s="14"/>
@@ -5198,7 +5197,7 @@
       <c r="AE36" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF36" s="66">
+      <c r="AF36" s="70">
         <v>6.3888888888888884E-2</v>
       </c>
     </row>
@@ -5222,19 +5221,19 @@
       <c r="F37" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G37" s="72">
         <v>6.7361111111111108E-2</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="57">
+      <c r="I37" s="48">
         <v>145000000</v>
       </c>
-      <c r="J37" s="55">
+      <c r="J37" s="46">
         <v>303712758</v>
       </c>
-      <c r="K37" s="53">
+      <c r="K37" s="44">
         <f t="shared" si="3"/>
         <v>158712758</v>
       </c>
@@ -5250,8 +5249,8 @@
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="W37" s="50"/>
-      <c r="X37" s="71">
+      <c r="W37" s="42"/>
+      <c r="X37" s="62">
         <v>53</v>
       </c>
       <c r="Y37" s="11" t="str">
@@ -5260,7 +5259,7 @@
       <c r="Z37" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA37" s="45">
+      <c r="AA37" s="73">
         <v>0.11666666666666665</v>
       </c>
       <c r="AB37" s="14"/>
@@ -5273,7 +5272,7 @@
       <c r="AE37" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF37" s="66">
+      <c r="AF37" s="70">
         <v>6.5277777777777782E-2</v>
       </c>
     </row>
@@ -5297,19 +5296,19 @@
       <c r="F38" s="9">
         <v>8</v>
       </c>
-      <c r="G38" s="35">
+      <c r="G38" s="72">
         <v>6.25E-2</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I38" s="57">
+      <c r="I38" s="48">
         <v>130000000</v>
       </c>
-      <c r="J38" s="55">
+      <c r="J38" s="46">
         <v>484600000</v>
       </c>
-      <c r="K38" s="53">
+      <c r="K38" s="44">
         <f t="shared" si="3"/>
         <v>354600000</v>
       </c>
@@ -5325,8 +5324,8 @@
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="W38" s="50"/>
-      <c r="X38" s="71">
+      <c r="W38" s="42"/>
+      <c r="X38" s="62">
         <v>54</v>
       </c>
       <c r="Y38" s="11" t="str">
@@ -5335,7 +5334,7 @@
       <c r="Z38" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA38" s="45">
+      <c r="AA38" s="73">
         <v>9.7916666666666666E-2</v>
       </c>
       <c r="AB38" s="14"/>
@@ -5348,7 +5347,7 @@
       <c r="AE38" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF38" s="66">
+      <c r="AF38" s="70">
         <v>6.458333333333334E-2</v>
       </c>
     </row>
@@ -5372,19 +5371,19 @@
       <c r="F39" s="9">
         <v>8</v>
       </c>
-      <c r="G39" s="35">
+      <c r="G39" s="72">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="57">
+      <c r="I39" s="48">
         <v>6000000</v>
       </c>
-      <c r="J39" s="55">
+      <c r="J39" s="46">
         <v>51600000</v>
       </c>
-      <c r="K39" s="53">
+      <c r="K39" s="44">
         <f t="shared" si="3"/>
         <v>45600000</v>
       </c>
@@ -5400,8 +5399,8 @@
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="W39" s="50"/>
-      <c r="X39" s="71">
+      <c r="W39" s="42"/>
+      <c r="X39" s="62">
         <v>55</v>
       </c>
       <c r="Y39" s="11" t="str">
@@ -5410,7 +5409,7 @@
       <c r="Z39" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA39" s="45">
+      <c r="AA39" s="73">
         <v>8.9583333333333334E-2</v>
       </c>
       <c r="AB39" s="14"/>
@@ -5423,7 +5422,7 @@
       <c r="AE39" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF39" s="66">
+      <c r="AF39" s="70">
         <v>6.7361111111111108E-2</v>
       </c>
     </row>
@@ -5447,19 +5446,19 @@
       <c r="F40" s="9">
         <v>9</v>
       </c>
-      <c r="G40" s="35">
+      <c r="G40" s="72">
         <v>7.0833333333333331E-2</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I40" s="57">
+      <c r="I40" s="48">
         <v>165000000</v>
       </c>
-      <c r="J40" s="55">
+      <c r="J40" s="46">
         <v>657800000</v>
       </c>
-      <c r="K40" s="53">
+      <c r="K40" s="44">
         <f t="shared" si="3"/>
         <v>492800000</v>
       </c>
@@ -5475,8 +5474,8 @@
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="W40" s="50"/>
-      <c r="X40" s="71">
+      <c r="W40" s="42"/>
+      <c r="X40" s="62">
         <v>96</v>
       </c>
       <c r="Y40" s="11" t="str">
@@ -5485,7 +5484,7 @@
       <c r="Z40" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA40" s="45">
+      <c r="AA40" s="73">
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="AB40" s="14"/>
@@ -5498,7 +5497,7 @@
       <c r="AE40" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF40" s="66">
+      <c r="AF40" s="70">
         <v>6.1805555555555558E-2</v>
       </c>
     </row>
@@ -5522,19 +5521,19 @@
       <c r="F41" s="9">
         <v>9</v>
       </c>
-      <c r="G41" s="35">
+      <c r="G41" s="72">
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I41" s="57">
+      <c r="I41" s="48">
         <v>90000000</v>
       </c>
-      <c r="J41" s="55">
+      <c r="J41" s="46">
         <v>304320254</v>
       </c>
-      <c r="K41" s="53">
+      <c r="K41" s="44">
         <f t="shared" si="3"/>
         <v>214320254</v>
       </c>
@@ -5550,8 +5549,8 @@
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="W41" s="50"/>
-      <c r="X41" s="71">
+      <c r="W41" s="42"/>
+      <c r="X41" s="62">
         <v>97</v>
       </c>
       <c r="Y41" s="11" t="str">
@@ -5560,7 +5559,7 @@
       <c r="Z41" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA41" s="45">
+      <c r="AA41" s="73">
         <v>5.1388888888888894E-2</v>
       </c>
       <c r="AB41" s="14"/>
@@ -5573,7 +5572,7 @@
       <c r="AE41" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF41" s="66">
+      <c r="AF41" s="70">
         <v>6.3888888888888884E-2</v>
       </c>
     </row>
@@ -5597,19 +5596,19 @@
       <c r="F42" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G42" s="35">
+      <c r="G42" s="72">
         <v>6.0416666666666667E-2</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I42" s="57">
+      <c r="I42" s="48">
         <v>45000000</v>
       </c>
-      <c r="J42" s="55">
+      <c r="J42" s="46">
         <v>986100000</v>
       </c>
-      <c r="K42" s="53">
+      <c r="K42" s="44">
         <f t="shared" si="3"/>
         <v>941100000</v>
       </c>
@@ -5625,8 +5624,8 @@
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="W42" s="50"/>
-      <c r="X42" s="71">
+      <c r="W42" s="42"/>
+      <c r="X42" s="62">
         <v>100</v>
       </c>
       <c r="Y42" s="11" t="str">
@@ -5635,7 +5634,7 @@
       <c r="Z42" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA42" s="45">
+      <c r="AA42" s="73">
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="AB42" s="14"/>
@@ -5648,7 +5647,7 @@
       <c r="AE42" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF42" s="66">
+      <c r="AF42" s="70">
         <v>6.3194444444444442E-2</v>
       </c>
     </row>
@@ -5672,19 +5671,19 @@
       <c r="F43" s="9">
         <v>9</v>
       </c>
-      <c r="G43" s="35">
+      <c r="G43" s="72">
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I43" s="57">
-        <v>0</v>
-      </c>
-      <c r="J43" s="55">
-        <v>0</v>
-      </c>
-      <c r="K43" s="53">
+      <c r="I43" s="48">
+        <v>0</v>
+      </c>
+      <c r="J43" s="46">
+        <v>0</v>
+      </c>
+      <c r="K43" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5700,8 +5699,8 @@
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="W43" s="50"/>
-      <c r="X43" s="71">
+      <c r="W43" s="42"/>
+      <c r="X43" s="62">
         <v>105</v>
       </c>
       <c r="Y43" s="11" t="str">
@@ -5710,7 +5709,7 @@
       <c r="Z43" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA43" s="45">
+      <c r="AA43" s="73">
         <v>5.1388888888888894E-2</v>
       </c>
       <c r="AB43" s="14"/>
@@ -5723,7 +5722,7 @@
       <c r="AE43" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF43" s="66">
+      <c r="AF43" s="70">
         <v>6.805555555555555E-2</v>
       </c>
     </row>
@@ -5747,19 +5746,19 @@
       <c r="F44" s="9">
         <v>8</v>
       </c>
-      <c r="G44" s="35">
+      <c r="G44" s="72">
         <v>6.25E-2</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="57">
+      <c r="I44" s="48">
         <v>28000000</v>
       </c>
-      <c r="J44" s="55">
+      <c r="J44" s="46">
         <v>504050219</v>
       </c>
-      <c r="K44" s="53">
+      <c r="K44" s="44">
         <f t="shared" si="3"/>
         <v>476050219</v>
       </c>
@@ -5775,8 +5774,8 @@
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="W44" s="50"/>
-      <c r="X44" s="71">
+      <c r="W44" s="42"/>
+      <c r="X44" s="62">
         <v>117</v>
       </c>
       <c r="Y44" s="11" t="str">
@@ -5785,7 +5784,7 @@
       <c r="Z44" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA44" s="45">
+      <c r="AA44" s="73">
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="AB44" s="14"/>
@@ -5798,7 +5797,7 @@
       <c r="AE44" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF44" s="66">
+      <c r="AF44" s="70">
         <v>6.5972222222222224E-2</v>
       </c>
     </row>
@@ -5822,19 +5821,19 @@
       <c r="F45" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G45" s="35">
+      <c r="G45" s="72">
         <v>6.458333333333334E-2</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I45" s="57">
+      <c r="I45" s="48">
         <v>85000000</v>
       </c>
-      <c r="J45" s="55">
+      <c r="J45" s="46">
         <v>252000000</v>
       </c>
-      <c r="K45" s="53">
+      <c r="K45" s="44">
         <f t="shared" si="3"/>
         <v>167000000</v>
       </c>
@@ -5850,8 +5849,8 @@
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="W45" s="50"/>
-      <c r="X45" s="71">
+      <c r="W45" s="42"/>
+      <c r="X45" s="62">
         <v>119</v>
       </c>
       <c r="Y45" s="11" t="str">
@@ -5860,7 +5859,7 @@
       <c r="Z45" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA45" s="45">
+      <c r="AA45" s="73">
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="AB45" s="14"/>
@@ -5873,7 +5872,7 @@
       <c r="AE45" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF45" s="66">
+      <c r="AF45" s="70">
         <v>6.1111111111111116E-2</v>
       </c>
     </row>
@@ -5897,19 +5896,19 @@
       <c r="F46" s="9">
         <v>8</v>
       </c>
-      <c r="G46" s="35">
+      <c r="G46" s="72">
         <v>5.8333333333333327E-2</v>
       </c>
       <c r="H46" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I46" s="58">
+      <c r="I46" s="49">
         <v>25000000</v>
       </c>
-      <c r="J46" s="56">
+      <c r="J46" s="47">
         <v>424967620</v>
       </c>
-      <c r="K46" s="53">
+      <c r="K46" s="44">
         <f t="shared" si="3"/>
         <v>399967620</v>
       </c>
@@ -5925,8 +5924,8 @@
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="W46" s="50"/>
-      <c r="X46" s="71">
+      <c r="W46" s="42"/>
+      <c r="X46" s="62">
         <v>120</v>
       </c>
       <c r="Y46" s="11" t="str">
@@ -5935,7 +5934,7 @@
       <c r="Z46" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA46" s="45">
+      <c r="AA46" s="73">
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="AB46" s="14"/>
@@ -5948,11 +5947,11 @@
       <c r="AE46" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF46" s="66">
+      <c r="AF46" s="70">
         <v>7.4305555555555555E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -5972,19 +5971,19 @@
       <c r="F47" s="9">
         <v>9</v>
       </c>
-      <c r="G47" s="35">
+      <c r="G47" s="72">
         <v>6.3194444444444442E-2</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I47" s="57">
+      <c r="I47" s="48">
         <v>100000000</v>
       </c>
-      <c r="J47" s="55">
+      <c r="J47" s="46">
         <v>325300000</v>
       </c>
-      <c r="K47" s="53">
+      <c r="K47" s="44">
         <f t="shared" si="3"/>
         <v>225300000</v>
       </c>
@@ -6000,8 +5999,8 @@
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="W47" s="50"/>
-      <c r="X47" s="71">
+      <c r="W47" s="42"/>
+      <c r="X47" s="62">
         <v>121</v>
       </c>
       <c r="Y47" s="11" t="str">
@@ -6010,18 +6009,18 @@
       <c r="Z47" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA47" s="45">
+      <c r="AA47" s="73">
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="AB47" s="14"/>
-      <c r="AC47" s="76" t="s">
+      <c r="AC47" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="AD47" s="77"/>
-      <c r="AE47" s="78"/>
-      <c r="AF47" s="72">
+      <c r="AD47" s="67"/>
+      <c r="AE47" s="68"/>
+      <c r="AF47" s="71">
         <f>SUMIF($AE$6:$AE$46,"ASSISTIDO",$AF$6:$AF$46)</f>
-        <v>1.0458333333333332</v>
+        <v>1.1076388888888888</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
@@ -6044,19 +6043,19 @@
       <c r="F48" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G48" s="35">
+      <c r="G48" s="72">
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I48" s="57">
+      <c r="I48" s="48">
         <v>20000000</v>
       </c>
-      <c r="J48" s="55">
+      <c r="J48" s="46">
         <v>378000000</v>
       </c>
-      <c r="K48" s="53">
+      <c r="K48" s="44">
         <f t="shared" si="3"/>
         <v>358000000</v>
       </c>
@@ -6072,8 +6071,8 @@
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="W48" s="50"/>
-      <c r="X48" s="71">
+      <c r="W48" s="42"/>
+      <c r="X48" s="62">
         <v>123</v>
       </c>
       <c r="Y48" s="11" t="str">
@@ -6082,7 +6081,7 @@
       <c r="Z48" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA48" s="45">
+      <c r="AA48" s="73">
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="AB48" s="14"/>
@@ -6107,19 +6106,19 @@
       <c r="F49" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G49" s="35">
+      <c r="G49" s="72">
         <v>5.7638888888888885E-2</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I49" s="57">
+      <c r="I49" s="48">
         <v>12000000</v>
       </c>
-      <c r="J49" s="55">
+      <c r="J49" s="46">
         <v>39900000</v>
       </c>
-      <c r="K49" s="53">
+      <c r="K49" s="44">
         <f t="shared" si="3"/>
         <v>27900000</v>
       </c>
@@ -6135,8 +6134,8 @@
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="W49" s="50"/>
-      <c r="X49" s="71">
+      <c r="W49" s="42"/>
+      <c r="X49" s="62">
         <v>124</v>
       </c>
       <c r="Y49" s="11" t="str">
@@ -6145,7 +6144,7 @@
       <c r="Z49" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA49" s="45">
+      <c r="AA49" s="73">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="AB49" s="14"/>
@@ -6170,19 +6169,19 @@
       <c r="F50" s="9">
         <v>8</v>
       </c>
-      <c r="G50" s="35">
+      <c r="G50" s="72">
         <v>6.7361111111111108E-2</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I50" s="57">
+      <c r="I50" s="48">
         <v>105000000</v>
       </c>
-      <c r="J50" s="55">
+      <c r="J50" s="46">
         <v>267000000</v>
       </c>
-      <c r="K50" s="53">
+      <c r="K50" s="44">
         <f t="shared" si="3"/>
         <v>162000000</v>
       </c>
@@ -6198,17 +6197,17 @@
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="W50" s="50"/>
-      <c r="X50" s="71">
+      <c r="W50" s="42"/>
+      <c r="X50" s="62">
         <v>125</v>
       </c>
       <c r="Y50" s="11" t="str">
         <v>Dumbo</v>
       </c>
       <c r="Z50" s="6" t="str">
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="AA50" s="45">
+        <v>ASSISTIDO</v>
+      </c>
+      <c r="AA50" s="73">
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="AB50" s="14"/>
@@ -6233,19 +6232,19 @@
       <c r="F51" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G51" s="35">
+      <c r="G51" s="72">
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I51" s="57">
+      <c r="I51" s="48">
         <v>130000000</v>
       </c>
-      <c r="J51" s="55">
+      <c r="J51" s="46">
         <v>448200000</v>
       </c>
-      <c r="K51" s="53">
+      <c r="K51" s="44">
         <f t="shared" si="3"/>
         <v>318200000</v>
       </c>
@@ -6261,8 +6260,8 @@
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="W51" s="50"/>
-      <c r="X51" s="71">
+      <c r="W51" s="42"/>
+      <c r="X51" s="62">
         <v>126</v>
       </c>
       <c r="Y51" s="11" t="str">
@@ -6271,7 +6270,7 @@
       <c r="Z51" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA51" s="45">
+      <c r="AA51" s="73">
         <v>5.486111111111111E-2</v>
       </c>
       <c r="AB51" s="14"/>
@@ -6296,19 +6295,19 @@
       <c r="F52" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G52" s="35">
+      <c r="G52" s="72">
         <v>9.930555555555555E-2</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I52" s="57">
+      <c r="I52" s="48">
         <v>140000000</v>
       </c>
-      <c r="J52" s="55">
+      <c r="J52" s="46">
         <v>654300000</v>
       </c>
-      <c r="K52" s="53">
+      <c r="K52" s="44">
         <f t="shared" si="3"/>
         <v>514300000</v>
       </c>
@@ -6324,8 +6323,8 @@
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="W52" s="50"/>
-      <c r="X52" s="71">
+      <c r="W52" s="42"/>
+      <c r="X52" s="62">
         <v>127</v>
       </c>
       <c r="Y52" s="11" t="str">
@@ -6334,7 +6333,7 @@
       <c r="Z52" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA52" s="45">
+      <c r="AA52" s="73">
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="AB52" s="14"/>
@@ -6359,19 +6358,19 @@
       <c r="F53" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G53" s="35">
+      <c r="G53" s="72">
         <v>0.10486111111111111</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I53" s="57">
+      <c r="I53" s="48">
         <v>225000000</v>
       </c>
-      <c r="J53" s="55">
+      <c r="J53" s="46">
         <v>1066000000</v>
       </c>
-      <c r="K53" s="53">
+      <c r="K53" s="44">
         <f t="shared" si="3"/>
         <v>841000000</v>
       </c>
@@ -6387,8 +6386,8 @@
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="W53" s="50"/>
-      <c r="X53" s="71">
+      <c r="W53" s="42"/>
+      <c r="X53" s="62">
         <v>128</v>
       </c>
       <c r="Y53" s="11" t="str">
@@ -6397,7 +6396,7 @@
       <c r="Z53" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA53" s="45">
+      <c r="AA53" s="73">
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="AB53" s="14"/>
@@ -6422,19 +6421,19 @@
       <c r="F54" s="9">
         <v>9</v>
       </c>
-      <c r="G54" s="35">
+      <c r="G54" s="72">
         <v>0.11666666666666665</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I54" s="57">
+      <c r="I54" s="48">
         <v>300000000</v>
       </c>
-      <c r="J54" s="55">
+      <c r="J54" s="46">
         <v>961600000</v>
       </c>
-      <c r="K54" s="53">
+      <c r="K54" s="44">
         <f t="shared" si="3"/>
         <v>661600000</v>
       </c>
@@ -6450,8 +6449,8 @@
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="W54" s="50"/>
-      <c r="X54" s="71">
+      <c r="W54" s="42"/>
+      <c r="X54" s="62">
         <v>137</v>
       </c>
       <c r="Y54" s="11" t="str">
@@ -6460,7 +6459,7 @@
       <c r="Z54" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA54" s="45">
+      <c r="AA54" s="73">
         <v>5.7638888888888885E-2</v>
       </c>
       <c r="AB54" s="14"/>
@@ -6485,19 +6484,19 @@
       <c r="F55" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G55" s="35">
+      <c r="G55" s="72">
         <v>9.7916666666666666E-2</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I55" s="57">
+      <c r="I55" s="48">
         <v>410600000</v>
       </c>
-      <c r="J55" s="55">
+      <c r="J55" s="46">
         <v>1046000000</v>
       </c>
-      <c r="K55" s="53">
+      <c r="K55" s="44">
         <f t="shared" si="3"/>
         <v>635400000</v>
       </c>
@@ -6513,8 +6512,8 @@
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="W55" s="50"/>
-      <c r="X55" s="71">
+      <c r="W55" s="42"/>
+      <c r="X55" s="62">
         <v>138</v>
       </c>
       <c r="Y55" s="11" t="str">
@@ -6523,7 +6522,7 @@
       <c r="Z55" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA55" s="45">
+      <c r="AA55" s="73">
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="AB55" s="14"/>
@@ -6548,19 +6547,19 @@
       <c r="F56" s="9">
         <v>8</v>
       </c>
-      <c r="G56" s="35">
+      <c r="G56" s="72">
         <v>8.9583333333333334E-2</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I56" s="57">
+      <c r="I56" s="48">
         <v>230000000</v>
       </c>
-      <c r="J56" s="55">
+      <c r="J56" s="46">
         <v>764861794</v>
       </c>
-      <c r="K56" s="53">
+      <c r="K56" s="44">
         <f t="shared" si="3"/>
         <v>534861794</v>
       </c>
@@ -6576,8 +6575,8 @@
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="W56" s="50"/>
-      <c r="X56" s="71">
+      <c r="W56" s="42"/>
+      <c r="X56" s="62">
         <v>147</v>
       </c>
       <c r="Y56" s="11" t="str">
@@ -6586,7 +6585,7 @@
       <c r="Z56" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA56" s="45">
+      <c r="AA56" s="73">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="AB56" s="14"/>
@@ -6611,19 +6610,19 @@
       <c r="F57" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G57" s="35">
+      <c r="G57" s="72">
         <v>6.3194444444444442E-2</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I57" s="57">
+      <c r="I57" s="48">
         <v>85000000</v>
       </c>
-      <c r="J57" s="55">
+      <c r="J57" s="46">
         <v>358400000</v>
       </c>
-      <c r="K57" s="53">
+      <c r="K57" s="44">
         <f t="shared" si="3"/>
         <v>273400000</v>
       </c>
@@ -6639,8 +6638,8 @@
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
-      <c r="W57" s="50"/>
-      <c r="X57" s="71">
+      <c r="W57" s="42"/>
+      <c r="X57" s="62">
         <v>158</v>
       </c>
       <c r="Y57" s="11" t="str">
@@ -6649,7 +6648,7 @@
       <c r="Z57" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA57" s="35">
+      <c r="AA57" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="AB57" s="14"/>
@@ -6674,19 +6673,19 @@
       <c r="F58" s="9">
         <v>8</v>
       </c>
-      <c r="G58" s="35">
+      <c r="G58" s="72">
         <v>6.25E-2</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I58" s="57">
+      <c r="I58" s="48">
         <v>100000000</v>
       </c>
-      <c r="J58" s="55">
+      <c r="J58" s="46">
         <v>240000000</v>
       </c>
-      <c r="K58" s="53">
+      <c r="K58" s="44">
         <f t="shared" si="3"/>
         <v>140000000</v>
       </c>
@@ -6702,16 +6701,16 @@
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
-      <c r="X58" s="71">
+      <c r="X58" s="62">
         <v>159</v>
       </c>
-      <c r="Y58" s="40" t="str">
+      <c r="Y58" s="37" t="str">
         <v>Alô, Amigos</v>
       </c>
-      <c r="Z58" s="51" t="str">
+      <c r="Z58" s="43" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA58" s="52">
+      <c r="AA58" s="74">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -6735,19 +6734,19 @@
       <c r="F59" s="9">
         <v>10</v>
       </c>
-      <c r="G59" s="35">
+      <c r="G59" s="72">
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="I59" s="57">
-        <v>0</v>
-      </c>
-      <c r="J59" s="55">
-        <v>0</v>
-      </c>
-      <c r="K59" s="53">
+      <c r="I59" s="48">
+        <v>0</v>
+      </c>
+      <c r="J59" s="46">
+        <v>0</v>
+      </c>
+      <c r="K59" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6763,7 +6762,7 @@
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="X59" s="71">
+      <c r="X59" s="62">
         <v>160</v>
       </c>
       <c r="Y59" s="11" t="str">
@@ -6772,7 +6771,7 @@
       <c r="Z59" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA59" s="35">
+      <c r="AA59" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -6796,19 +6795,19 @@
       <c r="F60" s="9">
         <v>9</v>
       </c>
-      <c r="G60" s="35">
+      <c r="G60" s="72">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="I60" s="57">
-        <v>0</v>
-      </c>
-      <c r="J60" s="55">
-        <v>0</v>
-      </c>
-      <c r="K60" s="53">
+      <c r="I60" s="48">
+        <v>0</v>
+      </c>
+      <c r="J60" s="46">
+        <v>0</v>
+      </c>
+      <c r="K60" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6824,7 +6823,7 @@
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
-      <c r="X60" s="71">
+      <c r="X60" s="62">
         <v>161</v>
       </c>
       <c r="Y60" s="11" t="str">
@@ -6833,7 +6832,7 @@
       <c r="Z60" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA60" s="35">
+      <c r="AA60" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -6857,19 +6856,19 @@
       <c r="F61" s="9">
         <v>9</v>
       </c>
-      <c r="G61" s="35">
+      <c r="G61" s="72">
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="I61" s="57">
-        <v>0</v>
-      </c>
-      <c r="J61" s="55">
-        <v>0</v>
-      </c>
-      <c r="K61" s="53">
+      <c r="I61" s="48">
+        <v>0</v>
+      </c>
+      <c r="J61" s="46">
+        <v>0</v>
+      </c>
+      <c r="K61" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6885,7 +6884,7 @@
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="X61" s="71">
+      <c r="X61" s="62">
         <v>162</v>
       </c>
       <c r="Y61" s="11" t="str">
@@ -6894,7 +6893,7 @@
       <c r="Z61" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA61" s="35">
+      <c r="AA61" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -6918,19 +6917,19 @@
       <c r="F62" s="9">
         <v>9</v>
       </c>
-      <c r="G62" s="35">
+      <c r="G62" s="72">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I62" s="57">
-        <v>0</v>
-      </c>
-      <c r="J62" s="55">
-        <v>0</v>
-      </c>
-      <c r="K62" s="53">
+      <c r="I62" s="48">
+        <v>0</v>
+      </c>
+      <c r="J62" s="46">
+        <v>0</v>
+      </c>
+      <c r="K62" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6946,7 +6945,7 @@
         <f t="shared" si="4"/>
         <v>61</v>
       </c>
-      <c r="X62" s="71">
+      <c r="X62" s="62">
         <v>163</v>
       </c>
       <c r="Y62" s="11" t="str">
@@ -6955,7 +6954,7 @@
       <c r="Z62" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA62" s="35">
+      <c r="AA62" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -6979,19 +6978,19 @@
       <c r="F63" s="9">
         <v>6</v>
       </c>
-      <c r="G63" s="35">
+      <c r="G63" s="72">
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I63" s="57">
-        <v>0</v>
-      </c>
-      <c r="J63" s="55">
-        <v>0</v>
-      </c>
-      <c r="K63" s="53">
+      <c r="I63" s="48">
+        <v>0</v>
+      </c>
+      <c r="J63" s="46">
+        <v>0</v>
+      </c>
+      <c r="K63" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7007,7 +7006,7 @@
         <f t="shared" si="4"/>
         <v>62</v>
       </c>
-      <c r="X63" s="71">
+      <c r="X63" s="62">
         <v>164</v>
       </c>
       <c r="Y63" s="11" t="str">
@@ -7016,7 +7015,7 @@
       <c r="Z63" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA63" s="35">
+      <c r="AA63" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -7040,19 +7039,19 @@
       <c r="F64" s="9">
         <v>5</v>
       </c>
-      <c r="G64" s="35">
+      <c r="G64" s="72">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I64" s="57">
-        <v>0</v>
-      </c>
-      <c r="J64" s="55">
-        <v>0</v>
-      </c>
-      <c r="K64" s="53">
+      <c r="I64" s="48">
+        <v>0</v>
+      </c>
+      <c r="J64" s="46">
+        <v>0</v>
+      </c>
+      <c r="K64" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7068,7 +7067,7 @@
         <f t="shared" si="4"/>
         <v>63</v>
       </c>
-      <c r="X64" s="71">
+      <c r="X64" s="62">
         <v>165</v>
       </c>
       <c r="Y64" s="11" t="str">
@@ -7077,7 +7076,7 @@
       <c r="Z64" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA64" s="35">
+      <c r="AA64" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -7101,19 +7100,19 @@
       <c r="F65" s="9">
         <v>6</v>
       </c>
-      <c r="G65" s="35">
+      <c r="G65" s="72">
         <v>5.1388888888888894E-2</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I65" s="57">
-        <v>0</v>
-      </c>
-      <c r="J65" s="55">
-        <v>0</v>
-      </c>
-      <c r="K65" s="53">
+      <c r="I65" s="48">
+        <v>0</v>
+      </c>
+      <c r="J65" s="46">
+        <v>0</v>
+      </c>
+      <c r="K65" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7129,7 +7128,7 @@
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="X65" s="71">
+      <c r="X65" s="62">
         <v>166</v>
       </c>
       <c r="Y65" s="11" t="str">
@@ -7138,7 +7137,7 @@
       <c r="Z65" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA65" s="35">
+      <c r="AA65" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -7162,19 +7161,19 @@
       <c r="F66" s="9">
         <v>6</v>
       </c>
-      <c r="G66" s="35">
+      <c r="G66" s="72">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I66" s="57">
-        <v>0</v>
-      </c>
-      <c r="J66" s="55">
-        <v>0</v>
-      </c>
-      <c r="K66" s="53">
+      <c r="I66" s="48">
+        <v>0</v>
+      </c>
+      <c r="J66" s="46">
+        <v>0</v>
+      </c>
+      <c r="K66" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7190,7 +7189,7 @@
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="X66" s="71">
+      <c r="X66" s="62">
         <v>167</v>
       </c>
       <c r="Y66" s="11" t="str">
@@ -7199,7 +7198,7 @@
       <c r="Z66" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA66" s="35">
+      <c r="AA66" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -7223,19 +7222,19 @@
       <c r="F67" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G67" s="35">
+      <c r="G67" s="72">
         <v>5.486111111111111E-2</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I67" s="57">
-        <v>0</v>
-      </c>
-      <c r="J67" s="55">
-        <v>0</v>
-      </c>
-      <c r="K67" s="53">
+      <c r="I67" s="48">
+        <v>0</v>
+      </c>
+      <c r="J67" s="46">
+        <v>0</v>
+      </c>
+      <c r="K67" s="44">
         <f t="shared" ref="K67:K130" si="10">J67-I67</f>
         <v>0</v>
       </c>
@@ -7251,7 +7250,7 @@
         <f t="shared" ref="N67:N130" si="11">ROW()-1</f>
         <v>66</v>
       </c>
-      <c r="X67" s="71">
+      <c r="X67" s="62">
         <v>168</v>
       </c>
       <c r="Y67" s="11" t="str">
@@ -7260,7 +7259,7 @@
       <c r="Z67" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA67" s="35">
+      <c r="AA67" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -7284,19 +7283,19 @@
       <c r="F68" s="9">
         <v>7</v>
       </c>
-      <c r="G68" s="35">
+      <c r="G68" s="72">
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I68" s="57">
-        <v>0</v>
-      </c>
-      <c r="J68" s="55">
-        <v>0</v>
-      </c>
-      <c r="K68" s="53">
+      <c r="I68" s="48">
+        <v>0</v>
+      </c>
+      <c r="J68" s="46">
+        <v>0</v>
+      </c>
+      <c r="K68" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -7312,7 +7311,7 @@
         <f t="shared" si="11"/>
         <v>67</v>
       </c>
-      <c r="X68" s="71">
+      <c r="X68" s="62">
         <v>169</v>
       </c>
       <c r="Y68" s="11" t="str">
@@ -7321,7 +7320,7 @@
       <c r="Z68" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA68" s="35">
+      <c r="AA68" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -7345,19 +7344,19 @@
       <c r="F69" s="9">
         <v>7</v>
       </c>
-      <c r="G69" s="35">
+      <c r="G69" s="72">
         <v>6.25E-2</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I69" s="57">
-        <v>0</v>
-      </c>
-      <c r="J69" s="55">
-        <v>0</v>
-      </c>
-      <c r="K69" s="53">
+      <c r="I69" s="48">
+        <v>0</v>
+      </c>
+      <c r="J69" s="46">
+        <v>0</v>
+      </c>
+      <c r="K69" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -7373,16 +7372,16 @@
         <f t="shared" si="11"/>
         <v>68</v>
       </c>
-      <c r="X69" s="71">
+      <c r="X69" s="62">
         <v>170</v>
       </c>
       <c r="Y69" s="11" t="str">
         <v>Bernardo e Bianca Na Terra dos Cangurus</v>
       </c>
       <c r="Z69" s="6" t="str">
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="AA69" s="35">
+        <v>ASSISTIDO</v>
+      </c>
+      <c r="AA69" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -7406,19 +7405,19 @@
       <c r="F70" s="9">
         <v>8</v>
       </c>
-      <c r="G70" s="35">
+      <c r="G70" s="72">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I70" s="57">
-        <v>0</v>
-      </c>
-      <c r="J70" s="55">
-        <v>0</v>
-      </c>
-      <c r="K70" s="53">
+      <c r="I70" s="48">
+        <v>0</v>
+      </c>
+      <c r="J70" s="46">
+        <v>0</v>
+      </c>
+      <c r="K70" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -7434,7 +7433,7 @@
         <f t="shared" si="11"/>
         <v>69</v>
       </c>
-      <c r="X70" s="71">
+      <c r="X70" s="62">
         <v>171</v>
       </c>
       <c r="Y70" s="11" t="str">
@@ -7443,7 +7442,7 @@
       <c r="Z70" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA70" s="35">
+      <c r="AA70" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -7467,19 +7466,19 @@
       <c r="F71" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G71" s="35">
+      <c r="G71" s="72">
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I71" s="57">
-        <v>0</v>
-      </c>
-      <c r="J71" s="55">
-        <v>0</v>
-      </c>
-      <c r="K71" s="53">
+      <c r="I71" s="48">
+        <v>0</v>
+      </c>
+      <c r="J71" s="46">
+        <v>0</v>
+      </c>
+      <c r="K71" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -7495,7 +7494,7 @@
         <f t="shared" si="11"/>
         <v>70</v>
       </c>
-      <c r="X71" s="71">
+      <c r="X71" s="62">
         <v>172</v>
       </c>
       <c r="Y71" s="11" t="str">
@@ -7504,7 +7503,7 @@
       <c r="Z71" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA71" s="35">
+      <c r="AA71" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -7528,19 +7527,19 @@
       <c r="F72" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G72" s="35">
+      <c r="G72" s="72">
         <v>5.347222222222222E-2</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I72" s="57">
-        <v>0</v>
-      </c>
-      <c r="J72" s="55">
-        <v>0</v>
-      </c>
-      <c r="K72" s="53">
+      <c r="I72" s="48">
+        <v>0</v>
+      </c>
+      <c r="J72" s="46">
+        <v>0</v>
+      </c>
+      <c r="K72" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -7556,7 +7555,7 @@
         <f t="shared" si="11"/>
         <v>71</v>
       </c>
-      <c r="X72" s="71">
+      <c r="X72" s="62">
         <v>173</v>
       </c>
       <c r="Y72" s="11" t="str">
@@ -7565,7 +7564,7 @@
       <c r="Z72" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA72" s="35">
+      <c r="AA72" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -7589,19 +7588,19 @@
       <c r="F73" s="9">
         <v>9</v>
       </c>
-      <c r="G73" s="35">
+      <c r="G73" s="72">
         <v>5.347222222222222E-2</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I73" s="57">
-        <v>0</v>
-      </c>
-      <c r="J73" s="55">
-        <v>0</v>
-      </c>
-      <c r="K73" s="53">
+      <c r="I73" s="48">
+        <v>0</v>
+      </c>
+      <c r="J73" s="46">
+        <v>0</v>
+      </c>
+      <c r="K73" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -7617,7 +7616,7 @@
         <f t="shared" si="11"/>
         <v>72</v>
       </c>
-      <c r="X73" s="71">
+      <c r="X73" s="62">
         <v>174</v>
       </c>
       <c r="Y73" s="11" t="str">
@@ -7626,7 +7625,7 @@
       <c r="Z73" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA73" s="35">
+      <c r="AA73" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -7650,19 +7649,19 @@
       <c r="F74" s="9">
         <v>8</v>
       </c>
-      <c r="G74" s="35">
+      <c r="G74" s="72">
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I74" s="57">
-        <v>0</v>
-      </c>
-      <c r="J74" s="55">
-        <v>0</v>
-      </c>
-      <c r="K74" s="53">
+      <c r="I74" s="48">
+        <v>0</v>
+      </c>
+      <c r="J74" s="46">
+        <v>0</v>
+      </c>
+      <c r="K74" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -7678,7 +7677,7 @@
         <f t="shared" si="11"/>
         <v>73</v>
       </c>
-      <c r="X74" s="71">
+      <c r="X74" s="62">
         <v>175</v>
       </c>
       <c r="Y74" s="11" t="str">
@@ -7687,7 +7686,7 @@
       <c r="Z74" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA74" s="35">
+      <c r="AA74" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -7711,19 +7710,19 @@
       <c r="F75" s="9">
         <v>6</v>
       </c>
-      <c r="G75" s="35">
+      <c r="G75" s="72">
         <v>5.486111111111111E-2</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I75" s="57">
-        <v>0</v>
-      </c>
-      <c r="J75" s="55">
-        <v>0</v>
-      </c>
-      <c r="K75" s="53">
+      <c r="I75" s="48">
+        <v>0</v>
+      </c>
+      <c r="J75" s="46">
+        <v>0</v>
+      </c>
+      <c r="K75" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -7739,7 +7738,7 @@
         <f t="shared" si="11"/>
         <v>74</v>
       </c>
-      <c r="X75" s="71">
+      <c r="X75" s="62">
         <v>176</v>
       </c>
       <c r="Y75" s="11" t="str">
@@ -7748,7 +7747,7 @@
       <c r="Z75" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA75" s="35">
+      <c r="AA75" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -7772,19 +7771,19 @@
       <c r="F76" s="9">
         <v>6</v>
       </c>
-      <c r="G76" s="35">
+      <c r="G76" s="72">
         <v>5.8333333333333327E-2</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I76" s="57">
-        <v>0</v>
-      </c>
-      <c r="J76" s="55">
-        <v>0</v>
-      </c>
-      <c r="K76" s="53">
+      <c r="I76" s="48">
+        <v>0</v>
+      </c>
+      <c r="J76" s="46">
+        <v>0</v>
+      </c>
+      <c r="K76" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -7800,14 +7799,14 @@
         <f t="shared" si="11"/>
         <v>75</v>
       </c>
-      <c r="X76" s="73" t="s">
+      <c r="X76" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="Y76" s="74"/>
-      <c r="Z76" s="75"/>
-      <c r="AA76" s="47">
-        <f>SUMIF($Z$6:$Z$56,"ASSISTIDO",$AA$6:$AA$56)</f>
-        <v>2.9333333333333331</v>
+      <c r="Y76" s="64"/>
+      <c r="Z76" s="65"/>
+      <c r="AA76" s="75">
+        <f>SUMIF($Z$6:$Z$75,"ASSISTIDO",$AA$6:$AA$75)</f>
+        <v>3.0472222222222221</v>
       </c>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
@@ -7830,19 +7829,19 @@
       <c r="F77" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G77" s="35">
+      <c r="G77" s="72">
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I77" s="57">
-        <v>0</v>
-      </c>
-      <c r="J77" s="55">
-        <v>0</v>
-      </c>
-      <c r="K77" s="53">
+      <c r="I77" s="48">
+        <v>0</v>
+      </c>
+      <c r="J77" s="46">
+        <v>0</v>
+      </c>
+      <c r="K77" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -7879,19 +7878,19 @@
       <c r="F78" s="9">
         <v>7</v>
       </c>
-      <c r="G78" s="35">
+      <c r="G78" s="72">
         <v>45</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I78" s="57">
-        <v>0</v>
-      </c>
-      <c r="J78" s="55">
-        <v>0</v>
-      </c>
-      <c r="K78" s="53">
+      <c r="I78" s="48">
+        <v>0</v>
+      </c>
+      <c r="J78" s="46">
+        <v>0</v>
+      </c>
+      <c r="K78" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -7928,19 +7927,19 @@
       <c r="F79" s="9">
         <v>9</v>
       </c>
-      <c r="G79" s="35">
+      <c r="G79" s="72">
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I79" s="57">
-        <v>0</v>
-      </c>
-      <c r="J79" s="55">
-        <v>0</v>
-      </c>
-      <c r="K79" s="53">
+      <c r="I79" s="48">
+        <v>0</v>
+      </c>
+      <c r="J79" s="46">
+        <v>0</v>
+      </c>
+      <c r="K79" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -7977,19 +7976,19 @@
       <c r="F80" s="9">
         <v>7</v>
       </c>
-      <c r="G80" s="35">
+      <c r="G80" s="72">
         <v>5.8333333333333327E-2</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I80" s="57">
-        <v>0</v>
-      </c>
-      <c r="J80" s="55">
-        <v>0</v>
-      </c>
-      <c r="K80" s="53">
+      <c r="I80" s="48">
+        <v>0</v>
+      </c>
+      <c r="J80" s="46">
+        <v>0</v>
+      </c>
+      <c r="K80" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -8026,19 +8025,19 @@
       <c r="F81" s="9">
         <v>4</v>
       </c>
-      <c r="G81" s="35">
+      <c r="G81" s="72">
         <v>5.1388888888888894E-2</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I81" s="57">
-        <v>0</v>
-      </c>
-      <c r="J81" s="55">
-        <v>0</v>
-      </c>
-      <c r="K81" s="53">
+      <c r="I81" s="48">
+        <v>0</v>
+      </c>
+      <c r="J81" s="46">
+        <v>0</v>
+      </c>
+      <c r="K81" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -8075,19 +8074,19 @@
       <c r="F82" s="9">
         <v>3</v>
       </c>
-      <c r="G82" s="35">
+      <c r="G82" s="72">
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I82" s="57">
-        <v>0</v>
-      </c>
-      <c r="J82" s="55">
-        <v>0</v>
-      </c>
-      <c r="K82" s="53">
+      <c r="I82" s="48">
+        <v>0</v>
+      </c>
+      <c r="J82" s="46">
+        <v>0</v>
+      </c>
+      <c r="K82" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -8124,19 +8123,19 @@
       <c r="F83" s="9">
         <v>6</v>
       </c>
-      <c r="G83" s="35">
+      <c r="G83" s="72">
         <v>5.486111111111111E-2</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I83" s="57">
-        <v>0</v>
-      </c>
-      <c r="J83" s="55">
-        <v>0</v>
-      </c>
-      <c r="K83" s="53">
+      <c r="I83" s="48">
+        <v>0</v>
+      </c>
+      <c r="J83" s="46">
+        <v>0</v>
+      </c>
+      <c r="K83" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -8173,19 +8172,19 @@
       <c r="F84" s="9">
         <v>7</v>
       </c>
-      <c r="G84" s="35">
+      <c r="G84" s="72">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I84" s="57">
-        <v>0</v>
-      </c>
-      <c r="J84" s="55">
-        <v>0</v>
-      </c>
-      <c r="K84" s="53">
+      <c r="I84" s="48">
+        <v>0</v>
+      </c>
+      <c r="J84" s="46">
+        <v>0</v>
+      </c>
+      <c r="K84" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -8222,19 +8221,19 @@
       <c r="F85" s="9">
         <v>4</v>
       </c>
-      <c r="G85" s="35">
+      <c r="G85" s="72">
         <v>5.6944444444444443E-2</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I85" s="57">
-        <v>0</v>
-      </c>
-      <c r="J85" s="55">
-        <v>0</v>
-      </c>
-      <c r="K85" s="53">
+      <c r="I85" s="48">
+        <v>0</v>
+      </c>
+      <c r="J85" s="46">
+        <v>0</v>
+      </c>
+      <c r="K85" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -8271,19 +8270,19 @@
       <c r="F86" s="9">
         <v>7</v>
       </c>
-      <c r="G86" s="35">
+      <c r="G86" s="72">
         <v>5.486111111111111E-2</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I86" s="57">
-        <v>0</v>
-      </c>
-      <c r="J86" s="55">
-        <v>0</v>
-      </c>
-      <c r="K86" s="53">
+      <c r="I86" s="48">
+        <v>0</v>
+      </c>
+      <c r="J86" s="46">
+        <v>0</v>
+      </c>
+      <c r="K86" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -8320,19 +8319,19 @@
       <c r="F87" s="9">
         <v>4</v>
       </c>
-      <c r="G87" s="35">
+      <c r="G87" s="72">
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I87" s="57">
-        <v>0</v>
-      </c>
-      <c r="J87" s="55">
-        <v>0</v>
-      </c>
-      <c r="K87" s="53">
+      <c r="I87" s="48">
+        <v>0</v>
+      </c>
+      <c r="J87" s="46">
+        <v>0</v>
+      </c>
+      <c r="K87" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -8369,19 +8368,19 @@
       <c r="F88" s="9">
         <v>5</v>
       </c>
-      <c r="G88" s="35">
+      <c r="G88" s="72">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I88" s="57">
-        <v>0</v>
-      </c>
-      <c r="J88" s="55">
-        <v>0</v>
-      </c>
-      <c r="K88" s="53">
+      <c r="I88" s="48">
+        <v>0</v>
+      </c>
+      <c r="J88" s="46">
+        <v>0</v>
+      </c>
+      <c r="K88" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -8418,19 +8417,19 @@
       <c r="F89" s="9">
         <v>6</v>
       </c>
-      <c r="G89" s="35">
+      <c r="G89" s="72">
         <v>5.347222222222222E-2</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I89" s="57">
-        <v>0</v>
-      </c>
-      <c r="J89" s="55">
-        <v>0</v>
-      </c>
-      <c r="K89" s="53">
+      <c r="I89" s="48">
+        <v>0</v>
+      </c>
+      <c r="J89" s="46">
+        <v>0</v>
+      </c>
+      <c r="K89" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -8467,19 +8466,19 @@
       <c r="F90" s="9">
         <v>4</v>
       </c>
-      <c r="G90" s="35">
+      <c r="G90" s="72">
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I90" s="57">
-        <v>0</v>
-      </c>
-      <c r="J90" s="55">
-        <v>0</v>
-      </c>
-      <c r="K90" s="53">
+      <c r="I90" s="48">
+        <v>0</v>
+      </c>
+      <c r="J90" s="46">
+        <v>0</v>
+      </c>
+      <c r="K90" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -8516,19 +8515,19 @@
       <c r="F91" s="9">
         <v>0</v>
       </c>
-      <c r="G91" s="35">
+      <c r="G91" s="72">
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I91" s="57">
-        <v>0</v>
-      </c>
-      <c r="J91" s="55">
-        <v>0</v>
-      </c>
-      <c r="K91" s="53">
+      <c r="I91" s="48">
+        <v>0</v>
+      </c>
+      <c r="J91" s="46">
+        <v>0</v>
+      </c>
+      <c r="K91" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -8565,19 +8564,19 @@
       <c r="F92" s="9">
         <v>8</v>
       </c>
-      <c r="G92" s="35">
+      <c r="G92" s="72">
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I92" s="57">
-        <v>0</v>
-      </c>
-      <c r="J92" s="55">
-        <v>0</v>
-      </c>
-      <c r="K92" s="53">
+      <c r="I92" s="48">
+        <v>0</v>
+      </c>
+      <c r="J92" s="46">
+        <v>0</v>
+      </c>
+      <c r="K92" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -8614,19 +8613,19 @@
       <c r="F93" s="9">
         <v>6</v>
       </c>
-      <c r="G93" s="35">
+      <c r="G93" s="72">
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I93" s="57">
-        <v>0</v>
-      </c>
-      <c r="J93" s="55">
-        <v>0</v>
-      </c>
-      <c r="K93" s="53">
+      <c r="I93" s="48">
+        <v>0</v>
+      </c>
+      <c r="J93" s="46">
+        <v>0</v>
+      </c>
+      <c r="K93" s="44">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -8663,19 +8662,19 @@
       <c r="F94" s="9">
         <v>10</v>
       </c>
-      <c r="G94" s="35">
+      <c r="G94" s="72">
         <v>5.9722222222222225E-2</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I94" s="57">
+      <c r="I94" s="48">
         <v>84000000</v>
       </c>
-      <c r="J94" s="55">
+      <c r="J94" s="46">
         <v>275000000</v>
       </c>
-      <c r="K94" s="53">
+      <c r="K94" s="44">
         <f t="shared" si="10"/>
         <v>191000000</v>
       </c>
@@ -8712,19 +8711,19 @@
       <c r="F95" s="9">
         <v>8</v>
       </c>
-      <c r="G95" s="35">
+      <c r="G95" s="72">
         <v>6.458333333333334E-2</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I95" s="57">
+      <c r="I95" s="48">
         <v>80000000</v>
       </c>
-      <c r="J95" s="55">
+      <c r="J95" s="46">
         <v>181466833</v>
       </c>
-      <c r="K95" s="53">
+      <c r="K95" s="44">
         <f t="shared" si="10"/>
         <v>101466833</v>
       </c>
@@ -8761,19 +8760,19 @@
       <c r="F96" s="9">
         <v>6</v>
       </c>
-      <c r="G96" s="35">
+      <c r="G96" s="72">
         <v>6.458333333333334E-2</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I96" s="57">
+      <c r="I96" s="48">
         <v>90000000</v>
       </c>
-      <c r="J96" s="55">
+      <c r="J96" s="46">
         <v>28500000</v>
       </c>
-      <c r="K96" s="53">
+      <c r="K96" s="44">
         <f t="shared" si="10"/>
         <v>-61500000</v>
       </c>
@@ -8810,19 +8809,19 @@
       <c r="F97" s="9">
         <v>9</v>
       </c>
-      <c r="G97" s="35">
+      <c r="G97" s="72">
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I97" s="57">
+      <c r="I97" s="48">
         <v>55000000</v>
       </c>
-      <c r="J97" s="55">
+      <c r="J97" s="46">
         <v>346100000</v>
       </c>
-      <c r="K97" s="53">
+      <c r="K97" s="44">
         <f t="shared" si="10"/>
         <v>291100000</v>
       </c>
@@ -8859,19 +8858,19 @@
       <c r="F98" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G98" s="35">
+      <c r="G98" s="72">
         <v>5.1388888888888894E-2</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I98" s="57">
+      <c r="I98" s="48">
         <v>14000000</v>
       </c>
-      <c r="J98" s="55">
+      <c r="J98" s="46">
         <v>38700000</v>
       </c>
-      <c r="K98" s="53">
+      <c r="K98" s="44">
         <f t="shared" si="10"/>
         <v>24700000</v>
       </c>
@@ -8908,19 +8907,19 @@
       <c r="F99" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G99" s="35">
+      <c r="G99" s="72">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I99" s="57">
+      <c r="I99" s="48">
         <v>45000000</v>
       </c>
-      <c r="J99" s="55">
+      <c r="J99" s="46">
         <v>363300000</v>
       </c>
-      <c r="K99" s="53">
+      <c r="K99" s="44">
         <f t="shared" si="10"/>
         <v>318300000</v>
       </c>
@@ -8957,19 +8956,19 @@
       <c r="F100" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G100" s="35">
+      <c r="G100" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H100" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I100" s="57">
+      <c r="I100" s="48">
         <v>94000000</v>
       </c>
-      <c r="J100" s="55">
+      <c r="J100" s="46">
         <v>940400000</v>
       </c>
-      <c r="K100" s="53">
+      <c r="K100" s="44">
         <f t="shared" si="10"/>
         <v>846400000</v>
       </c>
@@ -9006,19 +9005,19 @@
       <c r="F101" s="9">
         <v>7</v>
       </c>
-      <c r="G101" s="35">
+      <c r="G101" s="72">
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="H101" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I101" s="57">
+      <c r="I101" s="48">
         <v>4000000</v>
       </c>
-      <c r="J101" s="55">
+      <c r="J101" s="46">
         <v>191000000</v>
       </c>
-      <c r="K101" s="53">
+      <c r="K101" s="44">
         <f t="shared" si="10"/>
         <v>187000000</v>
       </c>
@@ -9055,19 +9054,19 @@
       <c r="F102" s="9">
         <v>7</v>
       </c>
-      <c r="G102" s="35">
+      <c r="G102" s="72">
         <v>5.9722222222222225E-2</v>
       </c>
       <c r="H102" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I102" s="57">
+      <c r="I102" s="48">
         <v>75000000</v>
       </c>
-      <c r="J102" s="55">
+      <c r="J102" s="46">
         <v>556600000</v>
       </c>
-      <c r="K102" s="53">
+      <c r="K102" s="44">
         <f t="shared" si="10"/>
         <v>481600000</v>
       </c>
@@ -9104,19 +9103,19 @@
       <c r="F103" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G103" s="35">
+      <c r="G103" s="72">
         <v>6.3194444444444442E-2</v>
       </c>
       <c r="H103" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I103" s="57">
+      <c r="I103" s="48">
         <v>75000000</v>
       </c>
-      <c r="J103" s="55">
+      <c r="J103" s="46">
         <v>141900000</v>
       </c>
-      <c r="K103" s="53">
+      <c r="K103" s="44">
         <f t="shared" si="10"/>
         <v>66900000</v>
       </c>
@@ -9153,19 +9152,19 @@
       <c r="F104" s="9">
         <v>8</v>
       </c>
-      <c r="G104" s="35">
+      <c r="G104" s="72">
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="H104" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I104" s="57">
+      <c r="I104" s="48">
         <v>80000000</v>
       </c>
-      <c r="J104" s="55">
+      <c r="J104" s="46">
         <v>474800000</v>
       </c>
-      <c r="K104" s="53">
+      <c r="K104" s="44">
         <f t="shared" si="10"/>
         <v>394800000</v>
       </c>
@@ -9202,19 +9201,19 @@
       <c r="F105" s="9">
         <v>8</v>
       </c>
-      <c r="G105" s="35">
+      <c r="G105" s="72">
         <v>6.7361111111111108E-2</v>
       </c>
       <c r="H105" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I105" s="57">
+      <c r="I105" s="48">
         <v>80000000</v>
       </c>
-      <c r="J105" s="55">
+      <c r="J105" s="46">
         <v>528583744</v>
       </c>
-      <c r="K105" s="53">
+      <c r="K105" s="44">
         <f t="shared" si="10"/>
         <v>448583744</v>
       </c>
@@ -9245,19 +9244,19 @@
       <c r="D106" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G106" s="35">
+      <c r="G106" s="72">
         <v>5.1388888888888894E-2</v>
       </c>
       <c r="H106" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I106" s="57">
+      <c r="I106" s="48">
         <v>2900000</v>
       </c>
-      <c r="J106" s="55">
+      <c r="J106" s="46">
         <v>263600000</v>
       </c>
-      <c r="K106" s="53">
+      <c r="K106" s="44">
         <f t="shared" si="10"/>
         <v>260700000</v>
       </c>
@@ -9294,19 +9293,19 @@
       <c r="F107" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G107" s="35">
+      <c r="G107" s="72">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="H107" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I107" s="57">
+      <c r="I107" s="48">
         <v>90000000</v>
       </c>
-      <c r="J107" s="55">
+      <c r="J107" s="46">
         <v>512000000</v>
       </c>
-      <c r="K107" s="53">
+      <c r="K107" s="44">
         <f t="shared" si="10"/>
         <v>422000000</v>
       </c>
@@ -9337,19 +9336,19 @@
       <c r="D108" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G108" s="35">
+      <c r="G108" s="72">
         <v>6.7361111111111108E-2</v>
       </c>
       <c r="H108" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I108" s="57">
+      <c r="I108" s="48">
         <v>100000000</v>
       </c>
-      <c r="J108" s="55">
+      <c r="J108" s="46">
         <v>147400000</v>
       </c>
-      <c r="K108" s="53">
+      <c r="K108" s="44">
         <f t="shared" si="10"/>
         <v>47400000</v>
       </c>
@@ -9386,19 +9385,19 @@
       <c r="F109" s="9">
         <v>9</v>
       </c>
-      <c r="G109" s="35">
+      <c r="G109" s="72">
         <v>7.1527777777777787E-2</v>
       </c>
       <c r="H109" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I109" s="57">
+      <c r="I109" s="48">
         <v>200000000</v>
       </c>
-      <c r="J109" s="55">
+      <c r="J109" s="46">
         <v>1066969703</v>
       </c>
-      <c r="K109" s="53">
+      <c r="K109" s="44">
         <f t="shared" si="10"/>
         <v>866969703</v>
       </c>
@@ -9435,19 +9434,19 @@
       <c r="F110" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G110" s="35">
+      <c r="G110" s="72">
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="H110" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I110" s="57">
+      <c r="I110" s="48">
         <v>200000000</v>
       </c>
-      <c r="J110" s="55">
+      <c r="J110" s="46">
         <v>1029000000</v>
       </c>
-      <c r="K110" s="53">
+      <c r="K110" s="44">
         <f t="shared" si="10"/>
         <v>829000000</v>
       </c>
@@ -9484,19 +9483,19 @@
       <c r="F111" s="9">
         <v>9</v>
       </c>
-      <c r="G111" s="35">
+      <c r="G111" s="72">
         <v>7.2222222222222229E-2</v>
       </c>
       <c r="H111" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I111" s="57">
+      <c r="I111" s="48">
         <v>200000000</v>
       </c>
-      <c r="J111" s="55">
+      <c r="J111" s="46">
         <v>743600000</v>
       </c>
-      <c r="K111" s="53">
+      <c r="K111" s="44">
         <f t="shared" si="10"/>
         <v>543600000</v>
       </c>
@@ -9533,19 +9532,19 @@
       <c r="F112" s="9">
         <v>9</v>
       </c>
-      <c r="G112" s="35">
+      <c r="G112" s="72">
         <v>6.805555555555555E-2</v>
       </c>
       <c r="H112" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I112" s="57">
+      <c r="I112" s="48">
         <v>180000000</v>
       </c>
-      <c r="J112" s="55">
+      <c r="J112" s="46">
         <v>532500000</v>
       </c>
-      <c r="K112" s="53">
+      <c r="K112" s="44">
         <f t="shared" si="10"/>
         <v>352500000</v>
       </c>
@@ -9582,19 +9581,19 @@
       <c r="F113" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G113" s="35">
+      <c r="G113" s="72">
         <v>7.7083333333333337E-2</v>
       </c>
       <c r="H113" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I113" s="57">
+      <c r="I113" s="48">
         <v>150000000</v>
       </c>
-      <c r="J113" s="55">
+      <c r="J113" s="46">
         <v>623700000</v>
       </c>
-      <c r="K113" s="53">
+      <c r="K113" s="44">
         <f t="shared" si="10"/>
         <v>473700000</v>
       </c>
@@ -9631,19 +9630,19 @@
       <c r="F114" s="9">
         <v>9</v>
       </c>
-      <c r="G114" s="35">
+      <c r="G114" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H114" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I114" s="57">
+      <c r="I114" s="48">
         <v>150000000</v>
       </c>
-      <c r="J114" s="55">
+      <c r="J114" s="46">
         <v>121000000</v>
       </c>
-      <c r="K114" s="53">
+      <c r="K114" s="44">
         <f t="shared" si="10"/>
         <v>-29000000</v>
       </c>
@@ -9680,19 +9679,19 @@
       <c r="F115" s="9">
         <v>9</v>
       </c>
-      <c r="G115" s="35">
+      <c r="G115" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H115" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I115" s="57">
+      <c r="I115" s="48">
         <v>175000000</v>
       </c>
-      <c r="J115" s="55">
+      <c r="J115" s="46">
         <v>21000000</v>
       </c>
-      <c r="K115" s="53">
+      <c r="K115" s="44">
         <f t="shared" si="10"/>
         <v>-154000000</v>
       </c>
@@ -9729,19 +9728,19 @@
       <c r="F116" s="9">
         <v>8</v>
       </c>
-      <c r="G116" s="35">
+      <c r="G116" s="72">
         <v>6.7361111111111108E-2</v>
       </c>
       <c r="H116" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I116" s="57">
+      <c r="I116" s="48">
         <v>73000000</v>
       </c>
-      <c r="J116" s="55">
+      <c r="J116" s="46">
         <v>352300000</v>
       </c>
-      <c r="K116" s="53">
+      <c r="K116" s="44">
         <f t="shared" si="10"/>
         <v>279300000</v>
       </c>
@@ -9772,19 +9771,19 @@
       <c r="D117" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G117" s="35">
+      <c r="G117" s="72">
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="H117" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I117" s="57">
+      <c r="I117" s="48">
         <v>65000000</v>
       </c>
-      <c r="J117" s="55">
+      <c r="J117" s="46">
         <v>152800000</v>
       </c>
-      <c r="K117" s="53">
+      <c r="K117" s="44">
         <f t="shared" si="10"/>
         <v>87800000</v>
       </c>
@@ -9821,19 +9820,19 @@
       <c r="F118" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G118" s="35">
+      <c r="G118" s="72">
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="H118" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I118" s="57">
+      <c r="I118" s="48">
         <v>24000000</v>
       </c>
-      <c r="J118" s="55">
+      <c r="J118" s="46">
         <v>91500000</v>
       </c>
-      <c r="K118" s="53">
+      <c r="K118" s="44">
         <f t="shared" si="10"/>
         <v>67500000</v>
       </c>
@@ -9870,19 +9869,19 @@
       <c r="F119" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G119" s="35">
+      <c r="G119" s="72">
         <v>7.0833333333333331E-2</v>
       </c>
       <c r="H119" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I119" s="57">
+      <c r="I119" s="48">
         <v>110000000</v>
       </c>
-      <c r="J119" s="55">
+      <c r="J119" s="46">
         <v>478700000</v>
       </c>
-      <c r="K119" s="53">
+      <c r="K119" s="44">
         <f t="shared" si="10"/>
         <v>368700000</v>
       </c>
@@ -9919,19 +9918,19 @@
       <c r="F120" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G120" s="35">
+      <c r="G120" s="72">
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="H120" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I120" s="57">
+      <c r="I120" s="48">
         <v>4000000</v>
       </c>
-      <c r="J120" s="55">
+      <c r="J120" s="46">
         <v>187000000</v>
       </c>
-      <c r="K120" s="53">
+      <c r="K120" s="44">
         <f t="shared" si="10"/>
         <v>183000000</v>
       </c>
@@ -9962,22 +9961,22 @@
       <c r="D121" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F121" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G121" s="35">
+      <c r="F121" s="9">
+        <v>9</v>
+      </c>
+      <c r="G121" s="72">
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="H121" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I121" s="57">
+      <c r="I121" s="48">
         <v>7500000</v>
       </c>
-      <c r="J121" s="55">
+      <c r="J121" s="46">
         <v>169000000</v>
       </c>
-      <c r="K121" s="53">
+      <c r="K121" s="44">
         <f t="shared" si="10"/>
         <v>161500000</v>
       </c>
@@ -10014,19 +10013,19 @@
       <c r="F122" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G122" s="35">
+      <c r="G122" s="72">
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="H122" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I122" s="57">
+      <c r="I122" s="48">
         <v>100000000</v>
       </c>
-      <c r="J122" s="55">
+      <c r="J122" s="46">
         <v>169700000</v>
       </c>
-      <c r="K122" s="53">
+      <c r="K122" s="44">
         <f t="shared" si="10"/>
         <v>69700000</v>
       </c>
@@ -10057,19 +10056,19 @@
       <c r="D123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G123" s="35">
+      <c r="G123" s="72">
         <v>5.9722222222222225E-2</v>
       </c>
       <c r="H123" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I123" s="57">
+      <c r="I123" s="48">
         <v>60000000</v>
       </c>
-      <c r="J123" s="55">
+      <c r="J123" s="46">
         <v>80800000</v>
       </c>
-      <c r="K123" s="53">
+      <c r="K123" s="44">
         <f t="shared" si="10"/>
         <v>20800000</v>
       </c>
@@ -10106,19 +10105,19 @@
       <c r="F124" s="9">
         <v>10</v>
       </c>
-      <c r="G124" s="35">
+      <c r="G124" s="72">
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="H124" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I124" s="57">
+      <c r="I124" s="48">
         <v>18000000</v>
       </c>
-      <c r="J124" s="55">
+      <c r="J124" s="46">
         <v>37600000</v>
       </c>
-      <c r="K124" s="53">
+      <c r="K124" s="44">
         <f t="shared" si="10"/>
         <v>19600000</v>
       </c>
@@ -10149,19 +10148,19 @@
       <c r="D125" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G125" s="35">
+      <c r="G125" s="72">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="H125" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I125" s="57">
+      <c r="I125" s="48">
         <v>120000000</v>
       </c>
-      <c r="J125" s="55">
+      <c r="J125" s="46">
         <v>186100000</v>
       </c>
-      <c r="K125" s="53">
+      <c r="K125" s="44">
         <f t="shared" si="10"/>
         <v>66100000</v>
       </c>
@@ -10192,29 +10191,35 @@
       <c r="D126" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G126" s="35">
+      <c r="E126" s="7">
+        <v>45123</v>
+      </c>
+      <c r="F126" s="9">
+        <v>8</v>
+      </c>
+      <c r="G126" s="72">
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="H126" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I126" s="57">
+      <c r="I126" s="48">
         <v>170000000</v>
       </c>
-      <c r="J126" s="55">
+      <c r="J126" s="46">
         <v>353300000</v>
       </c>
-      <c r="K126" s="53">
+      <c r="K126" s="44">
         <f t="shared" si="10"/>
         <v>183300000</v>
       </c>
       <c r="L126" s="23">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M126" s="25" t="str">
         <f t="shared" si="13"/>
-        <v>NÃO ASSISTIDO</v>
+        <v>ASSISTIDO</v>
       </c>
       <c r="N126" s="6">
         <f t="shared" si="11"/>
@@ -10235,19 +10240,19 @@
       <c r="D127" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G127" s="35">
+      <c r="G127" s="72">
         <v>5.486111111111111E-2</v>
       </c>
       <c r="H127" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I127" s="57">
+      <c r="I127" s="48">
         <v>3000000</v>
       </c>
-      <c r="J127" s="55">
+      <c r="J127" s="46">
         <v>22200000</v>
       </c>
-      <c r="K127" s="53">
+      <c r="K127" s="44">
         <f t="shared" si="10"/>
         <v>19200000</v>
       </c>
@@ -10278,19 +10283,19 @@
       <c r="D128" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G128" s="35">
+      <c r="G128" s="72">
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="H128" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I128" s="57">
+      <c r="I128" s="48">
         <v>44000000</v>
       </c>
-      <c r="J128" s="55">
+      <c r="J128" s="46">
         <v>21000000</v>
       </c>
-      <c r="K128" s="53">
+      <c r="K128" s="44">
         <f t="shared" si="10"/>
         <v>-23000000</v>
       </c>
@@ -10321,19 +10326,19 @@
       <c r="D129" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G129" s="35">
+      <c r="G129" s="72">
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="H129" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I129" s="57">
+      <c r="I129" s="48">
         <v>130000000</v>
       </c>
-      <c r="J129" s="55">
+      <c r="J129" s="46">
         <v>122000000</v>
       </c>
-      <c r="K129" s="53">
+      <c r="K129" s="44">
         <f t="shared" si="10"/>
         <v>-8000000</v>
       </c>
@@ -10370,19 +10375,19 @@
       <c r="F130" s="9">
         <v>9</v>
       </c>
-      <c r="G130" s="35">
+      <c r="G130" s="72">
         <v>6.458333333333334E-2</v>
       </c>
       <c r="H130" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I130" s="57">
+      <c r="I130" s="48">
         <v>185000000</v>
       </c>
-      <c r="J130" s="55">
+      <c r="J130" s="46">
         <v>540437063</v>
       </c>
-      <c r="K130" s="53">
+      <c r="K130" s="44">
         <f t="shared" si="10"/>
         <v>355437063</v>
       </c>
@@ -10419,19 +10424,19 @@
       <c r="F131" s="9">
         <v>9</v>
       </c>
-      <c r="G131" s="35">
+      <c r="G131" s="72">
         <v>8.1250000000000003E-2</v>
       </c>
       <c r="H131" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I131" s="57">
+      <c r="I131" s="48">
         <v>120000000</v>
       </c>
-      <c r="J131" s="55">
+      <c r="J131" s="46">
         <v>462000000</v>
       </c>
-      <c r="K131" s="53">
+      <c r="K131" s="44">
         <f t="shared" ref="K131:K177" si="17">J131-I131</f>
         <v>342000000</v>
       </c>
@@ -10468,19 +10473,19 @@
       <c r="F132" s="9">
         <v>8</v>
       </c>
-      <c r="G132" s="35">
+      <c r="G132" s="72">
         <v>7.3611111111111113E-2</v>
       </c>
       <c r="H132" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I132" s="57">
+      <c r="I132" s="48">
         <v>200000000</v>
       </c>
-      <c r="J132" s="55">
+      <c r="J132" s="46">
         <v>559800000</v>
       </c>
-      <c r="K132" s="53">
+      <c r="K132" s="44">
         <f t="shared" si="17"/>
         <v>359800000</v>
       </c>
@@ -10517,19 +10522,19 @@
       <c r="F133" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G133" s="35">
+      <c r="G133" s="72">
         <v>7.5694444444444439E-2</v>
       </c>
       <c r="H133" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I133" s="57">
+      <c r="I133" s="48">
         <v>175000000</v>
       </c>
-      <c r="J133" s="55">
+      <c r="J133" s="46">
         <v>383900000</v>
       </c>
-      <c r="K133" s="53">
+      <c r="K133" s="44">
         <f t="shared" si="17"/>
         <v>208900000</v>
       </c>
@@ -10560,19 +10565,19 @@
       <c r="D134" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G134" s="35">
+      <c r="G134" s="72">
         <v>6.458333333333334E-2</v>
       </c>
       <c r="H134" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I134" s="57">
+      <c r="I134" s="48">
         <v>200000000</v>
       </c>
-      <c r="J134" s="55">
+      <c r="J134" s="46">
         <v>117300000</v>
       </c>
-      <c r="K134" s="53">
+      <c r="K134" s="44">
         <f t="shared" si="17"/>
         <v>-82700000</v>
       </c>
@@ -10609,19 +10614,19 @@
       <c r="F135" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G135" s="35">
+      <c r="G135" s="72">
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="H135" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I135" s="57">
-        <v>0</v>
-      </c>
-      <c r="J135" s="55">
+      <c r="I135" s="48">
+        <v>0</v>
+      </c>
+      <c r="J135" s="46">
         <v>49750471</v>
       </c>
-      <c r="K135" s="53">
+      <c r="K135" s="44">
         <f t="shared" si="17"/>
         <v>49750471</v>
       </c>
@@ -10658,19 +10663,19 @@
       <c r="F136" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="G136" s="35">
+      <c r="G136" s="72">
         <v>7.0833333333333331E-2</v>
       </c>
       <c r="H136" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I136" s="57">
+      <c r="I136" s="48">
         <v>200000000</v>
       </c>
-      <c r="J136" s="55">
+      <c r="J136" s="46">
         <v>142000000</v>
       </c>
-      <c r="K136" s="53">
+      <c r="K136" s="44">
         <f t="shared" si="17"/>
         <v>-58000000</v>
       </c>
@@ -10701,19 +10706,19 @@
       <c r="D137" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G137" s="35">
+      <c r="G137" s="72">
         <v>6.8749999999999992E-2</v>
       </c>
       <c r="H137" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I137" s="57">
+      <c r="I137" s="48">
         <v>60000000</v>
       </c>
-      <c r="J137" s="55">
+      <c r="J137" s="46">
         <v>218600000</v>
       </c>
-      <c r="K137" s="53">
+      <c r="K137" s="44">
         <f t="shared" si="17"/>
         <v>158600000</v>
       </c>
@@ -10747,19 +10752,19 @@
       <c r="F138" s="9">
         <v>9</v>
       </c>
-      <c r="G138" s="35">
+      <c r="G138" s="72">
         <v>5.7638888888888885E-2</v>
       </c>
       <c r="H138" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I138" s="57">
+      <c r="I138" s="48">
         <v>1500000</v>
       </c>
-      <c r="J138" s="55">
+      <c r="J138" s="46">
         <v>418000000</v>
       </c>
-      <c r="K138" s="53">
+      <c r="K138" s="44">
         <f t="shared" si="17"/>
         <v>416500000</v>
       </c>
@@ -10790,19 +10795,19 @@
       <c r="D139" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G139" s="35">
+      <c r="G139" s="72">
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="H139" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I139" s="57">
+      <c r="I139" s="48">
         <v>150000000</v>
       </c>
-      <c r="J139" s="55">
+      <c r="J139" s="46">
         <v>164000000</v>
       </c>
-      <c r="K139" s="53">
+      <c r="K139" s="44">
         <f t="shared" si="17"/>
         <v>14000000</v>
       </c>
@@ -10839,19 +10844,19 @@
       <c r="F140" s="9">
         <v>10</v>
       </c>
-      <c r="G140" s="35">
+      <c r="G140" s="72">
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="H140" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I140" s="57">
+      <c r="I140" s="48">
         <v>110000000</v>
       </c>
-      <c r="J140" s="55">
-        <v>0</v>
-      </c>
-      <c r="K140" s="53">
+      <c r="J140" s="46">
+        <v>0</v>
+      </c>
+      <c r="K140" s="44">
         <f t="shared" si="17"/>
         <v>-110000000</v>
       </c>
@@ -10888,19 +10893,19 @@
       <c r="F141" s="9">
         <v>9</v>
       </c>
-      <c r="G141" s="35">
+      <c r="G141" s="72">
         <v>6.5277777777777782E-2</v>
       </c>
       <c r="H141" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="I141" s="57">
+      <c r="I141" s="48">
         <v>50000000</v>
       </c>
-      <c r="J141" s="55">
+      <c r="J141" s="46">
         <v>139804348</v>
       </c>
-      <c r="K141" s="53">
+      <c r="K141" s="44">
         <f t="shared" si="17"/>
         <v>89804348</v>
       </c>
@@ -10937,19 +10942,19 @@
       <c r="F142" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G142" s="35">
+      <c r="G142" s="72">
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="H142" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I142" s="57">
+      <c r="I142" s="48">
         <v>100000000</v>
       </c>
-      <c r="J142" s="55">
+      <c r="J142" s="46">
         <v>152000000</v>
       </c>
-      <c r="K142" s="53">
+      <c r="K142" s="44">
         <f t="shared" si="17"/>
         <v>52000000</v>
       </c>
@@ -10980,19 +10985,19 @@
       <c r="D143" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G143" s="35">
+      <c r="G143" s="72">
         <v>5.9722222222222225E-2</v>
       </c>
       <c r="H143" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I143" s="57">
+      <c r="I143" s="48">
         <v>85000000</v>
       </c>
-      <c r="J143" s="55">
+      <c r="J143" s="46">
         <v>200800000</v>
       </c>
-      <c r="K143" s="53">
+      <c r="K143" s="44">
         <f t="shared" si="17"/>
         <v>115800000</v>
       </c>
@@ -11029,19 +11034,19 @@
       <c r="F144" s="9">
         <v>9</v>
       </c>
-      <c r="G144" s="35">
+      <c r="G144" s="72">
         <v>7.6388888888888895E-2</v>
       </c>
       <c r="H144" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="I144" s="57">
+      <c r="I144" s="48">
         <v>75000000</v>
       </c>
-      <c r="J144" s="55">
+      <c r="J144" s="46">
         <v>634151679</v>
       </c>
-      <c r="K144" s="53">
+      <c r="K144" s="44">
         <f t="shared" si="17"/>
         <v>559151679</v>
       </c>
@@ -11078,19 +11083,19 @@
       <c r="F145" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G145" s="35">
+      <c r="G145" s="72">
         <v>7.6388888888888895E-2</v>
       </c>
       <c r="H145" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="I145" s="57">
+      <c r="I145" s="48">
         <v>85000000</v>
       </c>
-      <c r="J145" s="55">
+      <c r="J145" s="46">
         <v>408400000</v>
       </c>
-      <c r="K145" s="53">
+      <c r="K145" s="44">
         <f t="shared" si="17"/>
         <v>323400000</v>
       </c>
@@ -11127,19 +11132,19 @@
       <c r="F146" s="9">
         <v>8</v>
       </c>
-      <c r="G146" s="35">
+      <c r="G146" s="72">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="H146" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="I146" s="57">
+      <c r="I146" s="48">
         <v>69000000</v>
       </c>
-      <c r="J146" s="55">
+      <c r="J146" s="46">
         <v>543200000</v>
       </c>
-      <c r="K146" s="53">
+      <c r="K146" s="44">
         <f t="shared" si="17"/>
         <v>474200000</v>
       </c>
@@ -11176,19 +11181,19 @@
       <c r="F147" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G147" s="35">
+      <c r="G147" s="72">
         <v>6.805555555555555E-2</v>
       </c>
       <c r="H147" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="I147" s="57">
+      <c r="I147" s="48">
         <v>76000000</v>
       </c>
-      <c r="J147" s="55">
+      <c r="J147" s="46">
         <v>970800000</v>
       </c>
-      <c r="K147" s="53">
+      <c r="K147" s="44">
         <f t="shared" si="17"/>
         <v>894800000</v>
       </c>
@@ -11225,19 +11230,19 @@
       <c r="F148" s="9">
         <v>9</v>
       </c>
-      <c r="G148" s="35">
+      <c r="G148" s="72">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="H148" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I148" s="57">
+      <c r="I148" s="48">
         <v>150000000</v>
       </c>
-      <c r="J148" s="55">
+      <c r="J148" s="46">
         <v>169300000</v>
       </c>
-      <c r="K148" s="53">
+      <c r="K148" s="44">
         <f t="shared" si="17"/>
         <v>19300000</v>
       </c>
@@ -11274,19 +11279,19 @@
       <c r="F149" s="9">
         <v>9</v>
       </c>
-      <c r="G149" s="35">
+      <c r="G149" s="72">
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="H149" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="I149" s="57">
+      <c r="I149" s="48">
         <v>100000000</v>
       </c>
-      <c r="J149" s="55">
+      <c r="J149" s="46">
         <v>1346000000</v>
       </c>
-      <c r="K149" s="53">
+      <c r="K149" s="44">
         <f t="shared" si="17"/>
         <v>1246000000</v>
       </c>
@@ -11323,19 +11328,19 @@
       <c r="F150" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G150" s="35">
+      <c r="G150" s="72">
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="H150" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="I150" s="57">
-        <v>0</v>
-      </c>
-      <c r="J150" s="55">
-        <v>0</v>
-      </c>
-      <c r="K150" s="53">
+      <c r="I150" s="48">
+        <v>0</v>
+      </c>
+      <c r="J150" s="46">
+        <v>0</v>
+      </c>
+      <c r="K150" s="44">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -11372,19 +11377,19 @@
       <c r="F151" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G151" s="35">
+      <c r="G151" s="72">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H151" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="I151" s="57">
+      <c r="I151" s="48">
         <v>15750000</v>
       </c>
-      <c r="J151" s="55">
-        <v>0</v>
-      </c>
-      <c r="K151" s="53">
+      <c r="J151" s="46">
+        <v>0</v>
+      </c>
+      <c r="K151" s="44">
         <f t="shared" si="17"/>
         <v>-15750000</v>
       </c>
@@ -11421,19 +11426,19 @@
       <c r="F152" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G152" s="35">
+      <c r="G152" s="72">
         <v>8.4027777777777771E-2</v>
       </c>
       <c r="H152" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I152" s="57">
+      <c r="I152" s="48">
         <v>139000000</v>
       </c>
-      <c r="J152" s="55">
+      <c r="J152" s="46">
         <v>825000000</v>
       </c>
-      <c r="K152" s="53">
+      <c r="K152" s="44">
         <f t="shared" si="17"/>
         <v>686000000</v>
       </c>
@@ -11470,19 +11475,19 @@
       <c r="F153" s="9">
         <v>8</v>
       </c>
-      <c r="G153" s="35">
+      <c r="G153" s="72">
         <v>8.819444444444445E-2</v>
       </c>
       <c r="H153" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I153" s="57">
+      <c r="I153" s="48">
         <v>200000000</v>
       </c>
-      <c r="J153" s="55">
+      <c r="J153" s="46">
         <v>789000000</v>
       </c>
-      <c r="K153" s="53">
+      <c r="K153" s="44">
         <f t="shared" si="17"/>
         <v>589000000</v>
       </c>
@@ -11519,19 +11524,19 @@
       <c r="F154" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G154" s="35">
+      <c r="G154" s="72">
         <v>9.6527777777777768E-2</v>
       </c>
       <c r="H154" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I154" s="57">
+      <c r="I154" s="48">
         <v>250000000</v>
       </c>
-      <c r="J154" s="55">
+      <c r="J154" s="46">
         <v>895000000</v>
       </c>
-      <c r="K154" s="53">
+      <c r="K154" s="44">
         <f t="shared" si="17"/>
         <v>645000000</v>
       </c>
@@ -11568,19 +11573,19 @@
       <c r="F155" s="9">
         <v>9</v>
       </c>
-      <c r="G155" s="35">
+      <c r="G155" s="72">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H155" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I155" s="57">
+      <c r="I155" s="48">
         <v>150000000</v>
       </c>
-      <c r="J155" s="55">
+      <c r="J155" s="46">
         <v>373700000</v>
       </c>
-      <c r="K155" s="53">
+      <c r="K155" s="44">
         <f t="shared" si="17"/>
         <v>223700000</v>
       </c>
@@ -11617,19 +11622,19 @@
       <c r="F156" s="9">
         <v>9</v>
       </c>
-      <c r="G156" s="35">
+      <c r="G156" s="72">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H156" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I156" s="57">
+      <c r="I156" s="48">
         <v>180000000</v>
       </c>
-      <c r="J156" s="55">
+      <c r="J156" s="46">
         <v>1006000000</v>
       </c>
-      <c r="K156" s="53">
+      <c r="K156" s="44">
         <f t="shared" si="17"/>
         <v>826000000</v>
       </c>
@@ -11660,22 +11665,20 @@
       <c r="D157" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E157" s="7">
-        <v>45108</v>
-      </c>
-      <c r="G157" s="35">
+      <c r="E157" s="7"/>
+      <c r="G157" s="72">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="H157" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I157" s="57">
+      <c r="I157" s="48">
         <v>200000000</v>
       </c>
-      <c r="J157" s="55">
+      <c r="J157" s="46">
         <v>226400000</v>
       </c>
-      <c r="K157" s="53">
+      <c r="K157" s="44">
         <f t="shared" si="17"/>
         <v>26400000</v>
       </c>
@@ -11705,22 +11708,20 @@
       <c r="D158" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E158" s="7">
-        <v>45108</v>
-      </c>
-      <c r="G158" s="35">
+      <c r="E158" s="7"/>
+      <c r="G158" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H158" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I158" s="57">
+      <c r="I158" s="48">
         <v>200000000</v>
       </c>
-      <c r="J158" s="55">
+      <c r="J158" s="46">
         <v>1073000000</v>
       </c>
-      <c r="K158" s="53">
+      <c r="K158" s="44">
         <f t="shared" si="17"/>
         <v>873000000</v>
       </c>
@@ -11750,22 +11751,20 @@
       <c r="D159" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E159" s="7">
-        <v>45108</v>
-      </c>
-      <c r="G159" s="35">
+      <c r="E159" s="7"/>
+      <c r="G159" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H159" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I159" s="57">
+      <c r="I159" s="48">
         <v>2280000</v>
       </c>
-      <c r="J159" s="55">
-        <v>0</v>
-      </c>
-      <c r="K159" s="53">
+      <c r="J159" s="46">
+        <v>0</v>
+      </c>
+      <c r="K159" s="44">
         <f t="shared" si="17"/>
         <v>-2280000</v>
       </c>
@@ -11795,22 +11794,20 @@
       <c r="D160" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E160" s="7">
-        <v>45108</v>
-      </c>
-      <c r="G160" s="35">
+      <c r="E160" s="7"/>
+      <c r="G160" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H160" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I160" s="57">
+      <c r="I160" s="48">
         <v>1000000</v>
       </c>
-      <c r="J160" s="55">
+      <c r="J160" s="46">
         <v>1135000</v>
       </c>
-      <c r="K160" s="53">
+      <c r="K160" s="44">
         <f t="shared" si="17"/>
         <v>135000</v>
       </c>
@@ -11840,22 +11837,20 @@
       <c r="D161" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E161" s="7">
-        <v>45108</v>
-      </c>
-      <c r="G161" s="35">
+      <c r="E161" s="7"/>
+      <c r="G161" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H161" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I161" s="57">
-        <v>0</v>
-      </c>
-      <c r="J161" s="55">
+      <c r="I161" s="48">
+        <v>0</v>
+      </c>
+      <c r="J161" s="46">
         <v>3355000</v>
       </c>
-      <c r="K161" s="53">
+      <c r="K161" s="44">
         <f t="shared" si="17"/>
         <v>3355000</v>
       </c>
@@ -11885,22 +11880,20 @@
       <c r="D162" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E162" s="7">
-        <v>45108</v>
-      </c>
-      <c r="G162" s="35">
+      <c r="E162" s="7"/>
+      <c r="G162" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H162" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I162" s="57">
+      <c r="I162" s="48">
         <v>1350000</v>
       </c>
-      <c r="J162" s="55">
+      <c r="J162" s="46">
         <v>3275000</v>
       </c>
-      <c r="K162" s="53">
+      <c r="K162" s="44">
         <f t="shared" si="17"/>
         <v>1925000</v>
       </c>
@@ -11930,22 +11923,20 @@
       <c r="D163" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E163" s="7">
-        <v>45108</v>
-      </c>
-      <c r="G163" s="35">
+      <c r="E163" s="7"/>
+      <c r="G163" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H163" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I163" s="57">
-        <v>0</v>
-      </c>
-      <c r="J163" s="55">
-        <v>0</v>
-      </c>
-      <c r="K163" s="53">
+      <c r="I163" s="48">
+        <v>0</v>
+      </c>
+      <c r="J163" s="46">
+        <v>0</v>
+      </c>
+      <c r="K163" s="44">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -11975,22 +11966,20 @@
       <c r="D164" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E164" s="7">
-        <v>45108</v>
-      </c>
-      <c r="G164" s="35">
+      <c r="E164" s="7"/>
+      <c r="G164" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H164" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I164" s="57">
+      <c r="I164" s="48">
         <v>1350000</v>
       </c>
-      <c r="J164" s="55">
+      <c r="J164" s="46">
         <v>3275000</v>
       </c>
-      <c r="K164" s="53">
+      <c r="K164" s="44">
         <f t="shared" si="17"/>
         <v>1925000</v>
       </c>
@@ -12020,22 +12009,20 @@
       <c r="D165" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E165" s="7">
-        <v>45108</v>
-      </c>
-      <c r="G165" s="35">
+      <c r="E165" s="7"/>
+      <c r="G165" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H165" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I165" s="57">
-        <v>0</v>
-      </c>
-      <c r="J165" s="55">
+      <c r="I165" s="48">
+        <v>0</v>
+      </c>
+      <c r="J165" s="46">
         <v>1625000</v>
       </c>
-      <c r="K165" s="53">
+      <c r="K165" s="44">
         <f t="shared" si="17"/>
         <v>1625000</v>
       </c>
@@ -12065,22 +12052,20 @@
       <c r="D166" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E166" s="7">
-        <v>45108</v>
-      </c>
-      <c r="G166" s="35">
+      <c r="E166" s="7"/>
+      <c r="G166" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H166" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I166" s="57">
+      <c r="I166" s="48">
         <v>200000000</v>
       </c>
-      <c r="J166" s="55">
+      <c r="J166" s="46">
         <v>1025000000</v>
       </c>
-      <c r="K166" s="53">
+      <c r="K166" s="44">
         <f t="shared" si="17"/>
         <v>825000000</v>
       </c>
@@ -12110,22 +12095,20 @@
       <c r="D167" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E167" s="7">
-        <v>45108</v>
-      </c>
-      <c r="G167" s="35">
+      <c r="E167" s="7"/>
+      <c r="G167" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H167" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I167" s="57">
+      <c r="I167" s="48">
         <v>100000000</v>
       </c>
-      <c r="J167" s="55">
+      <c r="J167" s="46">
         <v>86500000</v>
       </c>
-      <c r="K167" s="53">
+      <c r="K167" s="44">
         <f t="shared" si="17"/>
         <v>-13500000</v>
       </c>
@@ -12155,22 +12138,20 @@
       <c r="D168" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E168" s="7">
-        <v>45108</v>
-      </c>
-      <c r="G168" s="35">
+      <c r="E168" s="7"/>
+      <c r="G168" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H168" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I168" s="57">
+      <c r="I168" s="48">
         <v>100000</v>
       </c>
-      <c r="J168" s="55">
+      <c r="J168" s="46">
         <v>4000000</v>
       </c>
-      <c r="K168" s="53">
+      <c r="K168" s="44">
         <f t="shared" si="17"/>
         <v>3900000</v>
       </c>
@@ -12200,22 +12181,20 @@
       <c r="D169" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E169" s="7">
-        <v>45108</v>
-      </c>
-      <c r="G169" s="35">
+      <c r="E169" s="7"/>
+      <c r="G169" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H169" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I169" s="57">
+      <c r="I169" s="48">
         <v>44000000</v>
       </c>
-      <c r="J169" s="55">
+      <c r="J169" s="46">
         <v>21300000</v>
       </c>
-      <c r="K169" s="53">
+      <c r="K169" s="44">
         <f t="shared" si="17"/>
         <v>-22700000</v>
       </c>
@@ -12245,22 +12224,20 @@
       <c r="D170" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E170" s="7">
-        <v>45108</v>
-      </c>
-      <c r="G170" s="35">
+      <c r="E170" s="7"/>
+      <c r="G170" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H170" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I170" s="57">
+      <c r="I170" s="48">
         <v>31000000</v>
       </c>
-      <c r="J170" s="55">
-        <v>0</v>
-      </c>
-      <c r="K170" s="53">
+      <c r="J170" s="46">
+        <v>0</v>
+      </c>
+      <c r="K170" s="44">
         <f t="shared" si="17"/>
         <v>-31000000</v>
       </c>
@@ -12291,21 +12268,24 @@
         <v>9</v>
       </c>
       <c r="E171" s="7">
-        <v>45108</v>
-      </c>
-      <c r="G171" s="35">
+        <v>45136</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G171" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H171" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I171" s="57">
+      <c r="I171" s="48">
         <v>47400000</v>
       </c>
-      <c r="J171" s="55">
+      <c r="J171" s="46">
         <v>37930000</v>
       </c>
-      <c r="K171" s="53">
+      <c r="K171" s="44">
         <f t="shared" si="17"/>
         <v>-9470000</v>
       </c>
@@ -12314,7 +12294,7 @@
       </c>
       <c r="M171" s="25" t="str">
         <f t="shared" si="28"/>
-        <v>NÃO ASSISTIDO</v>
+        <v>ASSISTIDO</v>
       </c>
       <c r="N171" s="6">
         <f t="shared" si="23"/>
@@ -12335,22 +12315,20 @@
       <c r="D172" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E172" s="7">
-        <v>45108</v>
-      </c>
-      <c r="G172" s="35">
+      <c r="E172" s="7"/>
+      <c r="G172" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H172" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I172" s="57">
+      <c r="I172" s="48">
         <v>80000000</v>
       </c>
-      <c r="J172" s="55">
+      <c r="J172" s="46">
         <v>90900000</v>
       </c>
-      <c r="K172" s="53">
+      <c r="K172" s="44">
         <f t="shared" si="17"/>
         <v>10900000</v>
       </c>
@@ -12380,22 +12358,20 @@
       <c r="D173" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E173" s="7">
-        <v>45108</v>
-      </c>
-      <c r="G173" s="35">
+      <c r="E173" s="7"/>
+      <c r="G173" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H173" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I173" s="57">
+      <c r="I173" s="48">
         <v>127500000</v>
       </c>
-      <c r="J173" s="55">
+      <c r="J173" s="46">
         <v>349800000</v>
       </c>
-      <c r="K173" s="53">
+      <c r="K173" s="44">
         <f t="shared" si="17"/>
         <v>222300000</v>
       </c>
@@ -12425,22 +12401,20 @@
       <c r="D174" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E174" s="7">
-        <v>45108</v>
-      </c>
-      <c r="G174" s="35">
+      <c r="E174" s="7"/>
+      <c r="G174" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H174" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I174" s="57">
+      <c r="I174" s="48">
         <v>150000000</v>
       </c>
-      <c r="J174" s="55">
+      <c r="J174" s="46">
         <v>314400000</v>
       </c>
-      <c r="K174" s="53">
+      <c r="K174" s="44">
         <f t="shared" si="17"/>
         <v>164400000</v>
       </c>
@@ -12470,22 +12444,20 @@
       <c r="D175" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E175" s="7">
-        <v>45108</v>
-      </c>
-      <c r="G175" s="35">
+      <c r="E175" s="7"/>
+      <c r="G175" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H175" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I175" s="57">
+      <c r="I175" s="48">
         <v>150000000</v>
       </c>
-      <c r="J175" s="55">
+      <c r="J175" s="46">
         <v>310000000</v>
       </c>
-      <c r="K175" s="53">
+      <c r="K175" s="44">
         <f t="shared" si="17"/>
         <v>160000000</v>
       </c>
@@ -12515,22 +12487,20 @@
       <c r="D176" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E176" s="7">
-        <v>45108</v>
-      </c>
-      <c r="G176" s="35">
+      <c r="E176" s="7"/>
+      <c r="G176" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H176" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I176" s="57">
+      <c r="I176" s="48">
         <v>30000000</v>
       </c>
-      <c r="J176" s="55">
+      <c r="J176" s="46">
         <v>50100000</v>
       </c>
-      <c r="K176" s="53">
+      <c r="K176" s="44">
         <f t="shared" si="17"/>
         <v>20100000</v>
       </c>
@@ -12560,22 +12530,20 @@
       <c r="D177" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E177" s="7">
-        <v>45108</v>
-      </c>
-      <c r="G177" s="35">
+      <c r="E177" s="7"/>
+      <c r="G177" s="72">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H177" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I177" s="57">
+      <c r="I177" s="48">
         <v>100000000</v>
       </c>
-      <c r="J177" s="55">
+      <c r="J177" s="46">
         <v>130400000</v>
       </c>
-      <c r="K177" s="53">
+      <c r="K177" s="44">
         <f t="shared" si="17"/>
         <v>30400000</v>
       </c>
@@ -12606,19 +12574,19 @@
         <v>6</v>
       </c>
       <c r="E178" s="7"/>
-      <c r="G178" s="35">
+      <c r="G178" s="72">
         <v>5.7638888888888885E-2</v>
       </c>
       <c r="H178" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I178" s="57">
+      <c r="I178" s="48">
         <v>105000000</v>
       </c>
-      <c r="J178" s="55">
+      <c r="J178" s="46">
         <v>171800000</v>
       </c>
-      <c r="K178" s="53">
+      <c r="K178" s="44">
         <f t="shared" ref="K178:K189" si="30">J178-I178</f>
         <v>66800000</v>
       </c>
@@ -12649,19 +12617,19 @@
         <v>6</v>
       </c>
       <c r="E179" s="7"/>
-      <c r="G179" s="35">
+      <c r="G179" s="72">
         <v>6.25E-2</v>
       </c>
       <c r="H179" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I179" s="57">
+      <c r="I179" s="48">
         <v>75000000</v>
       </c>
-      <c r="J179" s="55">
+      <c r="J179" s="46">
         <v>374600000</v>
       </c>
-      <c r="K179" s="53">
+      <c r="K179" s="44">
         <f t="shared" si="30"/>
         <v>299600000</v>
       </c>
@@ -12697,19 +12665,19 @@
       <c r="F180" s="9">
         <v>9</v>
       </c>
-      <c r="G180" s="35">
+      <c r="G180" s="72">
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="H180" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I180" s="57">
+      <c r="I180" s="48">
         <v>30000000</v>
       </c>
-      <c r="J180" s="55">
+      <c r="J180" s="46">
         <v>192600000</v>
       </c>
-      <c r="K180" s="53">
+      <c r="K180" s="44">
         <f t="shared" si="30"/>
         <v>162600000</v>
       </c>
@@ -12740,19 +12708,19 @@
         <v>6</v>
       </c>
       <c r="E181" s="7"/>
-      <c r="G181" s="35">
+      <c r="G181" s="72">
         <v>6.0416666666666667E-2</v>
       </c>
       <c r="H181" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I181" s="57">
+      <c r="I181" s="48">
         <v>80000000</v>
       </c>
-      <c r="J181" s="55">
+      <c r="J181" s="46">
         <v>336002996</v>
       </c>
-      <c r="K181" s="53">
+      <c r="K181" s="44">
         <f t="shared" si="30"/>
         <v>256002996</v>
       </c>
@@ -12783,19 +12751,19 @@
         <v>6</v>
       </c>
       <c r="E182" s="7"/>
-      <c r="G182" s="35">
+      <c r="G182" s="72">
         <v>5.9722222222222225E-2</v>
       </c>
       <c r="H182" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I182" s="57">
+      <c r="I182" s="48">
         <v>149000000</v>
       </c>
-      <c r="J182" s="55">
+      <c r="J182" s="46">
         <v>178000000</v>
       </c>
-      <c r="K182" s="53">
+      <c r="K182" s="44">
         <f t="shared" si="30"/>
         <v>29000000</v>
       </c>
@@ -12826,19 +12794,19 @@
         <v>6</v>
       </c>
       <c r="E183" s="7"/>
-      <c r="G183" s="35">
+      <c r="G183" s="72">
         <v>6.3194444444444442E-2</v>
       </c>
       <c r="H183" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I183" s="57">
+      <c r="I183" s="48">
         <v>150000000</v>
       </c>
-      <c r="J183" s="55">
+      <c r="J183" s="46">
         <v>293500000</v>
       </c>
-      <c r="K183" s="53">
+      <c r="K183" s="44">
         <f t="shared" si="30"/>
         <v>143500000</v>
       </c>
@@ -12868,20 +12836,25 @@
       <c r="D184" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E184" s="7"/>
-      <c r="G184" s="35">
+      <c r="E184" s="7">
+        <v>45136</v>
+      </c>
+      <c r="F184" s="9">
+        <v>9</v>
+      </c>
+      <c r="G184" s="72">
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="H184" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I184" s="57">
+      <c r="I184" s="48">
         <v>150000000</v>
       </c>
-      <c r="J184" s="55">
+      <c r="J184" s="46">
         <v>603900000</v>
       </c>
-      <c r="K184" s="53">
+      <c r="K184" s="44">
         <f t="shared" si="30"/>
         <v>453900000</v>
       </c>
@@ -12890,7 +12863,7 @@
       </c>
       <c r="M184" s="25" t="str">
         <f t="shared" si="31"/>
-        <v>NÃO ASSISTIDO</v>
+        <v>ASSISTIDO</v>
       </c>
       <c r="N184" s="6">
         <f t="shared" si="23"/>
@@ -12912,19 +12885,19 @@
         <v>6</v>
       </c>
       <c r="E185" s="7"/>
-      <c r="G185" s="35">
+      <c r="G185" s="72">
         <v>7.0833333333333331E-2</v>
       </c>
       <c r="H185" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I185" s="57">
+      <c r="I185" s="48">
         <v>175000000</v>
       </c>
-      <c r="J185" s="55">
+      <c r="J185" s="46">
         <v>381700000</v>
       </c>
-      <c r="K185" s="53">
+      <c r="K185" s="44">
         <f t="shared" si="30"/>
         <v>206700000</v>
       </c>
@@ -12955,19 +12928,19 @@
         <v>6</v>
       </c>
       <c r="E186" s="7"/>
-      <c r="G186" s="35">
+      <c r="G186" s="72">
         <v>6.458333333333334E-2</v>
       </c>
       <c r="H186" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I186" s="57">
+      <c r="I186" s="48">
         <v>135000000</v>
       </c>
-      <c r="J186" s="55">
+      <c r="J186" s="46">
         <v>756200000</v>
       </c>
-      <c r="K186" s="53">
+      <c r="K186" s="44">
         <f t="shared" si="30"/>
         <v>621200000</v>
       </c>
@@ -12998,19 +12971,19 @@
         <v>6</v>
       </c>
       <c r="E187" s="7"/>
-      <c r="G187" s="35">
+      <c r="G187" s="72">
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="H187" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I187" s="57">
+      <c r="I187" s="48">
         <v>130000000</v>
       </c>
-      <c r="J187" s="55">
+      <c r="J187" s="46">
         <v>321900000</v>
       </c>
-      <c r="K187" s="53">
+      <c r="K187" s="44">
         <f t="shared" si="30"/>
         <v>191900000</v>
       </c>
@@ -13041,19 +13014,19 @@
         <v>6</v>
       </c>
       <c r="E188" s="7"/>
-      <c r="G188" s="35">
+      <c r="G188" s="72">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="H188" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I188" s="57">
+      <c r="I188" s="48">
         <v>145000000</v>
       </c>
-      <c r="J188" s="55">
+      <c r="J188" s="46">
         <v>746000000</v>
       </c>
-      <c r="K188" s="53">
+      <c r="K188" s="44">
         <f t="shared" si="30"/>
         <v>601000000</v>
       </c>
@@ -13084,19 +13057,19 @@
         <v>6</v>
       </c>
       <c r="E189" s="7"/>
-      <c r="G189" s="35">
+      <c r="G189" s="72">
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="H189" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I189" s="57">
+      <c r="I189" s="48">
         <v>127000000</v>
       </c>
-      <c r="J189" s="55">
+      <c r="J189" s="46">
         <v>282600000</v>
       </c>
-      <c r="K189" s="53">
+      <c r="K189" s="44">
         <f t="shared" si="30"/>
         <v>155600000</v>
       </c>
@@ -13127,19 +13100,19 @@
         <v>6</v>
       </c>
       <c r="E190" s="7"/>
-      <c r="G190" s="35">
+      <c r="G190" s="72">
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="H190" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I190" s="57">
+      <c r="I190" s="48">
         <v>145000000</v>
       </c>
-      <c r="J190" s="55">
+      <c r="J190" s="46">
         <v>260800000</v>
       </c>
-      <c r="K190" s="53">
+      <c r="K190" s="44">
         <f t="shared" ref="K190:K198" si="32">J190-I190</f>
         <v>115800000</v>
       </c>
@@ -13170,19 +13143,19 @@
         <v>6</v>
       </c>
       <c r="E191" s="7"/>
-      <c r="G191" s="35">
+      <c r="G191" s="72">
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="H191" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I191" s="57">
+      <c r="I191" s="48">
         <v>132000000</v>
       </c>
-      <c r="J191" s="55">
+      <c r="J191" s="46">
         <v>373500000</v>
       </c>
-      <c r="K191" s="53">
+      <c r="K191" s="44">
         <f t="shared" si="32"/>
         <v>241500000</v>
       </c>
@@ -13213,19 +13186,19 @@
         <v>6</v>
       </c>
       <c r="E192" s="7"/>
-      <c r="G192" s="35">
+      <c r="G192" s="72">
         <v>6.5277777777777782E-2</v>
       </c>
       <c r="H192" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I192" s="57">
+      <c r="I192" s="48">
         <v>135000000</v>
       </c>
-      <c r="J192" s="55">
+      <c r="J192" s="46">
         <v>386000000</v>
       </c>
-      <c r="K192" s="53">
+      <c r="K192" s="44">
         <f t="shared" si="32"/>
         <v>251000000</v>
       </c>
@@ -13256,19 +13229,19 @@
         <v>6</v>
       </c>
       <c r="E193" s="7"/>
-      <c r="G193" s="35">
+      <c r="G193" s="72">
         <v>6.458333333333334E-2</v>
       </c>
       <c r="H193" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I193" s="57">
+      <c r="I193" s="48">
         <v>125000000</v>
       </c>
-      <c r="J193" s="55">
+      <c r="J193" s="46">
         <v>347182886</v>
       </c>
-      <c r="K193" s="53">
+      <c r="K193" s="44">
         <f t="shared" si="32"/>
         <v>222182886</v>
       </c>
@@ -13299,19 +13272,19 @@
         <v>6</v>
       </c>
       <c r="E194" s="7"/>
-      <c r="G194" s="35">
+      <c r="G194" s="72">
         <v>6.7361111111111108E-2</v>
       </c>
       <c r="H194" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I194" s="57">
+      <c r="I194" s="48">
         <v>110000000</v>
       </c>
-      <c r="J194" s="55">
+      <c r="J194" s="46">
         <v>528000000</v>
       </c>
-      <c r="K194" s="53">
+      <c r="K194" s="44">
         <f t="shared" si="32"/>
         <v>418000000</v>
       </c>
@@ -13342,19 +13315,19 @@
         <v>6</v>
       </c>
       <c r="E195" s="7"/>
-      <c r="G195" s="35">
+      <c r="G195" s="72">
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="H195" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I195" s="57">
+      <c r="I195" s="48">
         <v>38000000</v>
       </c>
-      <c r="J195" s="55">
+      <c r="J195" s="46">
         <v>125400000</v>
       </c>
-      <c r="K195" s="53">
+      <c r="K195" s="44">
         <f t="shared" si="32"/>
         <v>87400000</v>
       </c>
@@ -13385,19 +13358,19 @@
         <v>6</v>
       </c>
       <c r="E196" s="7"/>
-      <c r="G196" s="35">
+      <c r="G196" s="72">
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="H196" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I196" s="57">
+      <c r="I196" s="48">
         <v>75000000</v>
       </c>
-      <c r="J196" s="55">
+      <c r="J196" s="46">
         <v>188700000</v>
       </c>
-      <c r="K196" s="53">
+      <c r="K196" s="44">
         <f t="shared" si="32"/>
         <v>113700000</v>
       </c>
@@ -13428,19 +13401,19 @@
         <v>6</v>
       </c>
       <c r="E197" s="7"/>
-      <c r="G197" s="35">
+      <c r="G197" s="72">
         <v>6.3194444444444442E-2</v>
       </c>
       <c r="H197" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I197" s="57">
+      <c r="I197" s="48">
         <v>110000000</v>
       </c>
-      <c r="J197" s="55">
+      <c r="J197" s="46">
         <v>48000000</v>
       </c>
-      <c r="K197" s="53">
+      <c r="K197" s="44">
         <f t="shared" si="32"/>
         <v>-62000000</v>
       </c>
@@ -13471,19 +13444,19 @@
         <v>6</v>
       </c>
       <c r="E198" s="7"/>
-      <c r="G198" s="35">
+      <c r="G198" s="72">
         <v>6.805555555555555E-2</v>
       </c>
       <c r="H198" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I198" s="57">
+      <c r="I198" s="48">
         <v>135000000</v>
       </c>
-      <c r="J198" s="55">
+      <c r="J198" s="46">
         <v>587200000</v>
       </c>
-      <c r="K198" s="53">
+      <c r="K198" s="44">
         <f t="shared" si="32"/>
         <v>452200000</v>
       </c>
@@ -13514,19 +13487,19 @@
         <v>6</v>
       </c>
       <c r="E199" s="7"/>
-      <c r="G199" s="35">
+      <c r="G199" s="72">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="H199" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I199" s="57">
+      <c r="I199" s="48">
         <v>65000000</v>
       </c>
-      <c r="J199" s="55">
+      <c r="J199" s="46">
         <v>216000000</v>
       </c>
-      <c r="K199" s="53">
+      <c r="K199" s="44">
         <f>J199-I199</f>
         <v>151000000</v>
       </c>
@@ -13557,19 +13530,19 @@
         <v>6</v>
       </c>
       <c r="E200" s="7"/>
-      <c r="G200" s="35">
+      <c r="G200" s="72">
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="H200" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I200" s="57">
+      <c r="I200" s="48">
         <v>30000000</v>
       </c>
-      <c r="J200" s="55">
+      <c r="J200" s="46">
         <v>42000000</v>
       </c>
-      <c r="K200" s="53">
+      <c r="K200" s="44">
         <f>J200-I200</f>
         <v>12000000</v>
       </c>
@@ -13600,19 +13573,19 @@
         <v>6</v>
       </c>
       <c r="E201" s="7"/>
-      <c r="G201" s="35">
+      <c r="G201" s="72">
         <v>7.4305555555555555E-2</v>
       </c>
       <c r="H201" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I201" s="57">
+      <c r="I201" s="48">
         <v>82000000</v>
       </c>
-      <c r="J201" s="55">
+      <c r="J201" s="46">
         <v>146800000</v>
       </c>
-      <c r="K201" s="53">
+      <c r="K201" s="44">
         <f>J201-I201</f>
         <v>64800000</v>
       </c>

--- a/Filmes.xlsx
+++ b/Filmes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Documents\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D301E20-0E9A-4F41-8E59-6C642ED6CE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C2C1FC-6F10-48F3-BF7A-D14EE1D04B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AC88744C-D9DF-4ECD-8B9A-C97C8CD0E4BD}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="256">
   <si>
     <t>Nome do Filme</t>
   </si>
@@ -835,11 +835,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0000"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
-    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="170" formatCode="[h]:mm:ss;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1352,25 +1353,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1391,8 +1392,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1406,6 +1407,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1425,33 +1448,11 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="170" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2028,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A731FE-9613-428C-993D-C03F78E1A52D}">
   <dimension ref="A1:AF201"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T61" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="Y47" sqref="Y47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J17" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2040,7 +2041,7 @@
     <col min="4" max="4" width="12.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="72" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="65" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5703125" style="48" customWidth="1"/>
     <col min="10" max="10" width="22.5703125" style="46" customWidth="1"/>
@@ -2060,12 +2061,12 @@
     <col min="24" max="24" width="8.5703125" style="59" customWidth="1"/>
     <col min="25" max="25" width="47.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14.85546875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="11.5703125" style="72" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5703125" style="65" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9.140625" style="11"/>
     <col min="29" max="29" width="9.140625" style="9"/>
     <col min="30" max="30" width="40.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.42578125" style="70" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.42578125" style="64" bestFit="1" customWidth="1"/>
     <col min="33" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
@@ -2088,7 +2089,7 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="70" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -2134,7 +2135,7 @@
       <c r="F2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="72">
+      <c r="G2" s="65">
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -2183,7 +2184,7 @@
       <c r="F3" s="9">
         <v>8</v>
       </c>
-      <c r="G3" s="72">
+      <c r="G3" s="65">
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -2232,7 +2233,7 @@
       <c r="F4" s="9">
         <v>7</v>
       </c>
-      <c r="G4" s="72">
+      <c r="G4" s="65">
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -2266,7 +2267,7 @@
       <c r="S4" s="36"/>
       <c r="T4" s="36"/>
       <c r="U4" s="36"/>
-      <c r="V4" s="76"/>
+      <c r="V4" s="68"/>
     </row>
     <row r="5" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
@@ -2288,7 +2289,7 @@
       <c r="F5" s="9">
         <v>8</v>
       </c>
-      <c r="G5" s="72">
+      <c r="G5" s="65">
         <v>5.486111111111111E-2</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -2357,7 +2358,7 @@
       <c r="AE5" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="AF5" s="69" t="s">
+      <c r="AF5" s="63" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2381,7 +2382,7 @@
       <c r="F6" s="9">
         <v>9</v>
       </c>
-      <c r="G6" s="72">
+      <c r="G6" s="65">
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="H6" s="6" t="s">
@@ -2427,7 +2428,7 @@
       <c r="U6" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V6" s="73">
+      <c r="V6" s="66">
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="W6" s="41"/>
@@ -2441,7 +2442,7 @@
       <c r="Z6" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA6" s="73">
+      <c r="AA6" s="66">
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="AB6" s="14"/>
@@ -2455,7 +2456,7 @@
       <c r="AE6" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF6" s="70">
+      <c r="AF6" s="64">
         <v>6.805555555555555E-2</v>
       </c>
     </row>
@@ -2479,7 +2480,7 @@
       <c r="F7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="65">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -2525,7 +2526,7 @@
       <c r="U7" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V7" s="73">
+      <c r="V7" s="66">
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="W7" s="41"/>
@@ -2538,7 +2539,7 @@
       <c r="Z7" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA7" s="73">
+      <c r="AA7" s="66">
         <v>5.486111111111111E-2</v>
       </c>
       <c r="AB7" s="14"/>
@@ -2551,7 +2552,7 @@
       <c r="AE7" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF7" s="70">
+      <c r="AF7" s="64">
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
@@ -2575,7 +2576,7 @@
       <c r="F8" s="9">
         <v>9</v>
       </c>
-      <c r="G8" s="72">
+      <c r="G8" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -2621,7 +2622,7 @@
       <c r="U8" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V8" s="73">
+      <c r="V8" s="66">
         <v>8.7500000000000008E-2</v>
       </c>
       <c r="W8" s="41"/>
@@ -2634,7 +2635,7 @@
       <c r="Z8" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA8" s="73">
+      <c r="AA8" s="66">
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="AB8" s="14"/>
@@ -2647,7 +2648,7 @@
       <c r="AE8" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF8" s="70">
+      <c r="AF8" s="64">
         <v>7.2222222222222229E-2</v>
       </c>
     </row>
@@ -2671,7 +2672,7 @@
       <c r="F9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="72">
+      <c r="G9" s="65">
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -2717,7 +2718,7 @@
       <c r="U9" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V9" s="73">
+      <c r="V9" s="66">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="W9" s="41"/>
@@ -2730,7 +2731,7 @@
       <c r="Z9" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA9" s="73">
+      <c r="AA9" s="66">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AB9" s="14"/>
@@ -2743,7 +2744,7 @@
       <c r="AE9" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF9" s="70">
+      <c r="AF9" s="64">
         <v>6.1805555555555558E-2</v>
       </c>
     </row>
@@ -2767,7 +2768,7 @@
       <c r="F10" s="9">
         <v>8</v>
       </c>
-      <c r="G10" s="72">
+      <c r="G10" s="65">
         <v>5.7638888888888885E-2</v>
       </c>
       <c r="H10" s="6" t="s">
@@ -2813,7 +2814,7 @@
       <c r="U10" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V10" s="73">
+      <c r="V10" s="66">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="W10" s="41"/>
@@ -2826,7 +2827,7 @@
       <c r="Z10" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA10" s="73">
+      <c r="AA10" s="66">
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="AB10" s="14"/>
@@ -2839,7 +2840,7 @@
       <c r="AE10" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF10" s="70">
+      <c r="AF10" s="64">
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
@@ -2863,7 +2864,7 @@
       <c r="F11" s="9">
         <v>8</v>
       </c>
-      <c r="G11" s="72">
+      <c r="G11" s="65">
         <v>7.2222222222222229E-2</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -2897,7 +2898,7 @@
       </c>
       <c r="Q11" s="31">
         <f>VLOOKUP($Q$6,$A$2:$F$141,6,1)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R11" s="35"/>
       <c r="S11" s="40">
@@ -2909,7 +2910,7 @@
       <c r="U11" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V11" s="73">
+      <c r="V11" s="66">
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="W11" s="41"/>
@@ -2922,7 +2923,7 @@
       <c r="Z11" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA11" s="73">
+      <c r="AA11" s="66">
         <v>5.7638888888888885E-2</v>
       </c>
       <c r="AB11" s="14"/>
@@ -2935,7 +2936,7 @@
       <c r="AE11" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF11" s="70">
+      <c r="AF11" s="64">
         <v>6.458333333333334E-2</v>
       </c>
     </row>
@@ -2959,7 +2960,7 @@
       <c r="F12" s="9">
         <v>10</v>
       </c>
-      <c r="G12" s="72">
+      <c r="G12" s="65">
         <v>7.5694444444444439E-2</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -2993,7 +2994,7 @@
       </c>
       <c r="Q12" s="33" t="str">
         <f>VLOOKUP($Q$6,$A$2:$M$141,13,1)</f>
-        <v>NÃO ASSISTIDO</v>
+        <v>ASSISTIDO</v>
       </c>
       <c r="R12" s="35"/>
       <c r="S12" s="40">
@@ -3005,7 +3006,7 @@
       <c r="U12" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V12" s="73">
+      <c r="V12" s="66">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="W12" s="41"/>
@@ -3018,7 +3019,7 @@
       <c r="Z12" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA12" s="73">
+      <c r="AA12" s="66">
         <v>7.2222222222222229E-2</v>
       </c>
       <c r="AB12" s="14"/>
@@ -3031,7 +3032,7 @@
       <c r="AE12" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF12" s="70">
+      <c r="AF12" s="64">
         <v>5.8333333333333327E-2</v>
       </c>
     </row>
@@ -3055,7 +3056,7 @@
       <c r="F13" s="9">
         <v>9</v>
       </c>
-      <c r="G13" s="72">
+      <c r="G13" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H13" s="6" t="s">
@@ -3096,7 +3097,7 @@
       <c r="U13" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V13" s="73">
+      <c r="V13" s="66">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="W13" s="41"/>
@@ -3109,7 +3110,7 @@
       <c r="Z13" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA13" s="73">
+      <c r="AA13" s="66">
         <v>7.5694444444444439E-2</v>
       </c>
       <c r="AB13" s="14"/>
@@ -3122,7 +3123,7 @@
       <c r="AE13" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF13" s="70">
+      <c r="AF13" s="64">
         <v>6.1805555555555558E-2</v>
       </c>
     </row>
@@ -3146,7 +3147,7 @@
       <c r="F14" s="9">
         <v>9</v>
       </c>
-      <c r="G14" s="72">
+      <c r="G14" s="65">
         <v>7.4305555555555555E-2</v>
       </c>
       <c r="H14" s="6" t="s">
@@ -3189,7 +3190,7 @@
       <c r="U14" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V14" s="73">
+      <c r="V14" s="66">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="W14" s="41"/>
@@ -3202,7 +3203,7 @@
       <c r="Z14" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA14" s="73">
+      <c r="AA14" s="66">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="AB14" s="14"/>
@@ -3215,7 +3216,7 @@
       <c r="AE14" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF14" s="70">
+      <c r="AF14" s="64">
         <v>6.3888888888888884E-2</v>
       </c>
     </row>
@@ -3239,7 +3240,7 @@
       <c r="F15" s="9">
         <v>9</v>
       </c>
-      <c r="G15" s="72">
+      <c r="G15" s="65">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H15" s="6" t="s">
@@ -3272,7 +3273,7 @@
         <v>173</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="R15" s="35"/>
       <c r="S15" s="40">
@@ -3284,7 +3285,7 @@
       <c r="U15" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V15" s="73">
+      <c r="V15" s="66">
         <v>7.1527777777777787E-2</v>
       </c>
       <c r="W15" s="41"/>
@@ -3297,7 +3298,7 @@
       <c r="Z15" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA15" s="73">
+      <c r="AA15" s="66">
         <v>7.4305555555555555E-2</v>
       </c>
       <c r="AB15" s="14"/>
@@ -3310,7 +3311,7 @@
       <c r="AE15" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF15" s="70">
+      <c r="AF15" s="64">
         <v>6.3888888888888884E-2</v>
       </c>
     </row>
@@ -3334,7 +3335,7 @@
       <c r="F16" s="9">
         <v>9</v>
       </c>
-      <c r="G16" s="72">
+      <c r="G16" s="65">
         <v>7.9861111111111105E-2</v>
       </c>
       <c r="H16" s="6" t="s">
@@ -3368,7 +3369,7 @@
       </c>
       <c r="Q16" s="31">
         <f>VLOOKUP($Q$15,$B:$N,2,0)</f>
-        <v>1941</v>
+        <v>1950</v>
       </c>
       <c r="R16" s="35"/>
       <c r="S16" s="40">
@@ -3380,7 +3381,7 @@
       <c r="U16" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V16" s="73">
+      <c r="V16" s="66">
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="W16" s="41"/>
@@ -3393,7 +3394,7 @@
       <c r="Z16" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA16" s="73">
+      <c r="AA16" s="66">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AB16" s="14"/>
@@ -3406,7 +3407,7 @@
       <c r="AE16" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF16" s="70">
+      <c r="AF16" s="64">
         <v>6.5972222222222224E-2</v>
       </c>
     </row>
@@ -3430,7 +3431,7 @@
       <c r="F17" s="9">
         <v>9</v>
       </c>
-      <c r="G17" s="72">
+      <c r="G17" s="65">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H17" s="6" t="s">
@@ -3476,7 +3477,7 @@
       <c r="U17" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V17" s="73">
+      <c r="V17" s="66">
         <v>7.2222222222222229E-2</v>
       </c>
       <c r="W17" s="41"/>
@@ -3489,7 +3490,7 @@
       <c r="Z17" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA17" s="73">
+      <c r="AA17" s="66">
         <v>7.9861111111111105E-2</v>
       </c>
       <c r="AB17" s="14"/>
@@ -3502,7 +3503,7 @@
       <c r="AE17" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF17" s="70">
+      <c r="AF17" s="64">
         <v>6.7361111111111108E-2</v>
       </c>
     </row>
@@ -3526,7 +3527,7 @@
       <c r="F18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="72">
+      <c r="G18" s="65">
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="H18" s="6" t="s">
@@ -3560,7 +3561,7 @@
       </c>
       <c r="Q18" s="50">
         <f>VLOOKUP($Q$15,$B:$N,6,0)</f>
-        <v>4.4444444444444446E-2</v>
+        <v>5.1388888888888894E-2</v>
       </c>
       <c r="R18" s="35"/>
       <c r="S18" s="40">
@@ -3572,7 +3573,7 @@
       <c r="U18" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V18" s="73">
+      <c r="V18" s="66">
         <v>6.805555555555555E-2</v>
       </c>
       <c r="W18" s="41"/>
@@ -3585,7 +3586,7 @@
       <c r="Z18" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA18" s="73">
+      <c r="AA18" s="66">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AB18" s="14"/>
@@ -3598,7 +3599,7 @@
       <c r="AE18" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF18" s="70">
+      <c r="AF18" s="64">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -3622,7 +3623,7 @@
       <c r="F19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="72">
+      <c r="G19" s="65">
         <v>8.7500000000000008E-2</v>
       </c>
       <c r="H19" s="6" t="s">
@@ -3668,7 +3669,7 @@
       <c r="U19" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V19" s="73">
+      <c r="V19" s="66">
         <v>7.7083333333333337E-2</v>
       </c>
       <c r="W19" s="41"/>
@@ -3681,7 +3682,7 @@
       <c r="Z19" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA19" s="73">
+      <c r="AA19" s="66">
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="AB19" s="14"/>
@@ -3694,7 +3695,7 @@
       <c r="AE19" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF19" s="70">
+      <c r="AF19" s="64">
         <v>5.9722222222222225E-2</v>
       </c>
     </row>
@@ -3718,7 +3719,7 @@
       <c r="F20" s="9">
         <v>10</v>
       </c>
-      <c r="G20" s="72">
+      <c r="G20" s="65">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="H20" s="6" t="s">
@@ -3764,7 +3765,7 @@
       <c r="U20" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V20" s="73">
+      <c r="V20" s="66">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="W20" s="41"/>
@@ -3777,7 +3778,7 @@
       <c r="Z20" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA20" s="73">
+      <c r="AA20" s="66">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="AB20" s="14"/>
@@ -3790,7 +3791,7 @@
       <c r="AE20" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF20" s="70">
+      <c r="AF20" s="64">
         <v>7.0833333333333331E-2</v>
       </c>
     </row>
@@ -3814,7 +3815,7 @@
       <c r="F21" s="9">
         <v>9</v>
       </c>
-      <c r="G21" s="72">
+      <c r="G21" s="65">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="H21" s="6" t="s">
@@ -3847,7 +3848,7 @@
       </c>
       <c r="Q21" s="31">
         <f>VLOOKUP($Q$15,$B:$N,13,0)</f>
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="R21" s="26"/>
       <c r="S21" s="40">
@@ -3859,7 +3860,7 @@
       <c r="U21" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V21" s="73">
+      <c r="V21" s="66">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="W21" s="41"/>
@@ -3872,7 +3873,7 @@
       <c r="Z21" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA21" s="73">
+      <c r="AA21" s="66">
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="AB21" s="14"/>
@@ -3885,7 +3886,7 @@
       <c r="AE21" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF21" s="70">
+      <c r="AF21" s="64">
         <v>5.9722222222222225E-2</v>
       </c>
     </row>
@@ -3909,7 +3910,7 @@
       <c r="F22" s="9">
         <v>9</v>
       </c>
-      <c r="G22" s="72">
+      <c r="G22" s="65">
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="H22" s="6" t="s">
@@ -3947,7 +3948,7 @@
       <c r="U22" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V22" s="73">
+      <c r="V22" s="66">
         <v>6.458333333333334E-2</v>
       </c>
       <c r="W22" s="41"/>
@@ -3960,7 +3961,7 @@
       <c r="Z22" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA22" s="73">
+      <c r="AA22" s="66">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="AB22" s="14"/>
@@ -3973,7 +3974,7 @@
       <c r="AE22" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF22" s="70">
+      <c r="AF22" s="64">
         <v>6.8749999999999992E-2</v>
       </c>
     </row>
@@ -3997,7 +3998,7 @@
       <c r="F23" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="72">
+      <c r="G23" s="65">
         <v>6.805555555555555E-2</v>
       </c>
       <c r="H23" s="6" t="s">
@@ -4039,7 +4040,7 @@
       <c r="U23" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V23" s="73">
+      <c r="V23" s="66">
         <v>8.1250000000000003E-2</v>
       </c>
       <c r="W23" s="41"/>
@@ -4052,7 +4053,7 @@
       <c r="Z23" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA23" s="73">
+      <c r="AA23" s="66">
         <v>7.0833333333333331E-2</v>
       </c>
       <c r="AB23" s="14"/>
@@ -4065,7 +4066,7 @@
       <c r="AE23" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF23" s="70">
+      <c r="AF23" s="64">
         <v>5.7638888888888885E-2</v>
       </c>
     </row>
@@ -4089,7 +4090,7 @@
       <c r="F24" s="9">
         <v>9</v>
       </c>
-      <c r="G24" s="72">
+      <c r="G24" s="65">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="H24" s="6" t="s">
@@ -4121,7 +4122,7 @@
         <v>5</v>
       </c>
       <c r="Q24" s="19" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="R24" s="26"/>
       <c r="S24" s="40">
@@ -4133,7 +4134,7 @@
       <c r="U24" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V24" s="73">
+      <c r="V24" s="66">
         <v>7.3611111111111113E-2</v>
       </c>
       <c r="W24" s="41"/>
@@ -4146,7 +4147,7 @@
       <c r="Z24" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA24" s="73">
+      <c r="AA24" s="66">
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="AB24" s="14"/>
@@ -4159,7 +4160,7 @@
       <c r="AE24" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF24" s="70">
+      <c r="AF24" s="64">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -4183,7 +4184,7 @@
       <c r="F25" s="9">
         <v>8</v>
       </c>
-      <c r="G25" s="72">
+      <c r="G25" s="65">
         <v>7.2222222222222229E-2</v>
       </c>
       <c r="H25" s="6" t="s">
@@ -4216,7 +4217,7 @@
       </c>
       <c r="Q25" s="20">
         <f>COUNTIF(H:H,$Q$24)</f>
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="R25" s="26"/>
       <c r="S25" s="40">
@@ -4228,7 +4229,7 @@
       <c r="U25" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V25" s="73">
+      <c r="V25" s="66">
         <v>7.5694444444444439E-2</v>
       </c>
       <c r="W25" s="41"/>
@@ -4241,7 +4242,7 @@
       <c r="Z25" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA25" s="73">
+      <c r="AA25" s="66">
         <v>6.0416666666666667E-2</v>
       </c>
       <c r="AB25" s="14"/>
@@ -4254,7 +4255,7 @@
       <c r="AE25" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF25" s="70">
+      <c r="AF25" s="64">
         <v>5.9027777777777783E-2</v>
       </c>
     </row>
@@ -4278,7 +4279,7 @@
       <c r="F26" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="72">
+      <c r="G26" s="65">
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="H26" s="6" t="s">
@@ -4311,7 +4312,7 @@
       </c>
       <c r="Q26" s="22">
         <f>SUMIF(H:H,$Q$24,L:L)</f>
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="R26" s="26"/>
       <c r="S26" s="40">
@@ -4323,7 +4324,7 @@
       <c r="U26" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="V26" s="73">
+      <c r="V26" s="66">
         <v>6.458333333333334E-2</v>
       </c>
       <c r="W26" s="41"/>
@@ -4336,7 +4337,7 @@
       <c r="Z26" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA26" s="73">
+      <c r="AA26" s="66">
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="AB26" s="14"/>
@@ -4349,7 +4350,7 @@
       <c r="AE26" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF26" s="70">
+      <c r="AF26" s="64">
         <v>6.0416666666666667E-2</v>
       </c>
     </row>
@@ -4373,7 +4374,7 @@
       <c r="F27" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="72">
+      <c r="G27" s="65">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="H27" s="6" t="s">
@@ -4406,7 +4407,7 @@
       </c>
       <c r="Q27" s="21">
         <f>$Q$25-$Q$26</f>
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="R27" s="26"/>
       <c r="S27" s="40">
@@ -4418,7 +4419,7 @@
       <c r="U27" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V27" s="73">
+      <c r="V27" s="66">
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="W27" s="41"/>
@@ -4431,7 +4432,7 @@
       <c r="Z27" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA27" s="73">
+      <c r="AA27" s="66">
         <v>6.25E-2</v>
       </c>
       <c r="AB27" s="14"/>
@@ -4444,7 +4445,7 @@
       <c r="AE27" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF27" s="70">
+      <c r="AF27" s="64">
         <v>5.9722222222222225E-2</v>
       </c>
     </row>
@@ -4468,7 +4469,7 @@
       <c r="F28" s="9">
         <v>8</v>
       </c>
-      <c r="G28" s="72">
+      <c r="G28" s="65">
         <v>6.458333333333334E-2</v>
       </c>
       <c r="H28" s="6" t="s">
@@ -4506,7 +4507,7 @@
       <c r="U28" s="11" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="V28" s="73">
+      <c r="V28" s="66">
         <v>7.0833333333333331E-2</v>
       </c>
       <c r="W28" s="41"/>
@@ -4519,7 +4520,7 @@
       <c r="Z28" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA28" s="73">
+      <c r="AA28" s="66">
         <v>6.458333333333334E-2</v>
       </c>
       <c r="AB28" s="14"/>
@@ -4532,7 +4533,7 @@
       <c r="AE28" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF28" s="70">
+      <c r="AF28" s="64">
         <v>6.3194444444444442E-2</v>
       </c>
     </row>
@@ -4556,7 +4557,7 @@
       <c r="F29" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="72">
+      <c r="G29" s="65">
         <v>5.8333333333333327E-2</v>
       </c>
       <c r="H29" s="6" t="s">
@@ -4598,7 +4599,7 @@
       <c r="U29" s="11" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="V29" s="73">
+      <c r="V29" s="66">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="W29" s="41"/>
@@ -4611,7 +4612,7 @@
       <c r="Z29" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA29" s="73">
+      <c r="AA29" s="66">
         <v>5.8333333333333327E-2</v>
       </c>
       <c r="AB29" s="14"/>
@@ -4624,7 +4625,7 @@
       <c r="AE29" s="9" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AF29" s="70">
+      <c r="AF29" s="64">
         <v>6.1805555555555558E-2</v>
       </c>
     </row>
@@ -4648,7 +4649,7 @@
       <c r="F30" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G30" s="72">
+      <c r="G30" s="65">
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="H30" s="6" t="s">
@@ -4681,7 +4682,7 @@
       </c>
       <c r="Q30" s="19">
         <f>COUNTIF(M:M,"ASSISTIDO")</f>
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="R30" s="26"/>
       <c r="S30" s="40">
@@ -4693,7 +4694,7 @@
       <c r="U30" s="11" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="V30" s="73">
+      <c r="V30" s="66">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="W30" s="41"/>
@@ -4706,7 +4707,7 @@
       <c r="Z30" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA30" s="73">
+      <c r="AA30" s="66">
         <v>6.3194444444444442E-2</v>
       </c>
       <c r="AB30" s="14"/>
@@ -4719,7 +4720,7 @@
       <c r="AE30" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF30" s="70">
+      <c r="AF30" s="64">
         <v>7.0833333333333331E-2</v>
       </c>
     </row>
@@ -4743,7 +4744,7 @@
       <c r="F31" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="72">
+      <c r="G31" s="65">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="H31" s="6" t="s">
@@ -4776,15 +4777,15 @@
       </c>
       <c r="Q31" s="19">
         <f>COUNTIF(M:M,"NÃO ASSISTIDO")</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R31" s="26"/>
-      <c r="S31" s="63" t="s">
+      <c r="S31" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="T31" s="64"/>
-      <c r="U31" s="65"/>
-      <c r="V31" s="75">
+      <c r="T31" s="72"/>
+      <c r="U31" s="73"/>
+      <c r="V31" s="77">
         <f ca="1">SUMIF($U$6:$V$30,"ASSISTIDO",$V$6:$V$30)</f>
         <v>1.5416666666666667</v>
       </c>
@@ -4798,7 +4799,7 @@
       <c r="Z31" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA31" s="73">
+      <c r="AA31" s="66">
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="AB31" s="14"/>
@@ -4811,7 +4812,7 @@
       <c r="AE31" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF31" s="70">
+      <c r="AF31" s="64">
         <v>6.458333333333334E-2</v>
       </c>
     </row>
@@ -4835,7 +4836,7 @@
       <c r="F32" s="9">
         <v>9</v>
       </c>
-      <c r="G32" s="72">
+      <c r="G32" s="65">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="H32" s="6" t="s">
@@ -4873,7 +4874,7 @@
       <c r="S32" s="37"/>
       <c r="T32" s="37"/>
       <c r="U32" s="37"/>
-      <c r="V32" s="77"/>
+      <c r="V32" s="69"/>
       <c r="W32" s="42"/>
       <c r="X32" s="62">
         <v>48</v>
@@ -4884,7 +4885,7 @@
       <c r="Z32" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA32" s="73">
+      <c r="AA32" s="66">
         <v>5.7638888888888885E-2</v>
       </c>
       <c r="AB32" s="14"/>
@@ -4897,7 +4898,7 @@
       <c r="AE32" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF32" s="70">
+      <c r="AF32" s="64">
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
@@ -4921,7 +4922,7 @@
       <c r="F33" s="9">
         <v>8</v>
       </c>
-      <c r="G33" s="72">
+      <c r="G33" s="65">
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="H33" s="6" t="s">
@@ -4959,7 +4960,7 @@
       <c r="Z33" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA33" s="73">
+      <c r="AA33" s="66">
         <v>6.7361111111111108E-2</v>
       </c>
       <c r="AB33" s="14"/>
@@ -4970,9 +4971,9 @@
         <v>Madagascar 3: Os Procurados</v>
       </c>
       <c r="AE33" s="9" t="str">
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="AF33" s="70">
+        <v>ASSISTIDO</v>
+      </c>
+      <c r="AF33" s="64">
         <v>6.5972222222222224E-2</v>
       </c>
     </row>
@@ -4996,7 +4997,7 @@
       <c r="F34" s="9">
         <v>9</v>
       </c>
-      <c r="G34" s="72">
+      <c r="G34" s="65">
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="H34" s="6" t="s">
@@ -5034,7 +5035,7 @@
       <c r="Z34" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA34" s="73">
+      <c r="AA34" s="66">
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="AB34" s="14"/>
@@ -5047,7 +5048,7 @@
       <c r="AE34" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF34" s="70">
+      <c r="AF34" s="64">
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
@@ -5071,7 +5072,7 @@
       <c r="F35" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G35" s="72">
+      <c r="G35" s="65">
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="H35" s="6" t="s">
@@ -5109,7 +5110,7 @@
       <c r="Z35" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA35" s="73">
+      <c r="AA35" s="66">
         <v>9.930555555555555E-2</v>
       </c>
       <c r="AB35" s="14"/>
@@ -5122,7 +5123,7 @@
       <c r="AE35" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF35" s="70">
+      <c r="AF35" s="64">
         <v>6.3888888888888884E-2</v>
       </c>
     </row>
@@ -5146,7 +5147,7 @@
       <c r="F36" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G36" s="72">
+      <c r="G36" s="65">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="H36" s="6" t="s">
@@ -5184,7 +5185,7 @@
       <c r="Z36" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA36" s="73">
+      <c r="AA36" s="66">
         <v>0.10486111111111111</v>
       </c>
       <c r="AB36" s="14"/>
@@ -5197,7 +5198,7 @@
       <c r="AE36" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF36" s="70">
+      <c r="AF36" s="64">
         <v>6.3888888888888884E-2</v>
       </c>
     </row>
@@ -5221,7 +5222,7 @@
       <c r="F37" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G37" s="72">
+      <c r="G37" s="65">
         <v>6.7361111111111108E-2</v>
       </c>
       <c r="H37" s="6" t="s">
@@ -5259,7 +5260,7 @@
       <c r="Z37" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA37" s="73">
+      <c r="AA37" s="66">
         <v>0.11666666666666665</v>
       </c>
       <c r="AB37" s="14"/>
@@ -5272,7 +5273,7 @@
       <c r="AE37" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF37" s="70">
+      <c r="AF37" s="64">
         <v>6.5277777777777782E-2</v>
       </c>
     </row>
@@ -5296,7 +5297,7 @@
       <c r="F38" s="9">
         <v>8</v>
       </c>
-      <c r="G38" s="72">
+      <c r="G38" s="65">
         <v>6.25E-2</v>
       </c>
       <c r="H38" s="6" t="s">
@@ -5334,7 +5335,7 @@
       <c r="Z38" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA38" s="73">
+      <c r="AA38" s="66">
         <v>9.7916666666666666E-2</v>
       </c>
       <c r="AB38" s="14"/>
@@ -5347,7 +5348,7 @@
       <c r="AE38" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF38" s="70">
+      <c r="AF38" s="64">
         <v>6.458333333333334E-2</v>
       </c>
     </row>
@@ -5371,7 +5372,7 @@
       <c r="F39" s="9">
         <v>8</v>
       </c>
-      <c r="G39" s="72">
+      <c r="G39" s="65">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="H39" s="6" t="s">
@@ -5409,7 +5410,7 @@
       <c r="Z39" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA39" s="73">
+      <c r="AA39" s="66">
         <v>8.9583333333333334E-2</v>
       </c>
       <c r="AB39" s="14"/>
@@ -5422,7 +5423,7 @@
       <c r="AE39" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF39" s="70">
+      <c r="AF39" s="64">
         <v>6.7361111111111108E-2</v>
       </c>
     </row>
@@ -5446,7 +5447,7 @@
       <c r="F40" s="9">
         <v>9</v>
       </c>
-      <c r="G40" s="72">
+      <c r="G40" s="65">
         <v>7.0833333333333331E-2</v>
       </c>
       <c r="H40" s="6" t="s">
@@ -5484,7 +5485,7 @@
       <c r="Z40" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA40" s="73">
+      <c r="AA40" s="66">
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="AB40" s="14"/>
@@ -5497,7 +5498,7 @@
       <c r="AE40" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF40" s="70">
+      <c r="AF40" s="64">
         <v>6.1805555555555558E-2</v>
       </c>
     </row>
@@ -5521,7 +5522,7 @@
       <c r="F41" s="9">
         <v>9</v>
       </c>
-      <c r="G41" s="72">
+      <c r="G41" s="65">
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="H41" s="6" t="s">
@@ -5559,7 +5560,7 @@
       <c r="Z41" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA41" s="73">
+      <c r="AA41" s="66">
         <v>5.1388888888888894E-2</v>
       </c>
       <c r="AB41" s="14"/>
@@ -5572,7 +5573,7 @@
       <c r="AE41" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF41" s="70">
+      <c r="AF41" s="64">
         <v>6.3888888888888884E-2</v>
       </c>
     </row>
@@ -5596,7 +5597,7 @@
       <c r="F42" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G42" s="72">
+      <c r="G42" s="65">
         <v>6.0416666666666667E-2</v>
       </c>
       <c r="H42" s="6" t="s">
@@ -5634,7 +5635,7 @@
       <c r="Z42" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA42" s="73">
+      <c r="AA42" s="66">
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="AB42" s="14"/>
@@ -5647,7 +5648,7 @@
       <c r="AE42" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF42" s="70">
+      <c r="AF42" s="64">
         <v>6.3194444444444442E-2</v>
       </c>
     </row>
@@ -5671,7 +5672,7 @@
       <c r="F43" s="9">
         <v>9</v>
       </c>
-      <c r="G43" s="72">
+      <c r="G43" s="65">
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="H43" s="6" t="s">
@@ -5707,9 +5708,9 @@
         <v>Cinderela</v>
       </c>
       <c r="Z43" s="6" t="str">
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="AA43" s="73">
+        <v>ASSISTIDO</v>
+      </c>
+      <c r="AA43" s="66">
         <v>5.1388888888888894E-2</v>
       </c>
       <c r="AB43" s="14"/>
@@ -5722,7 +5723,7 @@
       <c r="AE43" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF43" s="70">
+      <c r="AF43" s="64">
         <v>6.805555555555555E-2</v>
       </c>
     </row>
@@ -5746,7 +5747,7 @@
       <c r="F44" s="9">
         <v>8</v>
       </c>
-      <c r="G44" s="72">
+      <c r="G44" s="65">
         <v>6.25E-2</v>
       </c>
       <c r="H44" s="6" t="s">
@@ -5784,7 +5785,7 @@
       <c r="Z44" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA44" s="73">
+      <c r="AA44" s="66">
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="AB44" s="14"/>
@@ -5797,7 +5798,7 @@
       <c r="AE44" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF44" s="70">
+      <c r="AF44" s="64">
         <v>6.5972222222222224E-2</v>
       </c>
     </row>
@@ -5821,7 +5822,7 @@
       <c r="F45" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G45" s="72">
+      <c r="G45" s="65">
         <v>6.458333333333334E-2</v>
       </c>
       <c r="H45" s="6" t="s">
@@ -5859,7 +5860,7 @@
       <c r="Z45" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA45" s="73">
+      <c r="AA45" s="66">
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="AB45" s="14"/>
@@ -5872,7 +5873,7 @@
       <c r="AE45" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF45" s="70">
+      <c r="AF45" s="64">
         <v>6.1111111111111116E-2</v>
       </c>
     </row>
@@ -5896,7 +5897,7 @@
       <c r="F46" s="9">
         <v>8</v>
       </c>
-      <c r="G46" s="72">
+      <c r="G46" s="65">
         <v>5.8333333333333327E-2</v>
       </c>
       <c r="H46" s="10" t="s">
@@ -5934,7 +5935,7 @@
       <c r="Z46" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA46" s="73">
+      <c r="AA46" s="66">
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="AB46" s="14"/>
@@ -5947,7 +5948,7 @@
       <c r="AE46" s="9" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AF46" s="70">
+      <c r="AF46" s="64">
         <v>7.4305555555555555E-2</v>
       </c>
     </row>
@@ -5971,7 +5972,7 @@
       <c r="F47" s="9">
         <v>9</v>
       </c>
-      <c r="G47" s="72">
+      <c r="G47" s="65">
         <v>6.3194444444444442E-2</v>
       </c>
       <c r="H47" s="6" t="s">
@@ -6009,18 +6010,18 @@
       <c r="Z47" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA47" s="73">
+      <c r="AA47" s="66">
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="AB47" s="14"/>
-      <c r="AC47" s="66" t="s">
+      <c r="AC47" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="AD47" s="67"/>
-      <c r="AE47" s="68"/>
-      <c r="AF47" s="71">
+      <c r="AD47" s="75"/>
+      <c r="AE47" s="76"/>
+      <c r="AF47" s="78">
         <f>SUMIF($AE$6:$AE$46,"ASSISTIDO",$AF$6:$AF$46)</f>
-        <v>1.1076388888888888</v>
+        <v>1.1736111111111112</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
@@ -6043,7 +6044,7 @@
       <c r="F48" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G48" s="72">
+      <c r="G48" s="65">
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="H48" s="6" t="s">
@@ -6081,7 +6082,7 @@
       <c r="Z48" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA48" s="73">
+      <c r="AA48" s="66">
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="AB48" s="14"/>
@@ -6106,7 +6107,7 @@
       <c r="F49" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G49" s="72">
+      <c r="G49" s="65">
         <v>5.7638888888888885E-2</v>
       </c>
       <c r="H49" s="6" t="s">
@@ -6144,7 +6145,7 @@
       <c r="Z49" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA49" s="73">
+      <c r="AA49" s="66">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="AB49" s="14"/>
@@ -6169,7 +6170,7 @@
       <c r="F50" s="9">
         <v>8</v>
       </c>
-      <c r="G50" s="72">
+      <c r="G50" s="65">
         <v>6.7361111111111108E-2</v>
       </c>
       <c r="H50" s="6" t="s">
@@ -6207,7 +6208,7 @@
       <c r="Z50" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA50" s="73">
+      <c r="AA50" s="66">
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="AB50" s="14"/>
@@ -6232,7 +6233,7 @@
       <c r="F51" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G51" s="72">
+      <c r="G51" s="65">
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="H51" s="6" t="s">
@@ -6270,7 +6271,7 @@
       <c r="Z51" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA51" s="73">
+      <c r="AA51" s="66">
         <v>5.486111111111111E-2</v>
       </c>
       <c r="AB51" s="14"/>
@@ -6295,7 +6296,7 @@
       <c r="F52" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G52" s="72">
+      <c r="G52" s="65">
         <v>9.930555555555555E-2</v>
       </c>
       <c r="H52" s="6" t="s">
@@ -6333,7 +6334,7 @@
       <c r="Z52" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA52" s="73">
+      <c r="AA52" s="66">
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="AB52" s="14"/>
@@ -6358,7 +6359,7 @@
       <c r="F53" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G53" s="72">
+      <c r="G53" s="65">
         <v>0.10486111111111111</v>
       </c>
       <c r="H53" s="6" t="s">
@@ -6396,7 +6397,7 @@
       <c r="Z53" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA53" s="73">
+      <c r="AA53" s="66">
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="AB53" s="14"/>
@@ -6421,7 +6422,7 @@
       <c r="F54" s="9">
         <v>9</v>
       </c>
-      <c r="G54" s="72">
+      <c r="G54" s="65">
         <v>0.11666666666666665</v>
       </c>
       <c r="H54" s="6" t="s">
@@ -6459,7 +6460,7 @@
       <c r="Z54" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA54" s="73">
+      <c r="AA54" s="66">
         <v>5.7638888888888885E-2</v>
       </c>
       <c r="AB54" s="14"/>
@@ -6484,7 +6485,7 @@
       <c r="F55" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G55" s="72">
+      <c r="G55" s="65">
         <v>9.7916666666666666E-2</v>
       </c>
       <c r="H55" s="6" t="s">
@@ -6522,7 +6523,7 @@
       <c r="Z55" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA55" s="73">
+      <c r="AA55" s="66">
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="AB55" s="14"/>
@@ -6547,7 +6548,7 @@
       <c r="F56" s="9">
         <v>8</v>
       </c>
-      <c r="G56" s="72">
+      <c r="G56" s="65">
         <v>8.9583333333333334E-2</v>
       </c>
       <c r="H56" s="6" t="s">
@@ -6585,7 +6586,7 @@
       <c r="Z56" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA56" s="73">
+      <c r="AA56" s="66">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="AB56" s="14"/>
@@ -6610,7 +6611,7 @@
       <c r="F57" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G57" s="72">
+      <c r="G57" s="65">
         <v>6.3194444444444442E-2</v>
       </c>
       <c r="H57" s="6" t="s">
@@ -6648,7 +6649,7 @@
       <c r="Z57" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA57" s="72">
+      <c r="AA57" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="AB57" s="14"/>
@@ -6673,7 +6674,7 @@
       <c r="F58" s="9">
         <v>8</v>
       </c>
-      <c r="G58" s="72">
+      <c r="G58" s="65">
         <v>6.25E-2</v>
       </c>
       <c r="H58" s="6" t="s">
@@ -6710,7 +6711,7 @@
       <c r="Z58" s="43" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA58" s="74">
+      <c r="AA58" s="67">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -6734,7 +6735,7 @@
       <c r="F59" s="9">
         <v>10</v>
       </c>
-      <c r="G59" s="72">
+      <c r="G59" s="65">
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="H59" s="6" t="s">
@@ -6771,7 +6772,7 @@
       <c r="Z59" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA59" s="72">
+      <c r="AA59" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -6795,7 +6796,7 @@
       <c r="F60" s="9">
         <v>9</v>
       </c>
-      <c r="G60" s="72">
+      <c r="G60" s="65">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="H60" s="6" t="s">
@@ -6832,7 +6833,7 @@
       <c r="Z60" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA60" s="72">
+      <c r="AA60" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -6856,7 +6857,7 @@
       <c r="F61" s="9">
         <v>9</v>
       </c>
-      <c r="G61" s="72">
+      <c r="G61" s="65">
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="H61" s="6" t="s">
@@ -6893,7 +6894,7 @@
       <c r="Z61" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA61" s="72">
+      <c r="AA61" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -6917,7 +6918,7 @@
       <c r="F62" s="9">
         <v>9</v>
       </c>
-      <c r="G62" s="72">
+      <c r="G62" s="65">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="H62" s="6" t="s">
@@ -6954,7 +6955,7 @@
       <c r="Z62" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA62" s="72">
+      <c r="AA62" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -6978,7 +6979,7 @@
       <c r="F63" s="9">
         <v>6</v>
       </c>
-      <c r="G63" s="72">
+      <c r="G63" s="65">
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="H63" s="6" t="s">
@@ -7015,7 +7016,7 @@
       <c r="Z63" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA63" s="72">
+      <c r="AA63" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -7039,7 +7040,7 @@
       <c r="F64" s="9">
         <v>5</v>
       </c>
-      <c r="G64" s="72">
+      <c r="G64" s="65">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="H64" s="6" t="s">
@@ -7076,7 +7077,7 @@
       <c r="Z64" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA64" s="72">
+      <c r="AA64" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -7100,7 +7101,7 @@
       <c r="F65" s="9">
         <v>6</v>
       </c>
-      <c r="G65" s="72">
+      <c r="G65" s="65">
         <v>5.1388888888888894E-2</v>
       </c>
       <c r="H65" s="6" t="s">
@@ -7137,7 +7138,7 @@
       <c r="Z65" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA65" s="72">
+      <c r="AA65" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -7161,7 +7162,7 @@
       <c r="F66" s="9">
         <v>6</v>
       </c>
-      <c r="G66" s="72">
+      <c r="G66" s="65">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="H66" s="6" t="s">
@@ -7198,7 +7199,7 @@
       <c r="Z66" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA66" s="72">
+      <c r="AA66" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -7222,7 +7223,7 @@
       <c r="F67" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G67" s="72">
+      <c r="G67" s="65">
         <v>5.486111111111111E-2</v>
       </c>
       <c r="H67" s="6" t="s">
@@ -7259,7 +7260,7 @@
       <c r="Z67" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA67" s="72">
+      <c r="AA67" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -7283,7 +7284,7 @@
       <c r="F68" s="9">
         <v>7</v>
       </c>
-      <c r="G68" s="72">
+      <c r="G68" s="65">
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="H68" s="6" t="s">
@@ -7320,7 +7321,7 @@
       <c r="Z68" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA68" s="72">
+      <c r="AA68" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -7344,7 +7345,7 @@
       <c r="F69" s="9">
         <v>7</v>
       </c>
-      <c r="G69" s="72">
+      <c r="G69" s="65">
         <v>6.25E-2</v>
       </c>
       <c r="H69" s="6" t="s">
@@ -7381,7 +7382,7 @@
       <c r="Z69" s="6" t="str">
         <v>ASSISTIDO</v>
       </c>
-      <c r="AA69" s="72">
+      <c r="AA69" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -7405,7 +7406,7 @@
       <c r="F70" s="9">
         <v>8</v>
       </c>
-      <c r="G70" s="72">
+      <c r="G70" s="65">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="H70" s="6" t="s">
@@ -7442,7 +7443,7 @@
       <c r="Z70" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA70" s="72">
+      <c r="AA70" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -7466,7 +7467,7 @@
       <c r="F71" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G71" s="72">
+      <c r="G71" s="65">
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="H71" s="6" t="s">
@@ -7503,7 +7504,7 @@
       <c r="Z71" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA71" s="72">
+      <c r="AA71" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -7527,7 +7528,7 @@
       <c r="F72" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G72" s="72">
+      <c r="G72" s="65">
         <v>5.347222222222222E-2</v>
       </c>
       <c r="H72" s="6" t="s">
@@ -7564,7 +7565,7 @@
       <c r="Z72" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA72" s="72">
+      <c r="AA72" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -7588,7 +7589,7 @@
       <c r="F73" s="9">
         <v>9</v>
       </c>
-      <c r="G73" s="72">
+      <c r="G73" s="65">
         <v>5.347222222222222E-2</v>
       </c>
       <c r="H73" s="6" t="s">
@@ -7625,7 +7626,7 @@
       <c r="Z73" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA73" s="72">
+      <c r="AA73" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -7649,7 +7650,7 @@
       <c r="F74" s="9">
         <v>8</v>
       </c>
-      <c r="G74" s="72">
+      <c r="G74" s="65">
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="H74" s="6" t="s">
@@ -7686,7 +7687,7 @@
       <c r="Z74" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA74" s="72">
+      <c r="AA74" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -7710,7 +7711,7 @@
       <c r="F75" s="9">
         <v>6</v>
       </c>
-      <c r="G75" s="72">
+      <c r="G75" s="65">
         <v>5.486111111111111E-2</v>
       </c>
       <c r="H75" s="6" t="s">
@@ -7747,7 +7748,7 @@
       <c r="Z75" s="6" t="str">
         <v>NÃO ASSISTIDO</v>
       </c>
-      <c r="AA75" s="72">
+      <c r="AA75" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
@@ -7771,7 +7772,7 @@
       <c r="F76" s="9">
         <v>6</v>
       </c>
-      <c r="G76" s="72">
+      <c r="G76" s="65">
         <v>5.8333333333333327E-2</v>
       </c>
       <c r="H76" s="6" t="s">
@@ -7799,14 +7800,14 @@
         <f t="shared" si="11"/>
         <v>75</v>
       </c>
-      <c r="X76" s="63" t="s">
+      <c r="X76" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="Y76" s="64"/>
-      <c r="Z76" s="65"/>
-      <c r="AA76" s="75">
+      <c r="Y76" s="72"/>
+      <c r="Z76" s="73"/>
+      <c r="AA76" s="77">
         <f>SUMIF($Z$6:$Z$75,"ASSISTIDO",$AA$6:$AA$75)</f>
-        <v>3.0472222222222221</v>
+        <v>3.098611111111111</v>
       </c>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
@@ -7829,7 +7830,7 @@
       <c r="F77" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G77" s="72">
+      <c r="G77" s="65">
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="H77" s="6" t="s">
@@ -7878,7 +7879,7 @@
       <c r="F78" s="9">
         <v>7</v>
       </c>
-      <c r="G78" s="72">
+      <c r="G78" s="65">
         <v>45</v>
       </c>
       <c r="H78" s="6" t="s">
@@ -7927,7 +7928,7 @@
       <c r="F79" s="9">
         <v>9</v>
       </c>
-      <c r="G79" s="72">
+      <c r="G79" s="65">
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="H79" s="6" t="s">
@@ -7976,7 +7977,7 @@
       <c r="F80" s="9">
         <v>7</v>
       </c>
-      <c r="G80" s="72">
+      <c r="G80" s="65">
         <v>5.8333333333333327E-2</v>
       </c>
       <c r="H80" s="6" t="s">
@@ -8025,7 +8026,7 @@
       <c r="F81" s="9">
         <v>4</v>
       </c>
-      <c r="G81" s="72">
+      <c r="G81" s="65">
         <v>5.1388888888888894E-2</v>
       </c>
       <c r="H81" s="6" t="s">
@@ -8074,7 +8075,7 @@
       <c r="F82" s="9">
         <v>3</v>
       </c>
-      <c r="G82" s="72">
+      <c r="G82" s="65">
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="H82" s="6" t="s">
@@ -8123,7 +8124,7 @@
       <c r="F83" s="9">
         <v>6</v>
       </c>
-      <c r="G83" s="72">
+      <c r="G83" s="65">
         <v>5.486111111111111E-2</v>
       </c>
       <c r="H83" s="6" t="s">
@@ -8172,7 +8173,7 @@
       <c r="F84" s="9">
         <v>7</v>
       </c>
-      <c r="G84" s="72">
+      <c r="G84" s="65">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="H84" s="6" t="s">
@@ -8221,7 +8222,7 @@
       <c r="F85" s="9">
         <v>4</v>
       </c>
-      <c r="G85" s="72">
+      <c r="G85" s="65">
         <v>5.6944444444444443E-2</v>
       </c>
       <c r="H85" s="6" t="s">
@@ -8270,7 +8271,7 @@
       <c r="F86" s="9">
         <v>7</v>
       </c>
-      <c r="G86" s="72">
+      <c r="G86" s="65">
         <v>5.486111111111111E-2</v>
       </c>
       <c r="H86" s="6" t="s">
@@ -8319,7 +8320,7 @@
       <c r="F87" s="9">
         <v>4</v>
       </c>
-      <c r="G87" s="72">
+      <c r="G87" s="65">
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="H87" s="6" t="s">
@@ -8368,7 +8369,7 @@
       <c r="F88" s="9">
         <v>5</v>
       </c>
-      <c r="G88" s="72">
+      <c r="G88" s="65">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="H88" s="6" t="s">
@@ -8417,7 +8418,7 @@
       <c r="F89" s="9">
         <v>6</v>
       </c>
-      <c r="G89" s="72">
+      <c r="G89" s="65">
         <v>5.347222222222222E-2</v>
       </c>
       <c r="H89" s="6" t="s">
@@ -8466,7 +8467,7 @@
       <c r="F90" s="9">
         <v>4</v>
       </c>
-      <c r="G90" s="72">
+      <c r="G90" s="65">
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="H90" s="6" t="s">
@@ -8515,7 +8516,7 @@
       <c r="F91" s="9">
         <v>0</v>
       </c>
-      <c r="G91" s="72">
+      <c r="G91" s="65">
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="H91" s="6" t="s">
@@ -8564,7 +8565,7 @@
       <c r="F92" s="9">
         <v>8</v>
       </c>
-      <c r="G92" s="72">
+      <c r="G92" s="65">
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="H92" s="6" t="s">
@@ -8613,7 +8614,7 @@
       <c r="F93" s="9">
         <v>6</v>
       </c>
-      <c r="G93" s="72">
+      <c r="G93" s="65">
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="H93" s="6" t="s">
@@ -8662,7 +8663,7 @@
       <c r="F94" s="9">
         <v>10</v>
       </c>
-      <c r="G94" s="72">
+      <c r="G94" s="65">
         <v>5.9722222222222225E-2</v>
       </c>
       <c r="H94" s="6" t="s">
@@ -8711,7 +8712,7 @@
       <c r="F95" s="9">
         <v>8</v>
       </c>
-      <c r="G95" s="72">
+      <c r="G95" s="65">
         <v>6.458333333333334E-2</v>
       </c>
       <c r="H95" s="6" t="s">
@@ -8760,7 +8761,7 @@
       <c r="F96" s="9">
         <v>6</v>
       </c>
-      <c r="G96" s="72">
+      <c r="G96" s="65">
         <v>6.458333333333334E-2</v>
       </c>
       <c r="H96" s="6" t="s">
@@ -8809,7 +8810,7 @@
       <c r="F97" s="9">
         <v>9</v>
       </c>
-      <c r="G97" s="72">
+      <c r="G97" s="65">
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="H97" s="6" t="s">
@@ -8858,7 +8859,7 @@
       <c r="F98" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G98" s="72">
+      <c r="G98" s="65">
         <v>5.1388888888888894E-2</v>
       </c>
       <c r="H98" s="6" t="s">
@@ -8907,7 +8908,7 @@
       <c r="F99" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G99" s="72">
+      <c r="G99" s="65">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="H99" s="6" t="s">
@@ -8956,7 +8957,7 @@
       <c r="F100" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G100" s="72">
+      <c r="G100" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H100" s="6" t="s">
@@ -9005,7 +9006,7 @@
       <c r="F101" s="9">
         <v>7</v>
       </c>
-      <c r="G101" s="72">
+      <c r="G101" s="65">
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="H101" s="6" t="s">
@@ -9054,7 +9055,7 @@
       <c r="F102" s="9">
         <v>7</v>
       </c>
-      <c r="G102" s="72">
+      <c r="G102" s="65">
         <v>5.9722222222222225E-2</v>
       </c>
       <c r="H102" s="6" t="s">
@@ -9103,7 +9104,7 @@
       <c r="F103" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G103" s="72">
+      <c r="G103" s="65">
         <v>6.3194444444444442E-2</v>
       </c>
       <c r="H103" s="6" t="s">
@@ -9152,7 +9153,7 @@
       <c r="F104" s="9">
         <v>8</v>
       </c>
-      <c r="G104" s="72">
+      <c r="G104" s="65">
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="H104" s="6" t="s">
@@ -9201,7 +9202,7 @@
       <c r="F105" s="9">
         <v>8</v>
       </c>
-      <c r="G105" s="72">
+      <c r="G105" s="65">
         <v>6.7361111111111108E-2</v>
       </c>
       <c r="H105" s="6" t="s">
@@ -9244,7 +9245,13 @@
       <c r="D106" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G106" s="72">
+      <c r="E106" s="7">
+        <v>45137</v>
+      </c>
+      <c r="F106" s="9">
+        <v>8</v>
+      </c>
+      <c r="G106" s="65">
         <v>5.1388888888888894E-2</v>
       </c>
       <c r="H106" s="6" t="s">
@@ -9262,11 +9269,11 @@
       </c>
       <c r="L106" s="23">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M106" s="25" t="str">
         <f t="shared" si="13"/>
-        <v>NÃO ASSISTIDO</v>
+        <v>ASSISTIDO</v>
       </c>
       <c r="N106" s="6">
         <f t="shared" si="11"/>
@@ -9293,7 +9300,7 @@
       <c r="F107" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G107" s="72">
+      <c r="G107" s="65">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="H107" s="6" t="s">
@@ -9336,7 +9343,7 @@
       <c r="D108" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G108" s="72">
+      <c r="G108" s="65">
         <v>6.7361111111111108E-2</v>
       </c>
       <c r="H108" s="6" t="s">
@@ -9385,7 +9392,7 @@
       <c r="F109" s="9">
         <v>9</v>
       </c>
-      <c r="G109" s="72">
+      <c r="G109" s="65">
         <v>7.1527777777777787E-2</v>
       </c>
       <c r="H109" s="6" t="s">
@@ -9434,7 +9441,7 @@
       <c r="F110" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G110" s="72">
+      <c r="G110" s="65">
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="H110" s="6" t="s">
@@ -9483,7 +9490,7 @@
       <c r="F111" s="9">
         <v>9</v>
       </c>
-      <c r="G111" s="72">
+      <c r="G111" s="65">
         <v>7.2222222222222229E-2</v>
       </c>
       <c r="H111" s="6" t="s">
@@ -9532,7 +9539,7 @@
       <c r="F112" s="9">
         <v>9</v>
       </c>
-      <c r="G112" s="72">
+      <c r="G112" s="65">
         <v>6.805555555555555E-2</v>
       </c>
       <c r="H112" s="6" t="s">
@@ -9581,7 +9588,7 @@
       <c r="F113" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G113" s="72">
+      <c r="G113" s="65">
         <v>7.7083333333333337E-2</v>
       </c>
       <c r="H113" s="6" t="s">
@@ -9630,7 +9637,7 @@
       <c r="F114" s="9">
         <v>9</v>
       </c>
-      <c r="G114" s="72">
+      <c r="G114" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H114" s="6" t="s">
@@ -9679,7 +9686,7 @@
       <c r="F115" s="9">
         <v>9</v>
       </c>
-      <c r="G115" s="72">
+      <c r="G115" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H115" s="6" t="s">
@@ -9728,7 +9735,7 @@
       <c r="F116" s="9">
         <v>8</v>
       </c>
-      <c r="G116" s="72">
+      <c r="G116" s="65">
         <v>6.7361111111111108E-2</v>
       </c>
       <c r="H116" s="6" t="s">
@@ -9771,7 +9778,7 @@
       <c r="D117" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G117" s="72">
+      <c r="G117" s="65">
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="H117" s="6" t="s">
@@ -9820,7 +9827,7 @@
       <c r="F118" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G118" s="72">
+      <c r="G118" s="65">
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="H118" s="6" t="s">
@@ -9869,7 +9876,7 @@
       <c r="F119" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G119" s="72">
+      <c r="G119" s="65">
         <v>7.0833333333333331E-2</v>
       </c>
       <c r="H119" s="6" t="s">
@@ -9918,7 +9925,7 @@
       <c r="F120" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G120" s="72">
+      <c r="G120" s="65">
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="H120" s="6" t="s">
@@ -9964,7 +9971,7 @@
       <c r="F121" s="9">
         <v>9</v>
       </c>
-      <c r="G121" s="72">
+      <c r="G121" s="65">
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="H121" s="6" t="s">
@@ -10013,7 +10020,7 @@
       <c r="F122" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G122" s="72">
+      <c r="G122" s="65">
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="H122" s="6" t="s">
@@ -10056,7 +10063,7 @@
       <c r="D123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G123" s="72">
+      <c r="G123" s="65">
         <v>5.9722222222222225E-2</v>
       </c>
       <c r="H123" s="6" t="s">
@@ -10105,7 +10112,7 @@
       <c r="F124" s="9">
         <v>10</v>
       </c>
-      <c r="G124" s="72">
+      <c r="G124" s="65">
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="H124" s="6" t="s">
@@ -10148,7 +10155,7 @@
       <c r="D125" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G125" s="72">
+      <c r="G125" s="65">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="H125" s="6" t="s">
@@ -10197,7 +10204,7 @@
       <c r="F126" s="9">
         <v>8</v>
       </c>
-      <c r="G126" s="72">
+      <c r="G126" s="65">
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="H126" s="6" t="s">
@@ -10240,7 +10247,7 @@
       <c r="D127" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G127" s="72">
+      <c r="G127" s="65">
         <v>5.486111111111111E-2</v>
       </c>
       <c r="H127" s="6" t="s">
@@ -10283,7 +10290,7 @@
       <c r="D128" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G128" s="72">
+      <c r="G128" s="65">
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="H128" s="6" t="s">
@@ -10326,7 +10333,7 @@
       <c r="D129" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G129" s="72">
+      <c r="G129" s="65">
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="H129" s="6" t="s">
@@ -10375,7 +10382,7 @@
       <c r="F130" s="9">
         <v>9</v>
       </c>
-      <c r="G130" s="72">
+      <c r="G130" s="65">
         <v>6.458333333333334E-2</v>
       </c>
       <c r="H130" s="6" t="s">
@@ -10424,7 +10431,7 @@
       <c r="F131" s="9">
         <v>9</v>
       </c>
-      <c r="G131" s="72">
+      <c r="G131" s="65">
         <v>8.1250000000000003E-2</v>
       </c>
       <c r="H131" s="6" t="s">
@@ -10473,7 +10480,7 @@
       <c r="F132" s="9">
         <v>8</v>
       </c>
-      <c r="G132" s="72">
+      <c r="G132" s="65">
         <v>7.3611111111111113E-2</v>
       </c>
       <c r="H132" s="6" t="s">
@@ -10522,7 +10529,7 @@
       <c r="F133" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G133" s="72">
+      <c r="G133" s="65">
         <v>7.5694444444444439E-2</v>
       </c>
       <c r="H133" s="6" t="s">
@@ -10565,7 +10572,7 @@
       <c r="D134" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G134" s="72">
+      <c r="G134" s="65">
         <v>6.458333333333334E-2</v>
       </c>
       <c r="H134" s="6" t="s">
@@ -10614,7 +10621,7 @@
       <c r="F135" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G135" s="72">
+      <c r="G135" s="65">
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="H135" s="6" t="s">
@@ -10663,7 +10670,7 @@
       <c r="F136" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="G136" s="72">
+      <c r="G136" s="65">
         <v>7.0833333333333331E-2</v>
       </c>
       <c r="H136" s="6" t="s">
@@ -10706,7 +10713,7 @@
       <c r="D137" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G137" s="72">
+      <c r="G137" s="65">
         <v>6.8749999999999992E-2</v>
       </c>
       <c r="H137" s="6" t="s">
@@ -10752,7 +10759,7 @@
       <c r="F138" s="9">
         <v>9</v>
       </c>
-      <c r="G138" s="72">
+      <c r="G138" s="65">
         <v>5.7638888888888885E-2</v>
       </c>
       <c r="H138" s="6" t="s">
@@ -10795,7 +10802,7 @@
       <c r="D139" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G139" s="72">
+      <c r="G139" s="65">
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="H139" s="6" t="s">
@@ -10844,7 +10851,7 @@
       <c r="F140" s="9">
         <v>10</v>
       </c>
-      <c r="G140" s="72">
+      <c r="G140" s="65">
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="H140" s="6" t="s">
@@ -10893,7 +10900,7 @@
       <c r="F141" s="9">
         <v>9</v>
       </c>
-      <c r="G141" s="72">
+      <c r="G141" s="65">
         <v>6.5277777777777782E-2</v>
       </c>
       <c r="H141" s="6" t="s">
@@ -10942,7 +10949,7 @@
       <c r="F142" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G142" s="72">
+      <c r="G142" s="65">
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="H142" s="6" t="s">
@@ -10985,7 +10992,7 @@
       <c r="D143" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G143" s="72">
+      <c r="G143" s="65">
         <v>5.9722222222222225E-2</v>
       </c>
       <c r="H143" s="6" t="s">
@@ -11034,7 +11041,7 @@
       <c r="F144" s="9">
         <v>9</v>
       </c>
-      <c r="G144" s="72">
+      <c r="G144" s="65">
         <v>7.6388888888888895E-2</v>
       </c>
       <c r="H144" s="6" t="s">
@@ -11083,7 +11090,7 @@
       <c r="F145" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G145" s="72">
+      <c r="G145" s="65">
         <v>7.6388888888888895E-2</v>
       </c>
       <c r="H145" s="6" t="s">
@@ -11132,7 +11139,7 @@
       <c r="F146" s="9">
         <v>8</v>
       </c>
-      <c r="G146" s="72">
+      <c r="G146" s="65">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="H146" s="6" t="s">
@@ -11181,7 +11188,7 @@
       <c r="F147" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G147" s="72">
+      <c r="G147" s="65">
         <v>6.805555555555555E-2</v>
       </c>
       <c r="H147" s="6" t="s">
@@ -11230,7 +11237,7 @@
       <c r="F148" s="9">
         <v>9</v>
       </c>
-      <c r="G148" s="72">
+      <c r="G148" s="65">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="H148" s="6" t="s">
@@ -11279,7 +11286,7 @@
       <c r="F149" s="9">
         <v>9</v>
       </c>
-      <c r="G149" s="72">
+      <c r="G149" s="65">
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="H149" s="6" t="s">
@@ -11328,7 +11335,7 @@
       <c r="F150" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G150" s="72">
+      <c r="G150" s="65">
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="H150" s="6" t="s">
@@ -11377,7 +11384,7 @@
       <c r="F151" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G151" s="72">
+      <c r="G151" s="65">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H151" s="6" t="s">
@@ -11426,7 +11433,7 @@
       <c r="F152" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G152" s="72">
+      <c r="G152" s="65">
         <v>8.4027777777777771E-2</v>
       </c>
       <c r="H152" s="6" t="s">
@@ -11475,7 +11482,7 @@
       <c r="F153" s="9">
         <v>8</v>
       </c>
-      <c r="G153" s="72">
+      <c r="G153" s="65">
         <v>8.819444444444445E-2</v>
       </c>
       <c r="H153" s="6" t="s">
@@ -11524,7 +11531,7 @@
       <c r="F154" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G154" s="72">
+      <c r="G154" s="65">
         <v>9.6527777777777768E-2</v>
       </c>
       <c r="H154" s="6" t="s">
@@ -11573,7 +11580,7 @@
       <c r="F155" s="9">
         <v>9</v>
       </c>
-      <c r="G155" s="72">
+      <c r="G155" s="65">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H155" s="6" t="s">
@@ -11622,7 +11629,7 @@
       <c r="F156" s="9">
         <v>9</v>
       </c>
-      <c r="G156" s="72">
+      <c r="G156" s="65">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H156" s="6" t="s">
@@ -11666,7 +11673,7 @@
         <v>6</v>
       </c>
       <c r="E157" s="7"/>
-      <c r="G157" s="72">
+      <c r="G157" s="65">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="H157" s="6" t="s">
@@ -11709,7 +11716,7 @@
         <v>6</v>
       </c>
       <c r="E158" s="7"/>
-      <c r="G158" s="72">
+      <c r="G158" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H158" s="6" t="s">
@@ -11752,7 +11759,7 @@
         <v>9</v>
       </c>
       <c r="E159" s="7"/>
-      <c r="G159" s="72">
+      <c r="G159" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H159" s="6" t="s">
@@ -11795,7 +11802,7 @@
         <v>9</v>
       </c>
       <c r="E160" s="7"/>
-      <c r="G160" s="72">
+      <c r="G160" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H160" s="6" t="s">
@@ -11838,7 +11845,7 @@
         <v>9</v>
       </c>
       <c r="E161" s="7"/>
-      <c r="G161" s="72">
+      <c r="G161" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H161" s="6" t="s">
@@ -11881,7 +11888,7 @@
         <v>9</v>
       </c>
       <c r="E162" s="7"/>
-      <c r="G162" s="72">
+      <c r="G162" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H162" s="6" t="s">
@@ -11924,7 +11931,7 @@
         <v>9</v>
       </c>
       <c r="E163" s="7"/>
-      <c r="G163" s="72">
+      <c r="G163" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H163" s="6" t="s">
@@ -11967,7 +11974,7 @@
         <v>9</v>
       </c>
       <c r="E164" s="7"/>
-      <c r="G164" s="72">
+      <c r="G164" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H164" s="6" t="s">
@@ -12010,7 +12017,7 @@
         <v>9</v>
       </c>
       <c r="E165" s="7"/>
-      <c r="G165" s="72">
+      <c r="G165" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H165" s="6" t="s">
@@ -12053,7 +12060,7 @@
         <v>9</v>
       </c>
       <c r="E166" s="7"/>
-      <c r="G166" s="72">
+      <c r="G166" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H166" s="6" t="s">
@@ -12096,7 +12103,7 @@
         <v>9</v>
       </c>
       <c r="E167" s="7"/>
-      <c r="G167" s="72">
+      <c r="G167" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H167" s="6" t="s">
@@ -12139,7 +12146,7 @@
         <v>9</v>
       </c>
       <c r="E168" s="7"/>
-      <c r="G168" s="72">
+      <c r="G168" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H168" s="6" t="s">
@@ -12182,7 +12189,7 @@
         <v>9</v>
       </c>
       <c r="E169" s="7"/>
-      <c r="G169" s="72">
+      <c r="G169" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H169" s="6" t="s">
@@ -12225,7 +12232,7 @@
         <v>9</v>
       </c>
       <c r="E170" s="7"/>
-      <c r="G170" s="72">
+      <c r="G170" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H170" s="6" t="s">
@@ -12273,7 +12280,7 @@
       <c r="F171" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G171" s="72">
+      <c r="G171" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H171" s="6" t="s">
@@ -12316,7 +12323,7 @@
         <v>9</v>
       </c>
       <c r="E172" s="7"/>
-      <c r="G172" s="72">
+      <c r="G172" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H172" s="6" t="s">
@@ -12359,7 +12366,7 @@
         <v>6</v>
       </c>
       <c r="E173" s="7"/>
-      <c r="G173" s="72">
+      <c r="G173" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H173" s="6" t="s">
@@ -12402,7 +12409,7 @@
         <v>6</v>
       </c>
       <c r="E174" s="7"/>
-      <c r="G174" s="72">
+      <c r="G174" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H174" s="6" t="s">
@@ -12445,7 +12452,7 @@
         <v>6</v>
       </c>
       <c r="E175" s="7"/>
-      <c r="G175" s="72">
+      <c r="G175" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H175" s="6" t="s">
@@ -12488,7 +12495,7 @@
         <v>9</v>
       </c>
       <c r="E176" s="7"/>
-      <c r="G176" s="72">
+      <c r="G176" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H176" s="6" t="s">
@@ -12531,7 +12538,7 @@
         <v>6</v>
       </c>
       <c r="E177" s="7"/>
-      <c r="G177" s="72">
+      <c r="G177" s="65">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="H177" s="6" t="s">
@@ -12574,7 +12581,7 @@
         <v>6</v>
       </c>
       <c r="E178" s="7"/>
-      <c r="G178" s="72">
+      <c r="G178" s="65">
         <v>5.7638888888888885E-2</v>
       </c>
       <c r="H178" s="6" t="s">
@@ -12617,7 +12624,7 @@
         <v>6</v>
       </c>
       <c r="E179" s="7"/>
-      <c r="G179" s="72">
+      <c r="G179" s="65">
         <v>6.25E-2</v>
       </c>
       <c r="H179" s="6" t="s">
@@ -12665,7 +12672,7 @@
       <c r="F180" s="9">
         <v>9</v>
       </c>
-      <c r="G180" s="72">
+      <c r="G180" s="65">
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="H180" s="6" t="s">
@@ -12708,7 +12715,7 @@
         <v>6</v>
       </c>
       <c r="E181" s="7"/>
-      <c r="G181" s="72">
+      <c r="G181" s="65">
         <v>6.0416666666666667E-2</v>
       </c>
       <c r="H181" s="6" t="s">
@@ -12751,7 +12758,7 @@
         <v>6</v>
       </c>
       <c r="E182" s="7"/>
-      <c r="G182" s="72">
+      <c r="G182" s="65">
         <v>5.9722222222222225E-2</v>
       </c>
       <c r="H182" s="6" t="s">
@@ -12794,7 +12801,7 @@
         <v>6</v>
       </c>
       <c r="E183" s="7"/>
-      <c r="G183" s="72">
+      <c r="G183" s="65">
         <v>6.3194444444444442E-2</v>
       </c>
       <c r="H183" s="6" t="s">
@@ -12842,7 +12849,7 @@
       <c r="F184" s="9">
         <v>9</v>
       </c>
-      <c r="G184" s="72">
+      <c r="G184" s="65">
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="H184" s="6" t="s">
@@ -12885,7 +12892,7 @@
         <v>6</v>
       </c>
       <c r="E185" s="7"/>
-      <c r="G185" s="72">
+      <c r="G185" s="65">
         <v>7.0833333333333331E-2</v>
       </c>
       <c r="H185" s="6" t="s">
@@ -12928,7 +12935,7 @@
         <v>6</v>
       </c>
       <c r="E186" s="7"/>
-      <c r="G186" s="72">
+      <c r="G186" s="65">
         <v>6.458333333333334E-2</v>
       </c>
       <c r="H186" s="6" t="s">
@@ -12971,7 +12978,7 @@
         <v>6</v>
       </c>
       <c r="E187" s="7"/>
-      <c r="G187" s="72">
+      <c r="G187" s="65">
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="H187" s="6" t="s">
@@ -13013,8 +13020,13 @@
       <c r="D188" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E188" s="7"/>
-      <c r="G188" s="72">
+      <c r="E188" s="7">
+        <v>45137</v>
+      </c>
+      <c r="F188" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G188" s="65">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="H188" s="6" t="s">
@@ -13035,7 +13047,7 @@
       </c>
       <c r="M188" s="25" t="str">
         <f t="shared" si="31"/>
-        <v>NÃO ASSISTIDO</v>
+        <v>ASSISTIDO</v>
       </c>
       <c r="N188" s="6">
         <f t="shared" si="23"/>
@@ -13057,7 +13069,7 @@
         <v>6</v>
       </c>
       <c r="E189" s="7"/>
-      <c r="G189" s="72">
+      <c r="G189" s="65">
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="H189" s="6" t="s">
@@ -13100,7 +13112,7 @@
         <v>6</v>
       </c>
       <c r="E190" s="7"/>
-      <c r="G190" s="72">
+      <c r="G190" s="65">
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="H190" s="6" t="s">
@@ -13143,7 +13155,7 @@
         <v>6</v>
       </c>
       <c r="E191" s="7"/>
-      <c r="G191" s="72">
+      <c r="G191" s="65">
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="H191" s="6" t="s">
@@ -13186,7 +13198,7 @@
         <v>6</v>
       </c>
       <c r="E192" s="7"/>
-      <c r="G192" s="72">
+      <c r="G192" s="65">
         <v>6.5277777777777782E-2</v>
       </c>
       <c r="H192" s="6" t="s">
@@ -13229,7 +13241,7 @@
         <v>6</v>
       </c>
       <c r="E193" s="7"/>
-      <c r="G193" s="72">
+      <c r="G193" s="65">
         <v>6.458333333333334E-2</v>
       </c>
       <c r="H193" s="6" t="s">
@@ -13272,7 +13284,7 @@
         <v>6</v>
       </c>
       <c r="E194" s="7"/>
-      <c r="G194" s="72">
+      <c r="G194" s="65">
         <v>6.7361111111111108E-2</v>
       </c>
       <c r="H194" s="6" t="s">
@@ -13315,7 +13327,7 @@
         <v>6</v>
       </c>
       <c r="E195" s="7"/>
-      <c r="G195" s="72">
+      <c r="G195" s="65">
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="H195" s="6" t="s">
@@ -13358,7 +13370,7 @@
         <v>6</v>
       </c>
       <c r="E196" s="7"/>
-      <c r="G196" s="72">
+      <c r="G196" s="65">
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="H196" s="6" t="s">
@@ -13401,7 +13413,7 @@
         <v>6</v>
       </c>
       <c r="E197" s="7"/>
-      <c r="G197" s="72">
+      <c r="G197" s="65">
         <v>6.3194444444444442E-2</v>
       </c>
       <c r="H197" s="6" t="s">
@@ -13444,7 +13456,7 @@
         <v>6</v>
       </c>
       <c r="E198" s="7"/>
-      <c r="G198" s="72">
+      <c r="G198" s="65">
         <v>6.805555555555555E-2</v>
       </c>
       <c r="H198" s="6" t="s">
@@ -13487,7 +13499,7 @@
         <v>6</v>
       </c>
       <c r="E199" s="7"/>
-      <c r="G199" s="72">
+      <c r="G199" s="65">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="H199" s="6" t="s">
@@ -13530,7 +13542,7 @@
         <v>6</v>
       </c>
       <c r="E200" s="7"/>
-      <c r="G200" s="72">
+      <c r="G200" s="65">
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="H200" s="6" t="s">
@@ -13573,7 +13585,7 @@
         <v>6</v>
       </c>
       <c r="E201" s="7"/>
-      <c r="G201" s="72">
+      <c r="G201" s="65">
         <v>7.4305555555555555E-2</v>
       </c>
       <c r="H201" s="6" t="s">

--- a/Filmes.xlsx
+++ b/Filmes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Documents\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Planilhas\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C2C1FC-6F10-48F3-BF7A-D14EE1D04B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4432C70-579C-459F-8516-E4AA7CE16E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AC88744C-D9DF-4ECD-8B9A-C97C8CD0E4BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC88744C-D9DF-4ECD-8B9A-C97C8CD0E4BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,10 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -52,16 +53,30 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="263">
   <si>
     <t>Nome do Filme</t>
   </si>
@@ -829,6 +844,27 @@
   </si>
   <si>
     <t>Total de Horas Assistidas</t>
+  </si>
+  <si>
+    <t>Homem Aranha no Aranha-verso</t>
+  </si>
+  <si>
+    <t>3D-2D</t>
+  </si>
+  <si>
+    <t>A Fuga das Galinhas 2: A Ameaça dos Nuggets</t>
+  </si>
+  <si>
+    <t>ASSISTIDO</t>
+  </si>
+  <si>
+    <t>Nimona</t>
+  </si>
+  <si>
+    <t>Blue Sky Studios</t>
+  </si>
+  <si>
+    <t>Orion e o Escuro</t>
   </si>
 </sst>
 </file>
@@ -840,7 +876,7 @@
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
     <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="170" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="168" formatCode="[h]:mm:ss;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1244,7 +1280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1430,6 +1466,12 @@
     <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1448,17 +1490,266 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF4444"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF44"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1728,6 +2019,68 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>3</v>
+    <v>8</v>
+    <v>41</v>
+    <v>6</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="colOffset" t="i"/>
+    <k n="errorType" t="i"/>
+    <k n="rwOffset" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2027,10 +2380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A731FE-9613-428C-993D-C03F78E1A52D}">
-  <dimension ref="A1:AF201"/>
+  <dimension ref="A1:AF218"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J17" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A180" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,7 +2501,7 @@
         <v>735000000</v>
       </c>
       <c r="K2" s="44">
-        <f>J2-I2</f>
+        <f>IF(OR(ISBLANK(J2),ISBLANK(I2)),"DESCONHECIDO",J2-I2)</f>
         <v>560000000</v>
       </c>
       <c r="L2" s="23">
@@ -2197,7 +2550,7 @@
         <v>406594102</v>
       </c>
       <c r="K3" s="44">
-        <f t="shared" ref="K3:K66" si="3">J3-I3</f>
+        <f t="shared" ref="K3:K66" si="3">IF(OR(ISBLANK(J3),ISBLANK(I3)),"DESCONHECIDO",J3-I3)</f>
         <v>376594102</v>
       </c>
       <c r="L3" s="23">
@@ -2446,18 +2799,9 @@
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="AB6" s="14"/>
-      <c r="AC6" s="9" cm="1">
-        <f t="array" ref="AC6:AF46">_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER($A:$M,($H:$H="Dreamworks")),1,2,13,7)</f>
-        <v>22</v>
-      </c>
-      <c r="AD6" s="11" t="str">
-        <v>Como Treinar o Seu Dragão</v>
-      </c>
-      <c r="AE6" s="9" t="str">
-        <v>ASSISTIDO</v>
-      </c>
-      <c r="AF6" s="64">
-        <v>6.805555555555555E-2</v>
+      <c r="AC6" s="9" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="AC6" ca="1">_xlfn.CHOOSECOLS(_xlfn._xlws.FILTER($A:$M,($H:$H="Dreamworks")),1,2,13,7)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
@@ -2543,18 +2887,7 @@
         <v>5.486111111111111E-2</v>
       </c>
       <c r="AB7" s="14"/>
-      <c r="AC7" s="62">
-        <v>23</v>
-      </c>
-      <c r="AD7" s="11" t="str">
-        <v>Como Treinar o Seu Dragão 2</v>
-      </c>
-      <c r="AE7" s="9" t="str">
-        <v>ASSISTIDO</v>
-      </c>
-      <c r="AF7" s="64">
-        <v>7.2916666666666671E-2</v>
-      </c>
+      <c r="AC7" s="62"/>
     </row>
     <row r="8" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -2639,18 +2972,7 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="AB8" s="14"/>
-      <c r="AC8" s="62">
-        <v>24</v>
-      </c>
-      <c r="AD8" s="11" t="str">
-        <v>Como Treinar o Seu Dragão 3</v>
-      </c>
-      <c r="AE8" s="9" t="str">
-        <v>ASSISTIDO</v>
-      </c>
-      <c r="AF8" s="64">
-        <v>7.2222222222222229E-2</v>
-      </c>
+      <c r="AC8" s="62"/>
     </row>
     <row r="9" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -2735,18 +3057,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AB9" s="14"/>
-      <c r="AC9" s="62">
-        <v>25</v>
-      </c>
-      <c r="AD9" s="11" t="str">
-        <v>Shrek 1</v>
-      </c>
-      <c r="AE9" s="9" t="str">
-        <v>ASSISTIDO</v>
-      </c>
-      <c r="AF9" s="64">
-        <v>6.1805555555555558E-2</v>
-      </c>
+      <c r="AC9" s="62"/>
     </row>
     <row r="10" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
@@ -2831,18 +3142,7 @@
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="AB10" s="14"/>
-      <c r="AC10" s="62">
-        <v>26</v>
-      </c>
-      <c r="AD10" s="11" t="str">
-        <v>Shrek 2</v>
-      </c>
-      <c r="AE10" s="9" t="str">
-        <v>ASSISTIDO</v>
-      </c>
-      <c r="AF10" s="64">
-        <v>7.2916666666666671E-2</v>
-      </c>
+      <c r="AC10" s="62"/>
     </row>
     <row r="11" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
@@ -2927,18 +3227,7 @@
         <v>5.7638888888888885E-2</v>
       </c>
       <c r="AB11" s="14"/>
-      <c r="AC11" s="62">
-        <v>27</v>
-      </c>
-      <c r="AD11" s="11" t="str">
-        <v>Shrek 3</v>
-      </c>
-      <c r="AE11" s="9" t="str">
-        <v>ASSISTIDO</v>
-      </c>
-      <c r="AF11" s="64">
-        <v>6.458333333333334E-2</v>
-      </c>
+      <c r="AC11" s="62"/>
     </row>
     <row r="12" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
@@ -3023,18 +3312,7 @@
         <v>7.2222222222222229E-2</v>
       </c>
       <c r="AB12" s="14"/>
-      <c r="AC12" s="62">
-        <v>28</v>
-      </c>
-      <c r="AD12" s="11" t="str">
-        <v>Spirit: O Corcéu Indomável</v>
-      </c>
-      <c r="AE12" s="9" t="str">
-        <v>ASSISTIDO</v>
-      </c>
-      <c r="AF12" s="64">
-        <v>5.8333333333333327E-2</v>
-      </c>
+      <c r="AC12" s="62"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -3114,18 +3392,7 @@
         <v>7.5694444444444439E-2</v>
       </c>
       <c r="AB13" s="14"/>
-      <c r="AC13" s="62">
-        <v>29</v>
-      </c>
-      <c r="AD13" s="11" t="str">
-        <v>O Caminho Para El Dorado</v>
-      </c>
-      <c r="AE13" s="9" t="str">
-        <v>ASSISTIDO</v>
-      </c>
-      <c r="AF13" s="64">
-        <v>6.1805555555555558E-2</v>
-      </c>
+      <c r="AC13" s="62"/>
     </row>
     <row r="14" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
@@ -3207,18 +3474,7 @@
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="AB14" s="14"/>
-      <c r="AC14" s="62">
-        <v>33</v>
-      </c>
-      <c r="AD14" s="11" t="str">
-        <v>Kung Fu Panda</v>
-      </c>
-      <c r="AE14" s="9" t="str">
-        <v>ASSISTIDO</v>
-      </c>
-      <c r="AF14" s="64">
-        <v>6.3888888888888884E-2</v>
-      </c>
+      <c r="AC14" s="62"/>
     </row>
     <row r="15" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
@@ -3302,18 +3558,7 @@
         <v>7.4305555555555555E-2</v>
       </c>
       <c r="AB15" s="14"/>
-      <c r="AC15" s="62">
-        <v>34</v>
-      </c>
-      <c r="AD15" s="11" t="str">
-        <v>Kung Fu Panda 2</v>
-      </c>
-      <c r="AE15" s="9" t="str">
-        <v>ASSISTIDO</v>
-      </c>
-      <c r="AF15" s="64">
-        <v>6.3888888888888884E-2</v>
-      </c>
+      <c r="AC15" s="62"/>
     </row>
     <row r="16" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
@@ -3398,20 +3643,9 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AB16" s="14"/>
-      <c r="AC16" s="62">
-        <v>35</v>
-      </c>
-      <c r="AD16" s="11" t="str">
-        <v>Kung Fu Panda 3</v>
-      </c>
-      <c r="AE16" s="9" t="str">
-        <v>ASSISTIDO</v>
-      </c>
-      <c r="AF16" s="64">
-        <v>6.5972222222222224E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="AC16" s="62"/>
+    </row>
+    <row r="17" spans="1:29" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -3494,20 +3728,9 @@
         <v>7.9861111111111105E-2</v>
       </c>
       <c r="AB17" s="14"/>
-      <c r="AC17" s="62">
-        <v>36</v>
-      </c>
-      <c r="AD17" s="11" t="str">
-        <v>A Origem dos Guardiões</v>
-      </c>
-      <c r="AE17" s="9" t="str">
-        <v>ASSISTIDO</v>
-      </c>
-      <c r="AF17" s="64">
-        <v>6.7361111111111108E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="AC17" s="62"/>
+    </row>
+    <row r="18" spans="1:29" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -3590,20 +3813,9 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AB18" s="14"/>
-      <c r="AC18" s="62">
-        <v>37</v>
-      </c>
-      <c r="AD18" s="11" t="str">
-        <v>O Gato De Botas</v>
-      </c>
-      <c r="AE18" s="9" t="str">
-        <v>ASSISTIDO</v>
-      </c>
-      <c r="AF18" s="64">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="AC18" s="62"/>
+    </row>
+    <row r="19" spans="1:29" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -3686,20 +3898,9 @@
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="AB19" s="14"/>
-      <c r="AC19" s="62">
-        <v>101</v>
-      </c>
-      <c r="AD19" s="11" t="str">
-        <v>Madagascar</v>
-      </c>
-      <c r="AE19" s="9" t="str">
-        <v>ASSISTIDO</v>
-      </c>
-      <c r="AF19" s="64">
-        <v>5.9722222222222225E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="AC19" s="62"/>
+    </row>
+    <row r="20" spans="1:29" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -3782,20 +3983,9 @@
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="AB20" s="14"/>
-      <c r="AC20" s="62">
-        <v>118</v>
-      </c>
-      <c r="AD20" s="11" t="str">
-        <v>Gato de Botas 2: O Último Pedido</v>
-      </c>
-      <c r="AE20" s="9" t="str">
-        <v>ASSISTIDO</v>
-      </c>
-      <c r="AF20" s="64">
-        <v>7.0833333333333331E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="AC20" s="62"/>
+    </row>
+    <row r="21" spans="1:29" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -3877,20 +4067,9 @@
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="AB21" s="14"/>
-      <c r="AC21" s="62">
-        <v>122</v>
-      </c>
-      <c r="AD21" s="11" t="str">
-        <v>Sinbad: A Lenda dos sete mares</v>
-      </c>
-      <c r="AE21" s="9" t="str">
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="AF21" s="64">
-        <v>5.9722222222222225E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AC21" s="62"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -3965,20 +4144,9 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="AB22" s="14"/>
-      <c r="AC22" s="62">
-        <v>136</v>
-      </c>
-      <c r="AD22" s="11" t="str">
-        <v>O Príncipe do Egito</v>
-      </c>
-      <c r="AE22" s="9" t="str">
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="AF22" s="64">
-        <v>6.8749999999999992E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="AC22" s="62"/>
+    </row>
+    <row r="23" spans="1:29" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -4057,20 +4225,8 @@
         <v>7.0833333333333331E-2</v>
       </c>
       <c r="AB23" s="14"/>
-      <c r="AC23" s="9">
-        <v>177</v>
-      </c>
-      <c r="AD23" s="11" t="str">
-        <v>FormiguinhaZ</v>
-      </c>
-      <c r="AE23" s="9" t="str">
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="AF23" s="64">
-        <v>5.7638888888888885E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:29" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -4151,20 +4307,8 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="AB24" s="14"/>
-      <c r="AC24" s="9">
-        <v>178</v>
-      </c>
-      <c r="AD24" s="11" t="str">
-        <v>O Espanta Tubarões</v>
-      </c>
-      <c r="AE24" s="9" t="str">
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="AF24" s="64">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:29" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -4246,20 +4390,8 @@
         <v>6.0416666666666667E-2</v>
       </c>
       <c r="AB25" s="14"/>
-      <c r="AC25" s="9">
-        <v>179</v>
-      </c>
-      <c r="AD25" s="11" t="str">
-        <v>Wallace &amp; Gromit: A Batalha dos vegetais</v>
-      </c>
-      <c r="AE25" s="9" t="str">
-        <v>ASSISTIDO</v>
-      </c>
-      <c r="AF25" s="64">
-        <v>5.9027777777777783E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:29" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -4341,20 +4473,8 @@
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="AB26" s="14"/>
-      <c r="AC26" s="9">
-        <v>180</v>
-      </c>
-      <c r="AD26" s="11" t="str">
-        <v>Os Sem Floresta</v>
-      </c>
-      <c r="AE26" s="9" t="str">
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="AF26" s="64">
-        <v>6.0416666666666667E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:29" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -4436,20 +4556,8 @@
         <v>6.25E-2</v>
       </c>
       <c r="AB27" s="14"/>
-      <c r="AC27" s="9">
-        <v>181</v>
-      </c>
-      <c r="AD27" s="11" t="str">
-        <v>Por Água Abaixo</v>
-      </c>
-      <c r="AE27" s="9" t="str">
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="AF27" s="64">
-        <v>5.9722222222222225E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -4524,20 +4632,8 @@
         <v>6.458333333333334E-2</v>
       </c>
       <c r="AB28" s="14"/>
-      <c r="AC28" s="9">
-        <v>182</v>
-      </c>
-      <c r="AD28" s="11" t="str">
-        <v>Bee Movie: A História de uma Abelha</v>
-      </c>
-      <c r="AE28" s="9" t="str">
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="AF28" s="64">
-        <v>6.3194444444444442E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:29" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -4616,20 +4712,8 @@
         <v>5.8333333333333327E-2</v>
       </c>
       <c r="AB29" s="14"/>
-      <c r="AC29" s="9">
-        <v>183</v>
-      </c>
-      <c r="AD29" s="11" t="str">
-        <v>Madagascar 2: A Grande Escapada</v>
-      </c>
-      <c r="AE29" s="9" t="str">
-        <v>ASSISTIDO</v>
-      </c>
-      <c r="AF29" s="64">
-        <v>6.1805555555555558E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:29" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -4682,7 +4766,7 @@
       </c>
       <c r="Q30" s="19">
         <f>COUNTIF(M:M,"ASSISTIDO")</f>
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="R30" s="26"/>
       <c r="S30" s="40">
@@ -4711,20 +4795,8 @@
         <v>6.3194444444444442E-2</v>
       </c>
       <c r="AB30" s="14"/>
-      <c r="AC30" s="9">
-        <v>184</v>
-      </c>
-      <c r="AD30" s="11" t="str">
-        <v>Monstros Vs Aliens</v>
-      </c>
-      <c r="AE30" s="9" t="str">
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="AF30" s="64">
-        <v>7.0833333333333331E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:29" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -4780,12 +4852,12 @@
         <v>52</v>
       </c>
       <c r="R31" s="26"/>
-      <c r="S31" s="71" t="s">
+      <c r="S31" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="T31" s="72"/>
-      <c r="U31" s="73"/>
-      <c r="V31" s="77">
+      <c r="T31" s="74"/>
+      <c r="U31" s="75"/>
+      <c r="V31" s="71">
         <f ca="1">SUMIF($U$6:$V$30,"ASSISTIDO",$V$6:$V$30)</f>
         <v>1.5416666666666667</v>
       </c>
@@ -4803,20 +4875,8 @@
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="AB31" s="14"/>
-      <c r="AC31" s="9">
-        <v>185</v>
-      </c>
-      <c r="AD31" s="11" t="str">
-        <v>Shrek Para Sempre</v>
-      </c>
-      <c r="AE31" s="9" t="str">
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="AF31" s="64">
-        <v>6.458333333333334E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" ht="19.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:29" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -4869,7 +4929,7 @@
       </c>
       <c r="Q32" s="20">
         <f>MAX(A:A)</f>
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="S32" s="37"/>
       <c r="T32" s="37"/>
@@ -4889,18 +4949,6 @@
         <v>5.7638888888888885E-2</v>
       </c>
       <c r="AB32" s="14"/>
-      <c r="AC32" s="9">
-        <v>186</v>
-      </c>
-      <c r="AD32" s="11" t="str">
-        <v>Megamente</v>
-      </c>
-      <c r="AE32" s="9" t="str">
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="AF32" s="64">
-        <v>6.6666666666666666E-2</v>
-      </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
@@ -4964,18 +5012,6 @@
         <v>6.7361111111111108E-2</v>
       </c>
       <c r="AB33" s="14"/>
-      <c r="AC33" s="9">
-        <v>187</v>
-      </c>
-      <c r="AD33" s="11" t="str">
-        <v>Madagascar 3: Os Procurados</v>
-      </c>
-      <c r="AE33" s="9" t="str">
-        <v>ASSISTIDO</v>
-      </c>
-      <c r="AF33" s="64">
-        <v>6.5972222222222224E-2</v>
-      </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
@@ -5039,18 +5075,6 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="AB34" s="14"/>
-      <c r="AC34" s="9">
-        <v>188</v>
-      </c>
-      <c r="AD34" s="11" t="str">
-        <v>Turbo</v>
-      </c>
-      <c r="AE34" s="9" t="str">
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="AF34" s="64">
-        <v>6.6666666666666666E-2</v>
-      </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
@@ -5114,18 +5138,6 @@
         <v>9.930555555555555E-2</v>
       </c>
       <c r="AB35" s="14"/>
-      <c r="AC35" s="9">
-        <v>189</v>
-      </c>
-      <c r="AD35" s="11" t="str">
-        <v>As Aventuras de Peabody &amp; Sherman</v>
-      </c>
-      <c r="AE35" s="9" t="str">
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="AF35" s="64">
-        <v>6.3888888888888884E-2</v>
-      </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
@@ -5189,18 +5201,6 @@
         <v>0.10486111111111111</v>
       </c>
       <c r="AB36" s="14"/>
-      <c r="AC36" s="9">
-        <v>190</v>
-      </c>
-      <c r="AD36" s="11" t="str">
-        <v>Os Pinguins de Madagascar</v>
-      </c>
-      <c r="AE36" s="9" t="str">
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="AF36" s="64">
-        <v>6.3888888888888884E-2</v>
-      </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
@@ -5264,18 +5264,6 @@
         <v>0.11666666666666665</v>
       </c>
       <c r="AB37" s="14"/>
-      <c r="AC37" s="9">
-        <v>191</v>
-      </c>
-      <c r="AD37" s="11" t="str">
-        <v>Cada um na sua casa</v>
-      </c>
-      <c r="AE37" s="9" t="str">
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="AF37" s="64">
-        <v>6.5277777777777782E-2</v>
-      </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
@@ -5339,18 +5327,6 @@
         <v>9.7916666666666666E-2</v>
       </c>
       <c r="AB38" s="14"/>
-      <c r="AC38" s="9">
-        <v>192</v>
-      </c>
-      <c r="AD38" s="11" t="str">
-        <v>Trolls</v>
-      </c>
-      <c r="AE38" s="9" t="str">
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="AF38" s="64">
-        <v>6.458333333333334E-2</v>
-      </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
@@ -5414,18 +5390,6 @@
         <v>8.9583333333333334E-2</v>
       </c>
       <c r="AB39" s="14"/>
-      <c r="AC39" s="9">
-        <v>193</v>
-      </c>
-      <c r="AD39" s="11" t="str">
-        <v>O Poderoso Chefinho</v>
-      </c>
-      <c r="AE39" s="9" t="str">
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="AF39" s="64">
-        <v>6.7361111111111108E-2</v>
-      </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
@@ -5489,18 +5453,6 @@
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="AB40" s="14"/>
-      <c r="AC40" s="9">
-        <v>194</v>
-      </c>
-      <c r="AD40" s="11" t="str">
-        <v>As Aventuras do Capitão Cueca</v>
-      </c>
-      <c r="AE40" s="9" t="str">
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="AF40" s="64">
-        <v>6.1805555555555558E-2</v>
-      </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
@@ -5564,18 +5516,6 @@
         <v>5.1388888888888894E-2</v>
       </c>
       <c r="AB41" s="14"/>
-      <c r="AC41" s="9">
-        <v>195</v>
-      </c>
-      <c r="AD41" s="11" t="str">
-        <v>Abominável</v>
-      </c>
-      <c r="AE41" s="9" t="str">
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="AF41" s="64">
-        <v>6.3888888888888884E-2</v>
-      </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
@@ -5639,18 +5579,6 @@
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="AB42" s="14"/>
-      <c r="AC42" s="9">
-        <v>196</v>
-      </c>
-      <c r="AD42" s="11" t="str">
-        <v>Trolls 2</v>
-      </c>
-      <c r="AE42" s="9" t="str">
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="AF42" s="64">
-        <v>6.3194444444444442E-2</v>
-      </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
@@ -5714,18 +5642,6 @@
         <v>5.1388888888888894E-2</v>
       </c>
       <c r="AB43" s="14"/>
-      <c r="AC43" s="9">
-        <v>197</v>
-      </c>
-      <c r="AD43" s="11" t="str">
-        <v>Os Croods</v>
-      </c>
-      <c r="AE43" s="9" t="str">
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="AF43" s="64">
-        <v>6.805555555555555E-2</v>
-      </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
@@ -5789,18 +5705,6 @@
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="AB44" s="14"/>
-      <c r="AC44" s="9">
-        <v>198</v>
-      </c>
-      <c r="AD44" s="11" t="str">
-        <v>Os Croods 2: Uma Nova Era</v>
-      </c>
-      <c r="AE44" s="9" t="str">
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="AF44" s="64">
-        <v>6.5972222222222224E-2</v>
-      </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
@@ -5864,18 +5768,6 @@
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="AB45" s="14"/>
-      <c r="AC45" s="9">
-        <v>199</v>
-      </c>
-      <c r="AD45" s="11" t="str">
-        <v>Spirit: O Indomável</v>
-      </c>
-      <c r="AE45" s="9" t="str">
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="AF45" s="64">
-        <v>6.1111111111111116E-2</v>
-      </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
@@ -5939,18 +5831,6 @@
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="AB46" s="14"/>
-      <c r="AC46" s="9">
-        <v>200</v>
-      </c>
-      <c r="AD46" s="11" t="str">
-        <v>O Poderoso Chefinho 2: Negócios de Família</v>
-      </c>
-      <c r="AE46" s="9" t="str">
-        <v>NÃO ASSISTIDO</v>
-      </c>
-      <c r="AF46" s="64">
-        <v>7.4305555555555555E-2</v>
-      </c>
     </row>
     <row r="47" spans="1:32" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
@@ -6014,14 +5894,14 @@
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="AB47" s="14"/>
-      <c r="AC47" s="74" t="s">
+      <c r="AC47" s="76" t="s">
         <v>255</v>
       </c>
-      <c r="AD47" s="75"/>
-      <c r="AE47" s="76"/>
-      <c r="AF47" s="78">
+      <c r="AD47" s="77"/>
+      <c r="AE47" s="78"/>
+      <c r="AF47" s="72">
         <f>SUMIF($AE$6:$AE$46,"ASSISTIDO",$AF$6:$AF$46)</f>
-        <v>1.1736111111111112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
@@ -7236,7 +7116,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="44">
-        <f t="shared" ref="K67:K130" si="10">J67-I67</f>
+        <f t="shared" ref="K67:K130" si="10">IF(OR(ISBLANK(J67),ISBLANK(I67)),"DESCONHECIDO",J67-I67)</f>
         <v>0</v>
       </c>
       <c r="L67" s="23">
@@ -7800,12 +7680,12 @@
         <f t="shared" si="11"/>
         <v>75</v>
       </c>
-      <c r="X76" s="71" t="s">
+      <c r="X76" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="Y76" s="72"/>
-      <c r="Z76" s="73"/>
-      <c r="AA76" s="77">
+      <c r="Y76" s="74"/>
+      <c r="Z76" s="75"/>
+      <c r="AA76" s="71">
         <f>SUMIF($Z$6:$Z$75,"ASSISTIDO",$AA$6:$AA$75)</f>
         <v>3.098611111111111</v>
       </c>
@@ -10444,7 +10324,7 @@
         <v>462000000</v>
       </c>
       <c r="K131" s="44">
-        <f t="shared" ref="K131:K177" si="17">J131-I131</f>
+        <f t="shared" ref="K131:K194" si="17">IF(OR(ISBLANK(J131),ISBLANK(I131)),"DESCONHECIDO",J131-I131)</f>
         <v>342000000</v>
       </c>
       <c r="L131" s="23">
@@ -11458,7 +11338,7 @@
         <v>ASSISTIDO</v>
       </c>
       <c r="N152" s="6">
-        <f t="shared" ref="N152:N201" si="23">ROW()-1</f>
+        <f t="shared" ref="N152:N215" si="23">ROW()-1</f>
         <v>151</v>
       </c>
     </row>
@@ -12594,14 +12474,14 @@
         <v>171800000</v>
       </c>
       <c r="K178" s="44">
-        <f t="shared" ref="K178:K189" si="30">J178-I178</f>
+        <f t="shared" si="17"/>
         <v>66800000</v>
       </c>
       <c r="L178" s="23">
         <v>0</v>
       </c>
       <c r="M178" s="25" t="str">
-        <f t="shared" ref="M178:M189" si="31">IF(ISBLANK(F178),"NÃO ASSISTIDO","ASSISTIDO")</f>
+        <f t="shared" ref="M178:M189" si="30">IF(ISBLANK(F178),"NÃO ASSISTIDO","ASSISTIDO")</f>
         <v>NÃO ASSISTIDO</v>
       </c>
       <c r="N178" s="6">
@@ -12637,14 +12517,14 @@
         <v>374600000</v>
       </c>
       <c r="K179" s="44">
+        <f t="shared" si="17"/>
+        <v>299600000</v>
+      </c>
+      <c r="L179" s="23">
+        <v>0</v>
+      </c>
+      <c r="M179" s="25" t="str">
         <f t="shared" si="30"/>
-        <v>299600000</v>
-      </c>
-      <c r="L179" s="23">
-        <v>0</v>
-      </c>
-      <c r="M179" s="25" t="str">
-        <f t="shared" si="31"/>
         <v>NÃO ASSISTIDO</v>
       </c>
       <c r="N179" s="6">
@@ -12685,14 +12565,14 @@
         <v>192600000</v>
       </c>
       <c r="K180" s="44">
+        <f t="shared" si="17"/>
+        <v>162600000</v>
+      </c>
+      <c r="L180" s="23">
+        <v>0</v>
+      </c>
+      <c r="M180" s="25" t="str">
         <f t="shared" si="30"/>
-        <v>162600000</v>
-      </c>
-      <c r="L180" s="23">
-        <v>0</v>
-      </c>
-      <c r="M180" s="25" t="str">
-        <f t="shared" si="31"/>
         <v>ASSISTIDO</v>
       </c>
       <c r="N180" s="6">
@@ -12728,14 +12608,14 @@
         <v>336002996</v>
       </c>
       <c r="K181" s="44">
+        <f t="shared" si="17"/>
+        <v>256002996</v>
+      </c>
+      <c r="L181" s="23">
+        <v>0</v>
+      </c>
+      <c r="M181" s="25" t="str">
         <f t="shared" si="30"/>
-        <v>256002996</v>
-      </c>
-      <c r="L181" s="23">
-        <v>0</v>
-      </c>
-      <c r="M181" s="25" t="str">
-        <f t="shared" si="31"/>
         <v>NÃO ASSISTIDO</v>
       </c>
       <c r="N181" s="6">
@@ -12771,14 +12651,14 @@
         <v>178000000</v>
       </c>
       <c r="K182" s="44">
+        <f t="shared" si="17"/>
+        <v>29000000</v>
+      </c>
+      <c r="L182" s="23">
+        <v>0</v>
+      </c>
+      <c r="M182" s="25" t="str">
         <f t="shared" si="30"/>
-        <v>29000000</v>
-      </c>
-      <c r="L182" s="23">
-        <v>0</v>
-      </c>
-      <c r="M182" s="25" t="str">
-        <f t="shared" si="31"/>
         <v>NÃO ASSISTIDO</v>
       </c>
       <c r="N182" s="6">
@@ -12814,14 +12694,14 @@
         <v>293500000</v>
       </c>
       <c r="K183" s="44">
+        <f t="shared" si="17"/>
+        <v>143500000</v>
+      </c>
+      <c r="L183" s="23">
+        <v>0</v>
+      </c>
+      <c r="M183" s="25" t="str">
         <f t="shared" si="30"/>
-        <v>143500000</v>
-      </c>
-      <c r="L183" s="23">
-        <v>0</v>
-      </c>
-      <c r="M183" s="25" t="str">
-        <f t="shared" si="31"/>
         <v>NÃO ASSISTIDO</v>
       </c>
       <c r="N183" s="6">
@@ -12862,14 +12742,14 @@
         <v>603900000</v>
       </c>
       <c r="K184" s="44">
+        <f t="shared" si="17"/>
+        <v>453900000</v>
+      </c>
+      <c r="L184" s="23">
+        <v>0</v>
+      </c>
+      <c r="M184" s="25" t="str">
         <f t="shared" si="30"/>
-        <v>453900000</v>
-      </c>
-      <c r="L184" s="23">
-        <v>0</v>
-      </c>
-      <c r="M184" s="25" t="str">
-        <f t="shared" si="31"/>
         <v>ASSISTIDO</v>
       </c>
       <c r="N184" s="6">
@@ -12905,14 +12785,14 @@
         <v>381700000</v>
       </c>
       <c r="K185" s="44">
+        <f t="shared" si="17"/>
+        <v>206700000</v>
+      </c>
+      <c r="L185" s="23">
+        <v>0</v>
+      </c>
+      <c r="M185" s="25" t="str">
         <f t="shared" si="30"/>
-        <v>206700000</v>
-      </c>
-      <c r="L185" s="23">
-        <v>0</v>
-      </c>
-      <c r="M185" s="25" t="str">
-        <f t="shared" si="31"/>
         <v>NÃO ASSISTIDO</v>
       </c>
       <c r="N185" s="6">
@@ -12948,14 +12828,14 @@
         <v>756200000</v>
       </c>
       <c r="K186" s="44">
+        <f t="shared" si="17"/>
+        <v>621200000</v>
+      </c>
+      <c r="L186" s="23">
+        <v>0</v>
+      </c>
+      <c r="M186" s="25" t="str">
         <f t="shared" si="30"/>
-        <v>621200000</v>
-      </c>
-      <c r="L186" s="23">
-        <v>0</v>
-      </c>
-      <c r="M186" s="25" t="str">
-        <f t="shared" si="31"/>
         <v>NÃO ASSISTIDO</v>
       </c>
       <c r="N186" s="6">
@@ -12991,14 +12871,14 @@
         <v>321900000</v>
       </c>
       <c r="K187" s="44">
+        <f t="shared" si="17"/>
+        <v>191900000</v>
+      </c>
+      <c r="L187" s="23">
+        <v>0</v>
+      </c>
+      <c r="M187" s="25" t="str">
         <f t="shared" si="30"/>
-        <v>191900000</v>
-      </c>
-      <c r="L187" s="23">
-        <v>0</v>
-      </c>
-      <c r="M187" s="25" t="str">
-        <f t="shared" si="31"/>
         <v>NÃO ASSISTIDO</v>
       </c>
       <c r="N187" s="6">
@@ -13039,14 +12919,14 @@
         <v>746000000</v>
       </c>
       <c r="K188" s="44">
+        <f t="shared" si="17"/>
+        <v>601000000</v>
+      </c>
+      <c r="L188" s="23">
+        <v>0</v>
+      </c>
+      <c r="M188" s="25" t="str">
         <f t="shared" si="30"/>
-        <v>601000000</v>
-      </c>
-      <c r="L188" s="23">
-        <v>0</v>
-      </c>
-      <c r="M188" s="25" t="str">
-        <f t="shared" si="31"/>
         <v>ASSISTIDO</v>
       </c>
       <c r="N188" s="6">
@@ -13082,14 +12962,14 @@
         <v>282600000</v>
       </c>
       <c r="K189" s="44">
+        <f t="shared" si="17"/>
+        <v>155600000</v>
+      </c>
+      <c r="L189" s="23">
+        <v>0</v>
+      </c>
+      <c r="M189" s="25" t="str">
         <f t="shared" si="30"/>
-        <v>155600000</v>
-      </c>
-      <c r="L189" s="23">
-        <v>0</v>
-      </c>
-      <c r="M189" s="25" t="str">
-        <f t="shared" si="31"/>
         <v>NÃO ASSISTIDO</v>
       </c>
       <c r="N189" s="6">
@@ -13125,14 +13005,14 @@
         <v>260800000</v>
       </c>
       <c r="K190" s="44">
-        <f t="shared" ref="K190:K198" si="32">J190-I190</f>
+        <f t="shared" si="17"/>
         <v>115800000</v>
       </c>
       <c r="L190" s="23">
         <v>0</v>
       </c>
       <c r="M190" s="25" t="str">
-        <f t="shared" ref="M190:M198" si="33">IF(ISBLANK(F190),"NÃO ASSISTIDO","ASSISTIDO")</f>
+        <f t="shared" ref="M190:M198" si="31">IF(ISBLANK(F190),"NÃO ASSISTIDO","ASSISTIDO")</f>
         <v>NÃO ASSISTIDO</v>
       </c>
       <c r="N190" s="6">
@@ -13168,14 +13048,14 @@
         <v>373500000</v>
       </c>
       <c r="K191" s="44">
-        <f t="shared" si="32"/>
+        <f t="shared" si="17"/>
         <v>241500000</v>
       </c>
       <c r="L191" s="23">
         <v>0</v>
       </c>
       <c r="M191" s="25" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>NÃO ASSISTIDO</v>
       </c>
       <c r="N191" s="6">
@@ -13211,14 +13091,14 @@
         <v>386000000</v>
       </c>
       <c r="K192" s="44">
-        <f t="shared" si="32"/>
+        <f t="shared" si="17"/>
         <v>251000000</v>
       </c>
       <c r="L192" s="23">
         <v>0</v>
       </c>
       <c r="M192" s="25" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>NÃO ASSISTIDO</v>
       </c>
       <c r="N192" s="6">
@@ -13254,14 +13134,14 @@
         <v>347182886</v>
       </c>
       <c r="K193" s="44">
-        <f t="shared" si="32"/>
+        <f t="shared" si="17"/>
         <v>222182886</v>
       </c>
       <c r="L193" s="23">
         <v>0</v>
       </c>
       <c r="M193" s="25" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>NÃO ASSISTIDO</v>
       </c>
       <c r="N193" s="6">
@@ -13297,14 +13177,14 @@
         <v>528000000</v>
       </c>
       <c r="K194" s="44">
-        <f t="shared" si="32"/>
+        <f t="shared" si="17"/>
         <v>418000000</v>
       </c>
       <c r="L194" s="23">
         <v>0</v>
       </c>
       <c r="M194" s="25" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>NÃO ASSISTIDO</v>
       </c>
       <c r="N194" s="6">
@@ -13340,14 +13220,14 @@
         <v>125400000</v>
       </c>
       <c r="K195" s="44">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="K195:K205" si="32">IF(OR(ISBLANK(J195),ISBLANK(I195)),"DESCONHECIDO",J195-I195)</f>
         <v>87400000</v>
       </c>
       <c r="L195" s="23">
         <v>0</v>
       </c>
       <c r="M195" s="25" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>NÃO ASSISTIDO</v>
       </c>
       <c r="N195" s="6">
@@ -13390,7 +13270,7 @@
         <v>0</v>
       </c>
       <c r="M196" s="25" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>NÃO ASSISTIDO</v>
       </c>
       <c r="N196" s="6">
@@ -13433,7 +13313,7 @@
         <v>0</v>
       </c>
       <c r="M197" s="25" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>NÃO ASSISTIDO</v>
       </c>
       <c r="N197" s="6">
@@ -13476,7 +13356,7 @@
         <v>0</v>
       </c>
       <c r="M198" s="25" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>NÃO ASSISTIDO</v>
       </c>
       <c r="N198" s="6">
@@ -13512,7 +13392,7 @@
         <v>216000000</v>
       </c>
       <c r="K199" s="44">
-        <f>J199-I199</f>
+        <f t="shared" si="32"/>
         <v>151000000</v>
       </c>
       <c r="L199" s="23">
@@ -13555,7 +13435,7 @@
         <v>42000000</v>
       </c>
       <c r="K200" s="44">
-        <f>J200-I200</f>
+        <f t="shared" si="32"/>
         <v>12000000</v>
       </c>
       <c r="L200" s="23">
@@ -13572,7 +13452,7 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="A201:A218" si="33">ROW()-1</f>
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
@@ -13598,7 +13478,7 @@
         <v>146800000</v>
       </c>
       <c r="K201" s="44">
-        <f>J201-I201</f>
+        <f t="shared" si="32"/>
         <v>64800000</v>
       </c>
       <c r="L201" s="23">
@@ -13611,6 +13491,405 @@
       <c r="N201" s="6">
         <f t="shared" si="23"/>
         <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A202" s="6">
+        <f t="shared" si="33"/>
+        <v>201</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C202" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E202" s="7">
+        <v>45381</v>
+      </c>
+      <c r="F202" s="9">
+        <v>8</v>
+      </c>
+      <c r="G202" s="65">
+        <v>8.0555555555555561E-2</v>
+      </c>
+      <c r="H202" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I202" s="48">
+        <v>90000000</v>
+      </c>
+      <c r="J202" s="46">
+        <v>375500000</v>
+      </c>
+      <c r="K202" s="44">
+        <f t="shared" si="32"/>
+        <v>285500000</v>
+      </c>
+      <c r="L202" s="23">
+        <v>1</v>
+      </c>
+      <c r="M202" s="25" t="str">
+        <f>IF(ISBLANK(F202),"NÃO ASSISTIDO","ASSISTIDO")</f>
+        <v>ASSISTIDO</v>
+      </c>
+      <c r="N202" s="6">
+        <f t="shared" si="23"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A203" s="6">
+        <f t="shared" si="33"/>
+        <v>202</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C203" s="5">
+        <v>2023</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F203" s="9">
+        <v>6</v>
+      </c>
+      <c r="G203" s="65">
+        <v>7.013888888888889E-2</v>
+      </c>
+      <c r="H203" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I203" s="48">
+        <v>45000000</v>
+      </c>
+      <c r="J203" s="46">
+        <v>220000000</v>
+      </c>
+      <c r="K203" s="44">
+        <f t="shared" si="32"/>
+        <v>175000000</v>
+      </c>
+      <c r="L203" s="23">
+        <v>1</v>
+      </c>
+      <c r="M203" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="N203" s="6">
+        <f t="shared" si="23"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A204" s="6">
+        <f t="shared" si="33"/>
+        <v>203</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C204" s="5">
+        <v>2023</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F204" s="9">
+        <v>10</v>
+      </c>
+      <c r="G204" s="65">
+        <v>7.013888888888889E-2</v>
+      </c>
+      <c r="H204" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="K204" s="44" t="str">
+        <f t="shared" si="32"/>
+        <v>DESCONHECIDO</v>
+      </c>
+      <c r="L204" s="23">
+        <v>1</v>
+      </c>
+      <c r="M204" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="N204" s="6">
+        <f t="shared" si="23"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A205" s="6">
+        <f t="shared" si="33"/>
+        <v>204</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C205" s="5">
+        <v>2024</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F205" s="9">
+        <v>7</v>
+      </c>
+      <c r="G205" s="65">
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="H205" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K205" s="44" t="str">
+        <f t="shared" si="32"/>
+        <v>DESCONHECIDO</v>
+      </c>
+      <c r="L205" s="23">
+        <v>1</v>
+      </c>
+      <c r="M205" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="N205" s="6">
+        <f t="shared" si="23"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A206" s="6">
+        <f t="shared" si="33"/>
+        <v>205</v>
+      </c>
+      <c r="B206" s="79"/>
+      <c r="K206" s="44">
+        <f t="shared" ref="K206:K218" si="34">J206-I206</f>
+        <v>0</v>
+      </c>
+      <c r="M206" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="N206" s="6">
+        <f t="shared" si="23"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A207" s="6">
+        <f t="shared" si="33"/>
+        <v>206</v>
+      </c>
+      <c r="K207" s="44">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="M207" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="N207" s="6">
+        <f t="shared" si="23"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A208" s="6">
+        <f t="shared" si="33"/>
+        <v>207</v>
+      </c>
+      <c r="K208" s="44">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="M208" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="N208" s="6">
+        <f t="shared" si="23"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A209" s="6">
+        <f t="shared" si="33"/>
+        <v>208</v>
+      </c>
+      <c r="K209" s="44">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="M209" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="N209" s="6">
+        <f t="shared" si="23"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A210" s="6">
+        <f t="shared" si="33"/>
+        <v>209</v>
+      </c>
+      <c r="K210" s="44">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="M210" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="N210" s="6">
+        <f t="shared" si="23"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A211" s="6">
+        <f t="shared" si="33"/>
+        <v>210</v>
+      </c>
+      <c r="K211" s="44">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="M211" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="N211" s="6">
+        <f t="shared" si="23"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A212" s="6">
+        <f t="shared" si="33"/>
+        <v>211</v>
+      </c>
+      <c r="K212" s="44">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="M212" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="N212" s="6">
+        <f t="shared" si="23"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A213" s="6">
+        <f t="shared" si="33"/>
+        <v>212</v>
+      </c>
+      <c r="K213" s="44">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="M213" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="N213" s="6">
+        <f t="shared" si="23"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A214" s="6">
+        <f t="shared" si="33"/>
+        <v>213</v>
+      </c>
+      <c r="K214" s="44">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="M214" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="N214" s="6">
+        <f t="shared" si="23"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A215" s="6">
+        <f t="shared" si="33"/>
+        <v>214</v>
+      </c>
+      <c r="K215" s="44">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="M215" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="N215" s="6">
+        <f t="shared" si="23"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A216" s="6">
+        <f t="shared" si="33"/>
+        <v>215</v>
+      </c>
+      <c r="K216" s="44">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="M216" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="N216" s="6">
+        <f t="shared" ref="N216:N218" si="35">ROW()-1</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A217" s="6">
+        <f t="shared" si="33"/>
+        <v>216</v>
+      </c>
+      <c r="K217" s="44">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="M217" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="N217" s="6">
+        <f t="shared" si="35"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A218" s="6">
+        <f t="shared" si="33"/>
+        <v>217</v>
+      </c>
+      <c r="K218" s="44">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="M218" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="N218" s="6">
+        <f t="shared" si="35"/>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -13621,72 +13900,77 @@
     <mergeCell ref="AC47:AE47"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="16" operator="greaterThanOrEqual">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="33" priority="17" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="18" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K1048576">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R36 Q20:Q21 M1:M1048576 U32:U1048576 R60:R1048576 Z1:Z1048576 AE1:AE46 AE48:AE1048576">
-    <cfRule type="cellIs" dxfId="9" priority="21" operator="equal">
+  <conditionalFormatting sqref="R1:R36 Q20:Q21 U32:U1048576 R60:R1048576 Z1:Z1048576 AE1:AE46 AE48:AE1048576 M1:M1048576">
+    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
       <formula>"NÃO ASSISTIDO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
       <formula>"ASSISTIDO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U30 Q12">
-    <cfRule type="cellIs" dxfId="7" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
       <formula>"NÃO ASSISTIDO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
       <formula>"ASSISTIDO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5">
-    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="14" operator="equal">
       <formula>"NÃO ASSISTIDO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
       <formula>"ASSISTIDO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA5">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
       <formula>"NÃO ASSISTIDO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
       <formula>"ASSISTIDO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF5">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"NÃO ASSISTIDO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"ASSISTIDO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K205">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+      <formula>"DESCONHECIDO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
